--- a/Buszadatok.xlsx
+++ b/Buszadatok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/319a91e8a51c869d/Dokumentumok/GitHub/HVW-Bus-Set/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5ACD9533-B454-45D5-8D53-9D5CC880F220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1AD8F94-73B6-437C-BB24-1F1DB8AF5A93}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{5ACD9533-B454-45D5-8D53-9D5CC880F220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3DB608-A01C-4EB6-BE92-15AF26FB419E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
   <si>
     <t>Gyártó</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Üzembentartási díj (Pót)</t>
   </si>
   <si>
-    <t>Tömeg részenként</t>
-  </si>
-  <si>
     <t>Erő LE</t>
   </si>
   <si>
@@ -128,12 +125,6 @@
     <t>Üzemeltetési költség</t>
   </si>
   <si>
-    <t>Tömeg+(Lóerő/10)/2</t>
-  </si>
-  <si>
-    <t>(Tömeg+(Kapacitás/15)+Lóerő)/10</t>
-  </si>
-  <si>
     <t>5/csukló</t>
   </si>
   <si>
@@ -327,6 +318,66 @@
   </si>
   <si>
     <t>MB_Citaro2_lemu_b</t>
+  </si>
+  <si>
+    <t>HA(D2="D"; ((V2+(T2/10))/2)+(P2/14); HA(D2="H"; ((V2+(T2/10))/2*1,2)+(P2/14); HA(D2="E"; ((V2+(T2/10))/2*1,5)+(P2/14); 0)))</t>
+  </si>
+  <si>
+    <t>Dízel</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Elektromos</t>
+  </si>
+  <si>
+    <t>HA(D2="D"; ((V2+(W2/15)+T2)/10)+(P2/14); HA(D2="H"; ((V2+(W2/15)+T2)/10*0,8)+(P2/14); HA(D2="E"; ((V2+(W2/15)+T2)/10*0,5)+(P2/14); 0)))</t>
+  </si>
+  <si>
+    <t>((Tömeg+(Kapacitás/15)+Lóerő)/10)+(Rakodási sebesség/14)</t>
+  </si>
+  <si>
+    <t>((Tömeg+(Lóerő/10))/2)+(Rakodási sebesség/14)</t>
+  </si>
+  <si>
+    <t>((Tömeg+(Lóerő/10))/2*1,2)+(Rakodási sebesség/14)</t>
+  </si>
+  <si>
+    <t>((Tömeg+(Lóerő/10))/2*1,5)+(Rakodási sebesség/14)</t>
+  </si>
+  <si>
+    <t>((Tömeg+(Kapacitás/15)+Lóerő)/10*0,8)+(Rakodási sebesség/14)</t>
+  </si>
+  <si>
+    <t>((Tömeg+(Kapacitás/15)+Lóerő)/10*0,5)+(Rakodási sebesség/14)</t>
+  </si>
+  <si>
+    <t>Purchase price</t>
+  </si>
+  <si>
+    <t>Operating cost</t>
+  </si>
+  <si>
+    <t>(( weight +( power_LE /10))/2)+( loading_speed /14)</t>
+  </si>
+  <si>
+    <t>(( weight +( power_LE /10))/2*1,2)+( loading_speed /14)</t>
+  </si>
+  <si>
+    <t>(( weight +( power_LE /10))/2*1,5)+( loading_speed /14)</t>
+  </si>
+  <si>
+    <t>(( weight +( cargo_capacity /15)+ power_LE )/10)+( loading_speed /14)</t>
+  </si>
+  <si>
+    <t>(( weight +( cargo_capacity /15)+ power_LE )/10*0,8)+( loading_speed /14)</t>
+  </si>
+  <si>
+    <t>(( weight +( cargo_capacity /15)+ power_LE )/10*0,5)+( loading_speed /14)</t>
+  </si>
+  <si>
+    <t>Electric</t>
   </si>
 </sst>
 </file>
@@ -416,14 +467,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -642,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -698,9 +749,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -708,9 +756,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -728,14 +773,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,13 +792,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -990,17 +1035,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1096,11 +1141,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460A460C-03E7-40D2-9428-8EF5A5403C6D}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1108,27 +1153,25 @@
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" style="6" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.25" style="41" customWidth="1"/>
+    <col min="4" max="4" width="4.25" style="39" customWidth="1"/>
     <col min="5" max="5" width="1.5" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.375" customWidth="1"/>
     <col min="9" max="9" width="9.25" customWidth="1"/>
     <col min="10" max="10" width="7.25" customWidth="1"/>
-    <col min="11" max="15" width="4.875" style="32" customWidth="1"/>
+    <col min="11" max="15" width="4.875" style="31" customWidth="1"/>
     <col min="16" max="16" width="9.875" customWidth="1"/>
     <col min="17" max="17" width="8.125" style="12" customWidth="1"/>
     <col min="18" max="18" width="8.625" style="12" customWidth="1"/>
     <col min="19" max="19" width="8.25" customWidth="1"/>
     <col min="20" max="21" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.75" style="32" customWidth="1"/>
-    <col min="23" max="23" width="7" customWidth="1"/>
-    <col min="24" max="24" width="19.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="9.5" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="10" customFormat="1" ht="77.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="77.25" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1138,11 +1181,11 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>90</v>
+      <c r="D1" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -1157,20 +1200,20 @@
       <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>59</v>
+      <c r="N1" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>8</v>
@@ -1185,43 +1228,37 @@
         <v>12</v>
       </c>
       <c r="T1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>22</v>
+      <c r="V1" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="7" customFormat="1">
+    <row r="2" spans="1:24" s="7" customFormat="1">
       <c r="A2" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="36" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="G2" s="13">
         <v>2012</v>
@@ -1235,67 +1272,65 @@
       <c r="J2" s="11">
         <v>20</v>
       </c>
-      <c r="K2" s="30">
-        <v>14</v>
-      </c>
-      <c r="L2" s="30">
-        <v>14</v>
-      </c>
-      <c r="M2" s="30">
-        <v>14</v>
-      </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="K2" s="29">
+        <v>14</v>
+      </c>
+      <c r="L2" s="29">
+        <v>14</v>
+      </c>
+      <c r="M2" s="29">
+        <v>14</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="11">
         <f>SUM(K2:O2)</f>
         <v>42</v>
       </c>
       <c r="Q2" s="17">
-        <f>IF(D2="D", (W2+(T2/10))/2, IF(D2="H", (W2+(T2/10))/2*1.2, IF(D2="E", (W2+(T2/10))/2*1.5, 0)))</f>
-        <v>22.933</v>
+        <f>IF(D2="D", ((V2+(T2/10))/2)+(P2/14), IF(D2="H", ((V2+(T2/10))/2*1.2)+(P2/14), IF(D2="E", ((V2+(T2/10))/2*1.5)+(P2/14), 0)))</f>
+        <v>25.933</v>
       </c>
       <c r="R2" s="17">
-        <f>IF(D2="D", (W2+(Y2/15)+T2)/10, IF(D2="H", (W2+(Y2/15)+T2)/10*0.8, IF(D2="E", (W2+(Y2/15)+T2)/10*0.5, 0)))</f>
-        <v>36.539333333333332</v>
+        <f t="shared" ref="R2:R34" si="0">IF(D2="D", ((V2+(W2/15)+T2)/10)+(P2/14), IF(D2="H", ((V2+(W2/15)+T2)/10*0.8)+(P2/14), IF(D2="E", ((V2+(W2/15)+T2)/10*0.5)+(P2/14), 0)))</f>
+        <v>39.539333333333332</v>
       </c>
       <c r="S2" s="11">
         <v>80</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" ref="T2:T34" si="0">U2*1.341</f>
+        <f t="shared" ref="T2:T34" si="1">U2*1.341</f>
         <v>348.65999999999997</v>
       </c>
       <c r="U2" s="11">
         <v>260</v>
       </c>
-      <c r="V2" s="30"/>
+      <c r="V2" s="11">
+        <v>11</v>
+      </c>
       <c r="W2" s="11">
-        <v>11</v>
-      </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="11">
         <v>86</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="X2" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="7" customFormat="1">
+    <row r="3" spans="1:24" s="7" customFormat="1">
       <c r="A3" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="36" t="s">
-        <v>64</v>
+        <v>39</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="G3" s="13">
         <v>2012</v>
@@ -1309,65 +1344,63 @@
       <c r="J3" s="11">
         <v>20</v>
       </c>
-      <c r="K3" s="30">
-        <v>14</v>
-      </c>
-      <c r="L3" s="30">
-        <v>14</v>
-      </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+      <c r="K3" s="29">
+        <v>14</v>
+      </c>
+      <c r="L3" s="29">
+        <v>14</v>
+      </c>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="11">
-        <f t="shared" ref="P3:P30" si="1">SUM(K3:O3)</f>
+        <f t="shared" ref="P3:P30" si="2">SUM(K3:O3)</f>
         <v>28</v>
       </c>
       <c r="Q3" s="17">
-        <f t="shared" ref="Q3:Q34" si="2">IF(D3="D", (W3+(T3/10))/2, IF(D3="H", (W3+(T3/10))/2*1.2, IF(D3="E", (W3+(T3/10))/2*1.5, 0)))</f>
-        <v>22.933</v>
+        <f t="shared" ref="Q3:Q30" si="3">IF(D3="D", ((V3+(T3/10))/2)+(P3/14), IF(D3="H", ((V3+(T3/10))/2*1.2)+(P3/14), IF(D3="E", ((V3+(T3/10))/2*1.5)+(P3/14), 0)))</f>
+        <v>24.933</v>
       </c>
       <c r="R3" s="17">
-        <f t="shared" ref="R3:R34" si="3">IF(D3="D", (W3+(Y3/15)+T3)/10, IF(D3="H", (W3+(Y3/15)+T3)/10*0.8, IF(D3="E", (W3+(Y3/15)+T3)/10*0.5, 0)))</f>
-        <v>36.539333333333332</v>
+        <f t="shared" si="0"/>
+        <v>38.539333333333332</v>
       </c>
       <c r="S3" s="11">
         <v>80</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U3" s="11">
         <v>260</v>
       </c>
-      <c r="V3" s="30"/>
+      <c r="V3" s="11">
+        <v>11</v>
+      </c>
       <c r="W3" s="11">
-        <v>11</v>
-      </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="11">
         <v>86</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="X3" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="7" customFormat="1">
+    <row r="4" spans="1:24" s="7" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="36" t="s">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="G4" s="13">
         <v>2012</v>
@@ -1381,67 +1414,65 @@
       <c r="J4" s="11">
         <v>20</v>
       </c>
-      <c r="K4" s="30">
-        <v>14</v>
-      </c>
-      <c r="L4" s="30">
-        <v>14</v>
-      </c>
-      <c r="M4" s="30">
-        <v>14</v>
-      </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
+      <c r="K4" s="29">
+        <v>14</v>
+      </c>
+      <c r="L4" s="29">
+        <v>14</v>
+      </c>
+      <c r="M4" s="29">
+        <v>14</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="Q4" s="17">
-        <f t="shared" si="2"/>
-        <v>23.433</v>
+        <f t="shared" si="3"/>
+        <v>26.433</v>
       </c>
       <c r="R4" s="17">
-        <f t="shared" si="3"/>
-        <v>36.772666666666666</v>
+        <f t="shared" si="0"/>
+        <v>39.772666666666666</v>
       </c>
       <c r="S4" s="11">
         <v>80</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U4" s="11">
         <v>260</v>
       </c>
-      <c r="V4" s="30"/>
+      <c r="V4" s="11">
+        <v>12</v>
+      </c>
       <c r="W4" s="11">
-        <v>12</v>
-      </c>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="11">
         <v>106</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="X4" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="7" customFormat="1">
+    <row r="5" spans="1:24" s="7" customFormat="1">
       <c r="A5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="36" t="s">
-        <v>67</v>
+      <c r="D5" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="G5" s="13">
         <v>2012</v>
@@ -1455,65 +1486,63 @@
       <c r="J5" s="11">
         <v>20</v>
       </c>
-      <c r="K5" s="30">
-        <v>14</v>
-      </c>
-      <c r="L5" s="30">
-        <v>14</v>
-      </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+      <c r="K5" s="29">
+        <v>14</v>
+      </c>
+      <c r="L5" s="29">
+        <v>14</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
       <c r="P5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="Q5" s="17">
-        <f t="shared" si="2"/>
-        <v>23.433</v>
+        <f t="shared" si="3"/>
+        <v>25.433</v>
       </c>
       <c r="R5" s="17">
-        <f t="shared" si="3"/>
-        <v>36.772666666666666</v>
+        <f t="shared" si="0"/>
+        <v>38.772666666666666</v>
       </c>
       <c r="S5" s="11">
         <v>80</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U5" s="11">
         <v>260</v>
       </c>
-      <c r="V5" s="30"/>
+      <c r="V5" s="11">
+        <v>12</v>
+      </c>
       <c r="W5" s="11">
-        <v>12</v>
-      </c>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="11">
         <v>106</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="X5" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:24">
       <c r="A6" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="36" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="G6" s="13">
         <v>2014</v>
@@ -1527,67 +1556,65 @@
       <c r="J6" s="11">
         <v>20</v>
       </c>
-      <c r="K6" s="30">
-        <v>14</v>
-      </c>
-      <c r="L6" s="30">
-        <v>14</v>
-      </c>
-      <c r="M6" s="30">
-        <v>14</v>
-      </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
+      <c r="K6" s="29">
+        <v>14</v>
+      </c>
+      <c r="L6" s="29">
+        <v>14</v>
+      </c>
+      <c r="M6" s="29">
+        <v>14</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
       <c r="P6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="Q6" s="17">
-        <f t="shared" si="2"/>
-        <v>25.501199999999997</v>
+        <f t="shared" si="3"/>
+        <v>28.501199999999997</v>
       </c>
       <c r="R6" s="17">
-        <f t="shared" si="3"/>
-        <v>25.206933333333332</v>
+        <f t="shared" si="0"/>
+        <v>28.206933333333332</v>
       </c>
       <c r="S6" s="11">
         <v>80</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>295.02</v>
       </c>
       <c r="U6" s="3">
         <v>220</v>
       </c>
-      <c r="V6" s="31"/>
+      <c r="V6" s="3">
+        <v>13</v>
+      </c>
       <c r="W6" s="3">
-        <v>13</v>
-      </c>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="3">
         <v>106</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="X6" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:24">
       <c r="A7" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="36" t="s">
-        <v>80</v>
+      <c r="D7" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="G7" s="13">
         <v>2014</v>
@@ -1601,65 +1628,63 @@
       <c r="J7" s="11">
         <v>20</v>
       </c>
-      <c r="K7" s="30">
-        <v>14</v>
-      </c>
-      <c r="L7" s="30">
-        <v>14</v>
-      </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
+      <c r="K7" s="29">
+        <v>14</v>
+      </c>
+      <c r="L7" s="29">
+        <v>14</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="Q7" s="17">
-        <f t="shared" si="2"/>
-        <v>25.501199999999997</v>
+        <f t="shared" si="3"/>
+        <v>27.501199999999997</v>
       </c>
       <c r="R7" s="17">
-        <f t="shared" si="3"/>
-        <v>25.206933333333332</v>
+        <f t="shared" si="0"/>
+        <v>27.206933333333332</v>
       </c>
       <c r="S7" s="11">
         <v>80</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>295.02</v>
       </c>
       <c r="U7" s="3">
         <v>220</v>
       </c>
-      <c r="V7" s="31"/>
+      <c r="V7" s="3">
+        <v>13</v>
+      </c>
       <c r="W7" s="3">
-        <v>13</v>
-      </c>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="3">
         <v>106</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="X7" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:24">
       <c r="A8" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="36" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="G8" s="4">
         <v>2013</v>
@@ -1673,67 +1698,65 @@
       <c r="J8" s="11">
         <v>20</v>
       </c>
-      <c r="K8" s="31">
-        <v>14</v>
-      </c>
-      <c r="L8" s="31">
-        <v>14</v>
-      </c>
-      <c r="M8" s="31">
+      <c r="K8" s="30">
+        <v>14</v>
+      </c>
+      <c r="L8" s="30">
+        <v>14</v>
+      </c>
+      <c r="M8" s="30">
         <v>5</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="Q8" s="17">
-        <f t="shared" si="2"/>
-        <v>23.433</v>
+        <f t="shared" si="3"/>
+        <v>25.790142857142857</v>
       </c>
       <c r="R8" s="17">
-        <f t="shared" si="3"/>
-        <v>36.772666666666666</v>
+        <f t="shared" si="0"/>
+        <v>39.12980952380952</v>
       </c>
       <c r="S8" s="11">
         <v>80</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U8" s="11">
         <v>260</v>
       </c>
-      <c r="V8" s="31"/>
+      <c r="V8" s="3">
+        <v>12</v>
+      </c>
       <c r="W8" s="3">
-        <v>12</v>
-      </c>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="3">
         <v>106</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="X8" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:24">
       <c r="A9" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="36" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="G9" s="4">
         <v>2013</v>
@@ -1747,65 +1770,63 @@
       <c r="J9" s="11">
         <v>20</v>
       </c>
-      <c r="K9" s="31">
-        <v>14</v>
-      </c>
-      <c r="L9" s="31">
-        <v>14</v>
-      </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="K9" s="30">
+        <v>14</v>
+      </c>
+      <c r="L9" s="30">
+        <v>14</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="Q9" s="17">
-        <f t="shared" si="2"/>
-        <v>23.433</v>
+        <f t="shared" si="3"/>
+        <v>25.433</v>
       </c>
       <c r="R9" s="17">
-        <f t="shared" si="3"/>
-        <v>36.772666666666666</v>
+        <f t="shared" si="0"/>
+        <v>38.772666666666666</v>
       </c>
       <c r="S9" s="11">
         <v>80</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U9" s="11">
         <v>260</v>
       </c>
-      <c r="V9" s="31"/>
+      <c r="V9" s="3">
+        <v>12</v>
+      </c>
       <c r="W9" s="3">
-        <v>12</v>
-      </c>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="3">
         <v>106</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="X9" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:24">
       <c r="A10" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>93</v>
+        <v>43</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="E10" s="46"/>
-      <c r="F10" s="36" t="s">
-        <v>73</v>
+      <c r="F10" s="34" t="s">
+        <v>70</v>
       </c>
       <c r="G10" s="13">
         <v>2012</v>
@@ -1819,69 +1840,67 @@
       <c r="J10" s="11">
         <v>20</v>
       </c>
-      <c r="K10" s="31">
-        <v>14</v>
-      </c>
-      <c r="L10" s="31">
-        <v>14</v>
-      </c>
-      <c r="M10" s="31">
-        <v>14</v>
-      </c>
-      <c r="N10" s="31">
-        <v>14</v>
-      </c>
-      <c r="O10" s="31"/>
+      <c r="K10" s="30">
+        <v>14</v>
+      </c>
+      <c r="L10" s="30">
+        <v>14</v>
+      </c>
+      <c r="M10" s="30">
+        <v>14</v>
+      </c>
+      <c r="N10" s="30">
+        <v>14</v>
+      </c>
+      <c r="O10" s="30"/>
       <c r="P10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="Q10" s="17">
-        <f t="shared" si="2"/>
-        <v>26.433</v>
+        <f t="shared" si="3"/>
+        <v>30.433</v>
       </c>
       <c r="R10" s="17">
-        <f t="shared" si="3"/>
-        <v>37.752666666666663</v>
+        <f t="shared" si="0"/>
+        <v>41.752666666666663</v>
       </c>
       <c r="S10" s="11">
         <v>80</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U10" s="11">
         <v>260</v>
       </c>
-      <c r="V10" s="31"/>
+      <c r="V10" s="3">
+        <v>18</v>
+      </c>
       <c r="W10" s="3">
-        <v>18</v>
-      </c>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="3">
         <v>163</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="X10" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:24">
       <c r="A11" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="36" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G11" s="13">
         <v>2012</v>
@@ -1895,67 +1914,65 @@
       <c r="J11" s="11">
         <v>20</v>
       </c>
-      <c r="K11" s="31">
-        <v>14</v>
-      </c>
-      <c r="L11" s="31">
-        <v>14</v>
-      </c>
-      <c r="M11" s="31">
-        <v>14</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="K11" s="30">
+        <v>14</v>
+      </c>
+      <c r="L11" s="30">
+        <v>14</v>
+      </c>
+      <c r="M11" s="30">
+        <v>14</v>
+      </c>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="Q11" s="17">
-        <f t="shared" si="2"/>
-        <v>26.433</v>
+        <f t="shared" si="3"/>
+        <v>29.433</v>
       </c>
       <c r="R11" s="17">
-        <f t="shared" si="3"/>
-        <v>37.752666666666663</v>
+        <f t="shared" si="0"/>
+        <v>40.752666666666663</v>
       </c>
       <c r="S11" s="11">
         <v>80</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U11" s="11">
         <v>260</v>
       </c>
-      <c r="V11" s="31"/>
+      <c r="V11" s="3">
+        <v>18</v>
+      </c>
       <c r="W11" s="3">
-        <v>18</v>
-      </c>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="3">
         <v>163</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="X11" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:24">
       <c r="A12" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="36" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="G12" s="13">
         <v>2014</v>
@@ -1969,69 +1986,67 @@
       <c r="J12" s="11">
         <v>20</v>
       </c>
-      <c r="K12" s="31">
-        <v>14</v>
-      </c>
-      <c r="L12" s="31">
-        <v>14</v>
-      </c>
-      <c r="M12" s="31">
-        <v>14</v>
-      </c>
-      <c r="N12" s="31">
-        <v>14</v>
-      </c>
-      <c r="O12" s="31"/>
+      <c r="K12" s="30">
+        <v>14</v>
+      </c>
+      <c r="L12" s="30">
+        <v>14</v>
+      </c>
+      <c r="M12" s="30">
+        <v>14</v>
+      </c>
+      <c r="N12" s="30">
+        <v>14</v>
+      </c>
+      <c r="O12" s="30"/>
       <c r="P12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="Q12" s="17">
-        <f t="shared" si="2"/>
-        <v>29.101199999999995</v>
+        <f t="shared" si="3"/>
+        <v>33.101199999999992</v>
       </c>
       <c r="R12" s="17">
-        <f t="shared" si="3"/>
-        <v>25.990933333333334</v>
+        <f t="shared" si="0"/>
+        <v>29.990933333333334</v>
       </c>
       <c r="S12" s="11">
         <v>80</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>295.02</v>
       </c>
       <c r="U12" s="3">
         <v>220</v>
       </c>
-      <c r="V12" s="31"/>
+      <c r="V12" s="3">
+        <v>19</v>
+      </c>
       <c r="W12" s="3">
-        <v>19</v>
-      </c>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="3">
         <v>163</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="X12" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:24">
       <c r="A13" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="36" t="s">
-        <v>83</v>
+        <v>46</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="G13" s="13">
         <v>2014</v>
@@ -2045,67 +2060,65 @@
       <c r="J13" s="11">
         <v>20</v>
       </c>
-      <c r="K13" s="31">
-        <v>14</v>
-      </c>
-      <c r="L13" s="31">
-        <v>14</v>
-      </c>
-      <c r="M13" s="31">
-        <v>14</v>
-      </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
+      <c r="K13" s="30">
+        <v>14</v>
+      </c>
+      <c r="L13" s="30">
+        <v>14</v>
+      </c>
+      <c r="M13" s="30">
+        <v>14</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="Q13" s="17">
-        <f t="shared" si="2"/>
-        <v>29.101199999999995</v>
+        <f t="shared" si="3"/>
+        <v>32.101199999999992</v>
       </c>
       <c r="R13" s="17">
-        <f t="shared" si="3"/>
-        <v>25.990933333333334</v>
+        <f t="shared" si="0"/>
+        <v>28.990933333333334</v>
       </c>
       <c r="S13" s="11">
         <v>80</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>295.02</v>
       </c>
       <c r="U13" s="3">
         <v>220</v>
       </c>
-      <c r="V13" s="31"/>
+      <c r="V13" s="3">
+        <v>19</v>
+      </c>
       <c r="W13" s="3">
-        <v>19</v>
-      </c>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="3">
         <v>163</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="X13" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:24">
       <c r="A14" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="36" t="s">
-        <v>75</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="G14" s="13">
         <v>2012</v>
@@ -2119,69 +2132,67 @@
       <c r="J14" s="11">
         <v>20</v>
       </c>
-      <c r="K14" s="31">
-        <v>14</v>
-      </c>
-      <c r="L14" s="31">
-        <v>14</v>
-      </c>
-      <c r="M14" s="31">
-        <v>14</v>
-      </c>
-      <c r="N14" s="31">
-        <v>14</v>
-      </c>
-      <c r="O14" s="31"/>
+      <c r="K14" s="30">
+        <v>14</v>
+      </c>
+      <c r="L14" s="30">
+        <v>14</v>
+      </c>
+      <c r="M14" s="30">
+        <v>14</v>
+      </c>
+      <c r="N14" s="30">
+        <v>14</v>
+      </c>
+      <c r="O14" s="30"/>
       <c r="P14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="Q14" s="17">
-        <f t="shared" si="2"/>
-        <v>29.444499999999998</v>
+        <f t="shared" si="3"/>
+        <v>33.444499999999998</v>
       </c>
       <c r="R14" s="17">
-        <f t="shared" si="3"/>
-        <v>42.095666666666666</v>
+        <f t="shared" si="0"/>
+        <v>46.095666666666666</v>
       </c>
       <c r="S14" s="11">
         <v>80</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388.89</v>
       </c>
       <c r="U14" s="11">
         <v>290</v>
       </c>
-      <c r="V14" s="31"/>
+      <c r="V14" s="3">
+        <v>20</v>
+      </c>
       <c r="W14" s="3">
-        <v>20</v>
-      </c>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="3">
         <v>181</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="X14" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:24">
       <c r="A15" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="36" t="s">
-        <v>76</v>
+        <v>48</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="G15" s="13">
         <v>2012</v>
@@ -2195,71 +2206,69 @@
       <c r="J15" s="11">
         <v>20</v>
       </c>
-      <c r="K15" s="31">
-        <v>14</v>
-      </c>
-      <c r="L15" s="31">
-        <v>14</v>
-      </c>
-      <c r="M15" s="31">
-        <v>14</v>
-      </c>
-      <c r="N15" s="31">
-        <v>14</v>
-      </c>
-      <c r="O15" s="31">
+      <c r="K15" s="30">
+        <v>14</v>
+      </c>
+      <c r="L15" s="30">
+        <v>14</v>
+      </c>
+      <c r="M15" s="30">
+        <v>14</v>
+      </c>
+      <c r="N15" s="30">
+        <v>14</v>
+      </c>
+      <c r="O15" s="30">
         <v>14</v>
       </c>
       <c r="P15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="Q15" s="17">
-        <f t="shared" si="2"/>
-        <v>29.944499999999998</v>
+        <f t="shared" si="3"/>
+        <v>34.944499999999998</v>
       </c>
       <c r="R15" s="17">
-        <f t="shared" si="3"/>
-        <v>42.315666666666665</v>
+        <f t="shared" si="0"/>
+        <v>47.315666666666665</v>
       </c>
       <c r="S15" s="11">
         <v>80</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388.89</v>
       </c>
       <c r="U15" s="11">
         <v>290</v>
       </c>
-      <c r="V15" s="31"/>
+      <c r="V15" s="3">
+        <v>21</v>
+      </c>
       <c r="W15" s="3">
-        <v>21</v>
-      </c>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="3">
         <v>199</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="X15" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:24">
       <c r="A16" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="36" t="s">
-        <v>77</v>
+        <v>49</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="G16" s="13">
         <v>2012</v>
@@ -2273,65 +2282,63 @@
       <c r="J16" s="11">
         <v>20</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="30">
         <v>5</v>
       </c>
-      <c r="L16" s="31">
-        <v>14</v>
-      </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
+      <c r="L16" s="30">
+        <v>14</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="Q16" s="17">
-        <f t="shared" si="2"/>
-        <v>23.433</v>
+        <f t="shared" si="3"/>
+        <v>24.790142857142857</v>
       </c>
       <c r="R16" s="17">
-        <f t="shared" si="3"/>
-        <v>36.772666666666666</v>
+        <f t="shared" si="0"/>
+        <v>37.969809523809523</v>
       </c>
       <c r="S16" s="3">
         <v>95</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U16" s="11">
         <v>260</v>
       </c>
-      <c r="V16" s="31"/>
+      <c r="V16" s="3">
+        <v>12</v>
+      </c>
       <c r="W16" s="3">
-        <v>12</v>
-      </c>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="3">
-        <v>106</v>
-      </c>
-      <c r="Z16" s="47">
+        <v>82</v>
+      </c>
+      <c r="X16" s="44">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:24">
       <c r="A17" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="36" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="G17" s="4">
         <v>2013</v>
@@ -2345,65 +2352,63 @@
       <c r="J17" s="11">
         <v>20</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="30">
         <v>5</v>
       </c>
-      <c r="L17" s="31">
-        <v>14</v>
-      </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
+      <c r="L17" s="30">
+        <v>14</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="Q17" s="17">
-        <f t="shared" si="2"/>
-        <v>23.433</v>
+        <f t="shared" si="3"/>
+        <v>24.790142857142857</v>
       </c>
       <c r="R17" s="17">
-        <f t="shared" si="3"/>
-        <v>36.772666666666666</v>
+        <f t="shared" si="0"/>
+        <v>37.983142857142852</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U17" s="11">
         <v>260</v>
       </c>
-      <c r="V17" s="31"/>
+      <c r="V17" s="3">
+        <v>12</v>
+      </c>
       <c r="W17" s="3">
-        <v>12</v>
-      </c>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="3">
-        <v>106</v>
-      </c>
-      <c r="Z17" s="47">
+        <v>84</v>
+      </c>
+      <c r="X17" s="44">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:24">
       <c r="A18" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="36" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="G18" s="4">
         <v>2013</v>
@@ -2417,67 +2422,65 @@
       <c r="J18" s="11">
         <v>20</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="30">
         <v>7</v>
       </c>
-      <c r="L18" s="31">
-        <v>14</v>
-      </c>
-      <c r="M18" s="31">
+      <c r="L18" s="30">
+        <v>14</v>
+      </c>
+      <c r="M18" s="30">
         <v>5</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
       <c r="P18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="Q18" s="17">
-        <f t="shared" si="2"/>
-        <v>23.933</v>
+        <f t="shared" si="3"/>
+        <v>25.790142857142857</v>
       </c>
       <c r="R18" s="17">
-        <f t="shared" si="3"/>
-        <v>36.926000000000002</v>
+        <f t="shared" si="0"/>
+        <v>38.636476190476181</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U18" s="11">
         <v>260</v>
       </c>
-      <c r="V18" s="31"/>
+      <c r="V18" s="3">
+        <v>13</v>
+      </c>
       <c r="W18" s="3">
-        <v>13</v>
-      </c>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="3">
-        <v>114</v>
-      </c>
-      <c r="Z18" s="47">
+        <v>92</v>
+      </c>
+      <c r="X18" s="44">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:24">
       <c r="A19" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="36" t="s">
-        <v>96</v>
       </c>
       <c r="G19" s="4">
         <v>2013</v>
@@ -2491,65 +2494,63 @@
       <c r="J19" s="11">
         <v>20</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="30">
         <v>7</v>
       </c>
-      <c r="L19" s="31">
-        <v>14</v>
-      </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
+      <c r="L19" s="30">
+        <v>14</v>
+      </c>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
       <c r="P19" s="11">
         <f t="shared" ref="P19" si="4">SUM(K19:O19)</f>
         <v>21</v>
       </c>
       <c r="Q19" s="17">
-        <f t="shared" ref="Q19" si="5">IF(D19="D", (W19+(T19/10))/2, IF(D19="H", (W19+(T19/10))/2*1.2, IF(D19="E", (W19+(T19/10))/2*1.5, 0)))</f>
-        <v>23.933</v>
+        <f t="shared" si="3"/>
+        <v>25.433</v>
       </c>
       <c r="R19" s="17">
-        <f t="shared" ref="R19" si="6">IF(D19="D", (W19+(Y19/15)+T19)/10, IF(D19="H", (W19+(Y19/15)+T19)/10*0.8, IF(D19="E", (W19+(Y19/15)+T19)/10*0.5, 0)))</f>
-        <v>36.926000000000002</v>
+        <f>IF(D19="D", ((V19+(W19/15)+T19)/10)+(P19/14), IF(D19="H", ((V19+(W19/15)+T19)/10*0.8)+(P19/14), IF(D19="E", ((V19+(W19/15)+T19)/10*0.5)+(P19/14), 0)))</f>
+        <v>38.292666666666662</v>
       </c>
       <c r="S19" s="3">
         <v>100</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" ref="T19" si="7">U19*1.341</f>
+        <f t="shared" ref="T19" si="5">U19*1.341</f>
         <v>348.65999999999997</v>
       </c>
       <c r="U19" s="11">
         <v>260</v>
       </c>
-      <c r="V19" s="31"/>
+      <c r="V19" s="3">
+        <v>13</v>
+      </c>
       <c r="W19" s="3">
-        <v>13</v>
-      </c>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="3">
-        <v>114</v>
-      </c>
-      <c r="Z19" s="47">
+        <v>94</v>
+      </c>
+      <c r="X19" s="44">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:24">
       <c r="A20" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="36" t="s">
-        <v>79</v>
+        <v>51</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="G20" s="13">
         <v>2012</v>
@@ -2563,67 +2564,65 @@
       <c r="J20" s="11">
         <v>20</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="30">
         <v>5</v>
       </c>
-      <c r="L20" s="31">
-        <v>14</v>
-      </c>
-      <c r="M20" s="31">
-        <v>14</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
+      <c r="L20" s="30">
+        <v>14</v>
+      </c>
+      <c r="M20" s="30">
+        <v>14</v>
+      </c>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
       <c r="P20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="Q20" s="17">
-        <f t="shared" si="2"/>
-        <v>26.433</v>
+        <f t="shared" si="3"/>
+        <v>30.801642857142856</v>
       </c>
       <c r="R20" s="17">
-        <f t="shared" si="3"/>
-        <v>37.752666666666663</v>
+        <f>IF(D20="D", ((V20+(W20/15)+T20)/10)+(P20/14), IF(D20="H", ((V20+(W20/15)+T20)/10*0.8)+(P20/14), IF(D20="E", ((V20+(W20/15)+T20)/10*0.5)+(P20/14), 0)))</f>
+        <v>43.892809523809525</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="0"/>
-        <v>348.65999999999997</v>
+        <f t="shared" si="1"/>
+        <v>388.89</v>
       </c>
       <c r="U20" s="11">
-        <v>260</v>
-      </c>
-      <c r="V20" s="31"/>
+        <v>290</v>
+      </c>
+      <c r="V20" s="3">
+        <v>18</v>
+      </c>
       <c r="W20" s="3">
-        <v>18</v>
-      </c>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="3">
-        <v>163</v>
-      </c>
-      <c r="Z20" s="47">
+        <v>127</v>
+      </c>
+      <c r="X20" s="44">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="7" customFormat="1">
+    <row r="21" spans="1:24" s="7" customFormat="1">
       <c r="A21" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="36" t="s">
-        <v>84</v>
+        <v>40</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="G21" s="13">
         <v>2024</v>
@@ -2637,67 +2636,65 @@
       <c r="J21" s="11">
         <v>20</v>
       </c>
-      <c r="K21" s="30">
-        <v>14</v>
-      </c>
-      <c r="L21" s="30">
-        <v>14</v>
-      </c>
-      <c r="M21" s="30">
-        <v>14</v>
-      </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
+      <c r="K21" s="29">
+        <v>14</v>
+      </c>
+      <c r="L21" s="29">
+        <v>14</v>
+      </c>
+      <c r="M21" s="29">
+        <v>14</v>
+      </c>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="Q21" s="17">
-        <f t="shared" si="2"/>
-        <v>34.143749999999997</v>
+        <f t="shared" si="3"/>
+        <v>37.143749999999997</v>
       </c>
       <c r="R21" s="17">
-        <f t="shared" si="3"/>
-        <v>17.642500000000002</v>
+        <f t="shared" si="0"/>
+        <v>20.642500000000002</v>
       </c>
       <c r="S21" s="11">
         <v>80</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>335.25</v>
       </c>
       <c r="U21" s="11">
         <v>250</v>
       </c>
-      <c r="V21" s="30"/>
+      <c r="V21" s="11">
+        <v>12</v>
+      </c>
       <c r="W21" s="11">
-        <v>12</v>
-      </c>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="11">
         <v>84</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="X21" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="7" customFormat="1">
+    <row r="22" spans="1:24" s="7" customFormat="1">
       <c r="A22" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="36" t="s">
-        <v>85</v>
+        <v>39</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="G22" s="13">
         <v>2024</v>
@@ -2711,65 +2708,63 @@
       <c r="J22" s="11">
         <v>20</v>
       </c>
-      <c r="K22" s="30">
-        <v>14</v>
-      </c>
-      <c r="L22" s="30">
-        <v>14</v>
-      </c>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
+      <c r="K22" s="29">
+        <v>14</v>
+      </c>
+      <c r="L22" s="29">
+        <v>14</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="Q22" s="17">
-        <f t="shared" si="2"/>
-        <v>34.143749999999997</v>
+        <f t="shared" si="3"/>
+        <v>36.143749999999997</v>
       </c>
       <c r="R22" s="17">
-        <f t="shared" si="3"/>
-        <v>17.642500000000002</v>
+        <f t="shared" si="0"/>
+        <v>19.642500000000002</v>
       </c>
       <c r="S22" s="11">
         <v>80</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>335.25</v>
       </c>
       <c r="U22" s="11">
         <v>250</v>
       </c>
-      <c r="V22" s="30"/>
+      <c r="V22" s="11">
+        <v>12</v>
+      </c>
       <c r="W22" s="11">
-        <v>12</v>
-      </c>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="11">
         <v>84</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="X22" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="7" customFormat="1">
+    <row r="23" spans="1:24" s="7" customFormat="1">
       <c r="A23" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="36" t="s">
-        <v>86</v>
+        <v>35</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="G23" s="13">
         <v>2018</v>
@@ -2783,67 +2778,65 @@
       <c r="J23" s="11">
         <v>20</v>
       </c>
-      <c r="K23" s="30">
-        <v>14</v>
-      </c>
-      <c r="L23" s="30">
-        <v>14</v>
-      </c>
-      <c r="M23" s="30">
-        <v>14</v>
-      </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
+      <c r="K23" s="29">
+        <v>14</v>
+      </c>
+      <c r="L23" s="29">
+        <v>14</v>
+      </c>
+      <c r="M23" s="29">
+        <v>14</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="Q23" s="17">
-        <f t="shared" si="2"/>
-        <v>34.893749999999997</v>
+        <f t="shared" si="3"/>
+        <v>37.893749999999997</v>
       </c>
       <c r="R23" s="17">
-        <f t="shared" si="3"/>
-        <v>17.705833333333334</v>
+        <f t="shared" si="0"/>
+        <v>20.705833333333334</v>
       </c>
       <c r="S23" s="11">
         <v>80</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>335.25</v>
       </c>
       <c r="U23" s="11">
         <v>250</v>
       </c>
-      <c r="V23" s="30"/>
+      <c r="V23" s="11">
+        <v>13</v>
+      </c>
       <c r="W23" s="11">
-        <v>13</v>
-      </c>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="11">
         <v>88</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="X23" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="7" customFormat="1">
+    <row r="24" spans="1:24" s="7" customFormat="1">
       <c r="A24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="36" t="s">
-        <v>87</v>
+      <c r="D24" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="G24" s="13">
         <v>2018</v>
@@ -2857,65 +2850,63 @@
       <c r="J24" s="11">
         <v>20</v>
       </c>
-      <c r="K24" s="30">
-        <v>14</v>
-      </c>
-      <c r="L24" s="30">
-        <v>14</v>
-      </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
+      <c r="K24" s="29">
+        <v>14</v>
+      </c>
+      <c r="L24" s="29">
+        <v>14</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
       <c r="P24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="Q24" s="17">
-        <f t="shared" si="2"/>
-        <v>34.893749999999997</v>
+        <f t="shared" si="3"/>
+        <v>36.893749999999997</v>
       </c>
       <c r="R24" s="17">
-        <f t="shared" si="3"/>
-        <v>17.705833333333334</v>
+        <f t="shared" si="0"/>
+        <v>19.705833333333334</v>
       </c>
       <c r="S24" s="11">
         <v>80</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>335.25</v>
       </c>
       <c r="U24" s="11">
         <v>250</v>
       </c>
-      <c r="V24" s="30"/>
+      <c r="V24" s="11">
+        <v>13</v>
+      </c>
       <c r="W24" s="11">
-        <v>13</v>
-      </c>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="11">
         <v>88</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="X24" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:24">
       <c r="A25" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="36" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="G25" s="4">
         <v>2020</v>
@@ -2929,69 +2920,67 @@
       <c r="J25" s="11">
         <v>20</v>
       </c>
-      <c r="K25" s="30">
-        <v>14</v>
-      </c>
-      <c r="L25" s="30">
-        <v>14</v>
-      </c>
-      <c r="M25" s="30">
-        <v>14</v>
-      </c>
-      <c r="N25" s="31">
-        <v>14</v>
-      </c>
-      <c r="O25" s="31"/>
+      <c r="K25" s="29">
+        <v>14</v>
+      </c>
+      <c r="L25" s="29">
+        <v>14</v>
+      </c>
+      <c r="M25" s="29">
+        <v>14</v>
+      </c>
+      <c r="N25" s="30">
+        <v>14</v>
+      </c>
+      <c r="O25" s="30"/>
       <c r="P25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="Q25" s="17">
-        <f t="shared" si="2"/>
-        <v>40.143749999999997</v>
+        <f t="shared" si="3"/>
+        <v>44.143749999999997</v>
       </c>
       <c r="R25" s="17">
-        <f t="shared" si="3"/>
-        <v>18.249166666666667</v>
+        <f t="shared" si="0"/>
+        <v>22.249166666666667</v>
       </c>
       <c r="S25" s="11">
         <v>80</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>335.25</v>
       </c>
       <c r="U25" s="11">
         <v>250</v>
       </c>
-      <c r="V25" s="31"/>
+      <c r="V25" s="3">
+        <v>20</v>
+      </c>
       <c r="W25" s="3">
-        <v>20</v>
-      </c>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="3">
         <v>146</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="X25" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:24">
       <c r="A26" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>89</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="G26" s="4">
         <v>2020</v>
@@ -3005,67 +2994,65 @@
       <c r="J26" s="11">
         <v>20</v>
       </c>
-      <c r="K26" s="30">
-        <v>14</v>
-      </c>
-      <c r="L26" s="30">
-        <v>14</v>
-      </c>
-      <c r="M26" s="30">
-        <v>14</v>
-      </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
+      <c r="K26" s="29">
+        <v>14</v>
+      </c>
+      <c r="L26" s="29">
+        <v>14</v>
+      </c>
+      <c r="M26" s="29">
+        <v>14</v>
+      </c>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
       <c r="P26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="Q26" s="17">
-        <f t="shared" si="2"/>
-        <v>40.143749999999997</v>
+        <f t="shared" si="3"/>
+        <v>43.143749999999997</v>
       </c>
       <c r="R26" s="17">
-        <f t="shared" si="3"/>
-        <v>18.249166666666667</v>
+        <f t="shared" si="0"/>
+        <v>21.249166666666667</v>
       </c>
       <c r="S26" s="11">
         <v>80</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>335.25</v>
       </c>
       <c r="U26" s="11">
         <v>250</v>
       </c>
-      <c r="V26" s="31"/>
+      <c r="V26" s="3">
+        <v>20</v>
+      </c>
       <c r="W26" s="3">
-        <v>20</v>
-      </c>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="3">
         <v>146</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="X26" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:24">
       <c r="A27" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="36" t="s">
-        <v>68</v>
+        <v>35</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="G27" s="4">
         <v>2007</v>
@@ -3079,67 +3066,65 @@
       <c r="J27" s="11">
         <v>20</v>
       </c>
-      <c r="K27" s="30">
-        <v>14</v>
-      </c>
-      <c r="L27" s="30">
-        <v>14</v>
-      </c>
-      <c r="M27" s="30">
-        <v>14</v>
-      </c>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
+      <c r="K27" s="29">
+        <v>14</v>
+      </c>
+      <c r="L27" s="29">
+        <v>14</v>
+      </c>
+      <c r="M27" s="29">
+        <v>14</v>
+      </c>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="11">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="Q27" s="17">
+        <f t="shared" si="3"/>
+        <v>22.580500000000001</v>
+      </c>
+      <c r="R27" s="17">
+        <f t="shared" si="0"/>
+        <v>32.934333333333335</v>
+      </c>
+      <c r="S27" s="11">
+        <v>75</v>
+      </c>
+      <c r="T27" s="3">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="Q27" s="17">
-        <f t="shared" si="2"/>
-        <v>20.250999999999998</v>
-      </c>
-      <c r="R27" s="17">
-        <f t="shared" si="3"/>
-        <v>31.275333333333332</v>
-      </c>
-      <c r="S27" s="11">
-        <v>80</v>
-      </c>
-      <c r="T27" s="3">
-        <f t="shared" si="0"/>
-        <v>295.02</v>
+        <v>281.61</v>
       </c>
       <c r="U27" s="3">
-        <v>220</v>
-      </c>
-      <c r="V27" s="31"/>
+        <v>210</v>
+      </c>
+      <c r="V27" s="3">
+        <v>11</v>
+      </c>
       <c r="W27" s="3">
-        <v>11</v>
-      </c>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="3">
         <v>101</v>
       </c>
-      <c r="Z27" s="48">
+      <c r="X27" s="45">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:24">
       <c r="A28" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="36" t="s">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="G28" s="4">
         <v>2007</v>
@@ -3153,69 +3138,67 @@
       <c r="J28" s="11">
         <v>20</v>
       </c>
-      <c r="K28" s="30">
-        <v>14</v>
-      </c>
-      <c r="L28" s="30">
-        <v>14</v>
-      </c>
-      <c r="M28" s="30">
-        <v>14</v>
-      </c>
-      <c r="N28" s="31">
-        <v>14</v>
-      </c>
-      <c r="O28" s="31"/>
+      <c r="K28" s="29">
+        <v>14</v>
+      </c>
+      <c r="L28" s="29">
+        <v>14</v>
+      </c>
+      <c r="M28" s="29">
+        <v>14</v>
+      </c>
+      <c r="N28" s="30">
+        <v>14</v>
+      </c>
+      <c r="O28" s="30"/>
       <c r="P28" s="11">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="Q28" s="17">
+        <f t="shared" si="3"/>
+        <v>26.580500000000001</v>
+      </c>
+      <c r="R28" s="17">
+        <f t="shared" si="0"/>
+        <v>34.861000000000004</v>
+      </c>
+      <c r="S28" s="11">
+        <v>75</v>
+      </c>
+      <c r="T28" s="3">
         <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="Q28" s="17">
-        <f t="shared" si="2"/>
-        <v>23.250999999999998</v>
-      </c>
-      <c r="R28" s="17">
-        <f t="shared" si="3"/>
-        <v>32.201999999999998</v>
-      </c>
-      <c r="S28" s="11">
-        <v>80</v>
-      </c>
-      <c r="T28" s="3">
-        <f t="shared" si="0"/>
-        <v>295.02</v>
+        <v>281.61</v>
       </c>
       <c r="U28" s="3">
-        <v>220</v>
-      </c>
-      <c r="V28" s="31"/>
+        <v>210</v>
+      </c>
+      <c r="V28" s="3">
+        <v>17</v>
+      </c>
       <c r="W28" s="3">
-        <v>17</v>
-      </c>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="3">
         <v>150</v>
       </c>
-      <c r="Z28" s="48">
+      <c r="X28" s="45">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:24">
       <c r="A29" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="36" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="G29" s="4">
         <v>2016</v>
@@ -3229,67 +3212,65 @@
       <c r="J29" s="11">
         <v>20</v>
       </c>
-      <c r="K29" s="30">
-        <v>14</v>
-      </c>
-      <c r="L29" s="30">
-        <v>14</v>
-      </c>
-      <c r="M29" s="30">
-        <v>14</v>
-      </c>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
+      <c r="K29" s="29">
+        <v>14</v>
+      </c>
+      <c r="L29" s="29">
+        <v>14</v>
+      </c>
+      <c r="M29" s="29">
+        <v>14</v>
+      </c>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
       <c r="P29" s="11">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="shared" si="3"/>
+        <v>23.250999999999998</v>
+      </c>
+      <c r="R29" s="17">
+        <f t="shared" si="0"/>
+        <v>34.275333333333336</v>
+      </c>
+      <c r="S29" s="11">
+        <v>75</v>
+      </c>
+      <c r="T29" s="3">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="Q29" s="17">
-        <f t="shared" si="2"/>
-        <v>20.250999999999998</v>
-      </c>
-      <c r="R29" s="17">
-        <f t="shared" si="3"/>
-        <v>31.275333333333332</v>
-      </c>
-      <c r="S29" s="11">
-        <v>80</v>
-      </c>
-      <c r="T29" s="3">
-        <f t="shared" si="0"/>
         <v>295.02</v>
       </c>
       <c r="U29" s="3">
         <v>220</v>
       </c>
-      <c r="V29" s="31"/>
+      <c r="V29" s="3">
+        <v>11</v>
+      </c>
       <c r="W29" s="3">
-        <v>11</v>
-      </c>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="3">
         <v>101</v>
       </c>
-      <c r="Z29" s="48">
+      <c r="X29" s="45">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:24">
       <c r="A30" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="36" t="s">
-        <v>71</v>
+        <v>43</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="G30" s="4">
         <v>2016</v>
@@ -3303,200 +3284,190 @@
       <c r="J30" s="11">
         <v>20</v>
       </c>
-      <c r="K30" s="30">
-        <v>14</v>
-      </c>
-      <c r="L30" s="30">
-        <v>14</v>
-      </c>
-      <c r="M30" s="30">
-        <v>14</v>
-      </c>
-      <c r="N30" s="31">
-        <v>14</v>
-      </c>
-      <c r="O30" s="31"/>
+      <c r="K30" s="29">
+        <v>14</v>
+      </c>
+      <c r="L30" s="29">
+        <v>14</v>
+      </c>
+      <c r="M30" s="29">
+        <v>14</v>
+      </c>
+      <c r="N30" s="30">
+        <v>14</v>
+      </c>
+      <c r="O30" s="30"/>
       <c r="P30" s="11">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="Q30" s="17">
+        <f t="shared" si="3"/>
+        <v>30.268250000000002</v>
+      </c>
+      <c r="R30" s="17">
+        <f t="shared" si="0"/>
+        <v>42.236499999999999</v>
+      </c>
+      <c r="S30" s="11">
+        <v>75</v>
+      </c>
+      <c r="T30" s="3">
         <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="Q30" s="17">
-        <f t="shared" si="2"/>
-        <v>23.250999999999998</v>
-      </c>
-      <c r="R30" s="17">
-        <f t="shared" si="3"/>
-        <v>32.201999999999998</v>
-      </c>
-      <c r="S30" s="11">
-        <v>80</v>
-      </c>
-      <c r="T30" s="3">
-        <f t="shared" si="0"/>
-        <v>295.02</v>
+        <v>355.36500000000001</v>
       </c>
       <c r="U30" s="3">
-        <v>220</v>
-      </c>
-      <c r="V30" s="31"/>
+        <v>265</v>
+      </c>
+      <c r="V30" s="3">
+        <v>17</v>
+      </c>
       <c r="W30" s="3">
-        <v>17</v>
-      </c>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="3">
         <v>150</v>
       </c>
-      <c r="Z30" s="48">
+      <c r="X30" s="45">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:24">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="40"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="37"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="4"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="17">
-        <f t="shared" si="2"/>
+        <f>IF(D31="D", (V31+(T31/10))/2, IF(D31="H", (V31+(T31/10))/2*1.2, IF(D31="E", (V31+(T31/10))/2*1.5, 0)))</f>
         <v>0</v>
       </c>
       <c r="R31" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U31" s="3"/>
-      <c r="V31" s="31"/>
+      <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="11"/>
       <c r="B32" s="13"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="40"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="37"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="17">
-        <f t="shared" si="2"/>
+        <f>IF(D32="D", (V32+(T32/10))/2, IF(D32="H", (V32+(T32/10))/2*1.2, IF(D32="E", (V32+(T32/10))/2*1.5, 0)))</f>
         <v>0</v>
       </c>
       <c r="R32" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U32" s="3"/>
-      <c r="V32" s="31"/>
+      <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="40"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="37"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="15"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="17">
-        <f t="shared" si="2"/>
+        <f>IF(D33="D", (V33+(T33/10))/2, IF(D33="H", (V33+(T33/10))/2*1.2, IF(D33="E", (V33+(T33/10))/2*1.5, 0)))</f>
         <v>0</v>
       </c>
       <c r="R33" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U33" s="14"/>
-      <c r="V33" s="31"/>
+      <c r="V33" s="14"/>
       <c r="W33" s="14"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="40"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="37"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="17">
-        <f t="shared" si="2"/>
+        <f>IF(D34="D", (V34+(T34/10))/2, IF(D34="H", (V34+(T34/10))/2*1.2, IF(D34="E", (V34+(T34/10))/2*1.5, 0)))</f>
         <v>0</v>
       </c>
       <c r="R34" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U34" s="14"/>
-      <c r="V34" s="31"/>
+      <c r="V34" s="14"/>
       <c r="W34" s="14"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="3"/>
+      <c r="X34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3507,10 +3478,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA3D93C-01B3-49C6-81E6-BCED4F1281E8}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3523,16 +3494,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
@@ -3543,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3616,27 +3587,136 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Buszadatok.xlsx
+++ b/Buszadatok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/319a91e8a51c869d/Dokumentumok/GitHub/HVW-Bus-Set/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{5ACD9533-B454-45D5-8D53-9D5CC880F220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3DB608-A01C-4EB6-BE92-15AF26FB419E}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{5ACD9533-B454-45D5-8D53-9D5CC880F220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C79FF54-4DAD-4524-A188-63212B8C959A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adatok" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="132">
   <si>
     <t>Gyártó</t>
   </si>
@@ -378,6 +378,60 @@
   </si>
   <si>
     <t>Electric</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Lion City 3</t>
+  </si>
+  <si>
+    <t>MAN_LC3_12_a</t>
+  </si>
+  <si>
+    <t>18m 4ajtós</t>
+  </si>
+  <si>
+    <t>18m 3ajtós</t>
+  </si>
+  <si>
+    <t>G 12m 3ajtós</t>
+  </si>
+  <si>
+    <t>G 12m 2ajtós</t>
+  </si>
+  <si>
+    <t>G 18m 4ajtós</t>
+  </si>
+  <si>
+    <t>G 18m 3ajtós</t>
+  </si>
+  <si>
+    <t>E 12m 3ajtós</t>
+  </si>
+  <si>
+    <t>E 12m 2ajtós</t>
+  </si>
+  <si>
+    <t>E 18m 4ajtós</t>
+  </si>
+  <si>
+    <t>E 18m 3ajtós</t>
+  </si>
+  <si>
+    <t>12C 3ajtós</t>
+  </si>
+  <si>
+    <t>12C 2ajtós</t>
+  </si>
+  <si>
+    <t>10E 3ajtós</t>
+  </si>
+  <si>
+    <t>33ülés</t>
+  </si>
+  <si>
+    <t>10E 2ajtós</t>
   </si>
 </sst>
 </file>
@@ -434,7 +488,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,12 +510,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
@@ -693,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -789,16 +837,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1141,11 +1186,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460A460C-03E7-40D2-9428-8EF5A5403C6D}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U30" sqref="U30"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1354,7 +1399,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="11">
-        <f t="shared" ref="P3:P30" si="2">SUM(K3:O3)</f>
+        <f t="shared" ref="P3:P42" si="2">SUM(K3:O3)</f>
         <v>28</v>
       </c>
       <c r="Q3" s="17">
@@ -1824,7 +1869,7 @@
       <c r="D10" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="34" t="s">
         <v>70</v>
       </c>
@@ -1898,7 +1943,7 @@
       <c r="D11" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="46"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="34" t="s">
         <v>79</v>
       </c>
@@ -1970,7 +2015,7 @@
       <c r="D12" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="34" t="s">
         <v>71</v>
       </c>
@@ -2044,7 +2089,7 @@
       <c r="D13" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="34" t="s">
         <v>80</v>
       </c>
@@ -2116,7 +2161,7 @@
       <c r="D14" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="34" t="s">
         <v>72</v>
       </c>
@@ -2190,7 +2235,7 @@
       <c r="D15" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="34" t="s">
         <v>73</v>
       </c>
@@ -2319,7 +2364,7 @@
       <c r="W16" s="3">
         <v>82</v>
       </c>
-      <c r="X16" s="44">
+      <c r="X16" s="43">
         <v>170</v>
       </c>
     </row>
@@ -2389,7 +2434,7 @@
       <c r="W17" s="3">
         <v>84</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="43">
         <v>170</v>
       </c>
     </row>
@@ -2461,7 +2506,7 @@
       <c r="W18" s="3">
         <v>92</v>
       </c>
-      <c r="X18" s="44">
+      <c r="X18" s="43">
         <v>170</v>
       </c>
     </row>
@@ -2531,7 +2576,7 @@
       <c r="W19" s="3">
         <v>94</v>
       </c>
-      <c r="X19" s="44">
+      <c r="X19" s="43">
         <v>170</v>
       </c>
     </row>
@@ -2548,7 +2593,7 @@
       <c r="D20" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="34" t="s">
         <v>76</v>
       </c>
@@ -2603,7 +2648,7 @@
       <c r="W20" s="3">
         <v>127</v>
       </c>
-      <c r="X20" s="44">
+      <c r="X20" s="43">
         <v>170</v>
       </c>
     </row>
@@ -2904,7 +2949,7 @@
       <c r="D25" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="34" t="s">
         <v>85</v>
       </c>
@@ -2978,7 +3023,7 @@
       <c r="D26" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="34" t="s">
         <v>86</v>
       </c>
@@ -3050,7 +3095,7 @@
       <c r="D27" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="34" t="s">
         <v>65</v>
       </c>
@@ -3105,7 +3150,7 @@
       <c r="W27" s="3">
         <v>101</v>
       </c>
-      <c r="X27" s="45">
+      <c r="X27" s="44">
         <v>200</v>
       </c>
     </row>
@@ -3122,7 +3167,7 @@
       <c r="D28" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="34" t="s">
         <v>66</v>
       </c>
@@ -3179,7 +3224,7 @@
       <c r="W28" s="3">
         <v>150</v>
       </c>
-      <c r="X28" s="45">
+      <c r="X28" s="44">
         <v>200</v>
       </c>
     </row>
@@ -3196,7 +3241,7 @@
       <c r="D29" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="34" t="s">
         <v>67</v>
       </c>
@@ -3251,7 +3296,7 @@
       <c r="W29" s="3">
         <v>101</v>
       </c>
-      <c r="X29" s="45">
+      <c r="X29" s="44">
         <v>200</v>
       </c>
     </row>
@@ -3268,7 +3313,7 @@
       <c r="D30" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="34" t="s">
         <v>68</v>
       </c>
@@ -3325,149 +3370,888 @@
       <c r="W30" s="3">
         <v>150</v>
       </c>
-      <c r="X30" s="45">
+      <c r="X30" s="44">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="11"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
+      <c r="F31" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2017</v>
+      </c>
+      <c r="H31" s="11">
+        <v>20</v>
+      </c>
+      <c r="I31" s="11">
+        <v>25</v>
+      </c>
+      <c r="J31" s="11">
+        <v>20</v>
+      </c>
+      <c r="K31" s="29">
+        <v>14</v>
+      </c>
+      <c r="L31" s="29">
+        <v>14</v>
+      </c>
+      <c r="M31" s="29">
+        <v>14</v>
+      </c>
       <c r="N31" s="30"/>
       <c r="O31" s="30"/>
-      <c r="P31" s="3"/>
+      <c r="P31" s="11">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
       <c r="Q31" s="17">
-        <f>IF(D31="D", (V31+(T31/10))/2, IF(D31="H", (V31+(T31/10))/2*1.2, IF(D31="E", (V31+(T31/10))/2*1.5, 0)))</f>
-        <v>0</v>
+        <f t="shared" ref="Q31" si="6">IF(D31="D", ((V31+(T31/10))/2)+(P31/14), IF(D31="H", ((V31+(T31/10))/2*1.2)+(P31/14), IF(D31="E", ((V31+(T31/10))/2*1.5)+(P31/14), 0)))</f>
+        <v>26.3123</v>
       </c>
       <c r="R31" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="R31" si="7">IF(D31="D", ((V31+(W31/15)+T31)/10)+(P31/14), IF(D31="H", ((V31+(W31/15)+T31)/10*0.8)+(P31/14), IF(D31="E", ((V31+(W31/15)+T31)/10*0.5)+(P31/14), 0)))</f>
+        <v>32.5246</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
+        <v>276.24599999999998</v>
+      </c>
+      <c r="U31" s="14">
+        <v>206</v>
+      </c>
+      <c r="V31" s="3">
+        <v>19</v>
+      </c>
       <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
+      <c r="X31" s="11">
+        <v>185</v>
+      </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="38"/>
+      <c r="A32" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="35"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
+      <c r="G32" s="4">
+        <v>2017</v>
+      </c>
+      <c r="H32" s="11">
+        <v>20</v>
+      </c>
+      <c r="I32" s="11">
+        <v>25</v>
+      </c>
+      <c r="J32" s="11">
+        <v>20</v>
+      </c>
+      <c r="K32" s="29">
+        <v>14</v>
+      </c>
+      <c r="L32" s="29">
+        <v>14</v>
+      </c>
+      <c r="M32" s="29"/>
       <c r="N32" s="30"/>
       <c r="O32" s="30"/>
-      <c r="P32" s="3"/>
+      <c r="P32" s="11">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
       <c r="Q32" s="17">
         <f>IF(D32="D", (V32+(T32/10))/2, IF(D32="H", (V32+(T32/10))/2*1.2, IF(D32="E", (V32+(T32/10))/2*1.5, 0)))</f>
-        <v>0</v>
+        <v>23.3123</v>
       </c>
       <c r="R32" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31.5246</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
+        <v>276.24599999999998</v>
+      </c>
+      <c r="U32" s="14">
+        <v>206</v>
+      </c>
+      <c r="V32" s="3">
+        <v>19</v>
+      </c>
       <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="38"/>
+      <c r="X32" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="35"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
+      <c r="H33" s="11">
+        <v>20</v>
+      </c>
+      <c r="I33" s="11">
+        <v>25</v>
+      </c>
+      <c r="J33" s="11">
+        <v>20</v>
+      </c>
+      <c r="K33" s="29">
+        <v>14</v>
+      </c>
+      <c r="L33" s="29">
+        <v>14</v>
+      </c>
+      <c r="M33" s="29">
+        <v>14</v>
+      </c>
+      <c r="N33" s="29">
+        <v>14</v>
+      </c>
       <c r="O33" s="30"/>
-      <c r="P33" s="3"/>
+      <c r="P33" s="11">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
       <c r="Q33" s="17">
         <f>IF(D33="D", (V33+(T33/10))/2, IF(D33="H", (V33+(T33/10))/2*1.2, IF(D33="E", (V33+(T33/10))/2*1.5, 0)))</f>
-        <v>0</v>
+        <v>17.768250000000002</v>
       </c>
       <c r="R33" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39.536500000000004</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="14"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U33" s="14">
+        <v>265</v>
+      </c>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
-      <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="38"/>
+      <c r="X33" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="35"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
+      <c r="H34" s="11">
+        <v>20</v>
+      </c>
+      <c r="I34" s="11">
+        <v>25</v>
+      </c>
+      <c r="J34" s="11">
+        <v>20</v>
+      </c>
+      <c r="K34" s="29">
+        <v>14</v>
+      </c>
+      <c r="L34" s="29">
+        <v>14</v>
+      </c>
+      <c r="M34" s="29">
+        <v>14</v>
+      </c>
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
-      <c r="P34" s="3"/>
+      <c r="P34" s="11">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
       <c r="Q34" s="17">
         <f>IF(D34="D", (V34+(T34/10))/2, IF(D34="H", (V34+(T34/10))/2*1.2, IF(D34="E", (V34+(T34/10))/2*1.5, 0)))</f>
-        <v>0</v>
+        <v>17.768250000000002</v>
       </c>
       <c r="R34" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38.536500000000004</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="14"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U34" s="14">
+        <v>265</v>
+      </c>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
-      <c r="X34" s="3"/>
+      <c r="X34" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="11">
+        <v>20</v>
+      </c>
+      <c r="I35" s="11">
+        <v>25</v>
+      </c>
+      <c r="J35" s="11">
+        <v>20</v>
+      </c>
+      <c r="K35" s="29">
+        <v>14</v>
+      </c>
+      <c r="L35" s="29">
+        <v>14</v>
+      </c>
+      <c r="M35" s="29">
+        <v>14</v>
+      </c>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="11">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="Q35" s="17">
+        <f>IF(D35="D", (V35+(T35/10))/2, IF(D35="H", (V35+(T35/10))/2*1.2, IF(D35="E", (V35+(T35/10))/2*1.5, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="17">
+        <f t="shared" ref="R35:R40" si="8">IF(D35="D", ((V35+(W35/15)+T35)/10)+(P35/14), IF(D35="H", ((V35+(W35/15)+T35)/10*0.8)+(P35/14), IF(D35="E", ((V35+(W35/15)+T35)/10*0.5)+(P35/14), 0)))</f>
+        <v>3</v>
+      </c>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3">
+        <f t="shared" ref="T35:T40" si="9">U35*1.341</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="11">
+        <v>20</v>
+      </c>
+      <c r="I36" s="11">
+        <v>25</v>
+      </c>
+      <c r="J36" s="11">
+        <v>20</v>
+      </c>
+      <c r="K36" s="29">
+        <v>14</v>
+      </c>
+      <c r="L36" s="29">
+        <v>14</v>
+      </c>
+      <c r="M36" s="29"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="11">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="Q36" s="17">
+        <f>IF(D36="D", (V36+(T36/10))/2, IF(D36="H", (V36+(T36/10))/2*1.2, IF(D36="E", (V36+(T36/10))/2*1.5, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="17">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="4">
+        <v>2018</v>
+      </c>
+      <c r="H37" s="11">
+        <v>20</v>
+      </c>
+      <c r="I37" s="11">
+        <v>25</v>
+      </c>
+      <c r="J37" s="11">
+        <v>20</v>
+      </c>
+      <c r="K37" s="29">
+        <v>14</v>
+      </c>
+      <c r="L37" s="29">
+        <v>14</v>
+      </c>
+      <c r="M37" s="29">
+        <v>14</v>
+      </c>
+      <c r="N37" s="29">
+        <v>14</v>
+      </c>
+      <c r="O37" s="30"/>
+      <c r="P37" s="11">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="Q37" s="17">
+        <f>IF(D37="D", (V37+(T37/10))/2, IF(D37="H", (V37+(T37/10))/2*1.2, IF(D37="E", (V37+(T37/10))/2*1.5, 0)))</f>
+        <v>18.908100000000001</v>
+      </c>
+      <c r="R37" s="17">
+        <f t="shared" si="8"/>
+        <v>29.210800000000003</v>
+      </c>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3">
+        <f t="shared" si="9"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U37" s="3">
+        <v>235</v>
+      </c>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="4">
+        <v>2018</v>
+      </c>
+      <c r="H38" s="11">
+        <v>20</v>
+      </c>
+      <c r="I38" s="11">
+        <v>25</v>
+      </c>
+      <c r="J38" s="11">
+        <v>20</v>
+      </c>
+      <c r="K38" s="29">
+        <v>14</v>
+      </c>
+      <c r="L38" s="29">
+        <v>14</v>
+      </c>
+      <c r="M38" s="29">
+        <v>14</v>
+      </c>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="11">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="Q38" s="17">
+        <f>IF(D38="D", (V38+(T38/10))/2, IF(D38="H", (V38+(T38/10))/2*1.2, IF(D38="E", (V38+(T38/10))/2*1.5, 0)))</f>
+        <v>18.908100000000001</v>
+      </c>
+      <c r="R38" s="17">
+        <f t="shared" si="8"/>
+        <v>28.210800000000003</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3">
+        <f t="shared" si="9"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U38" s="3">
+        <v>235</v>
+      </c>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="11">
+        <v>20</v>
+      </c>
+      <c r="I39" s="11">
+        <v>25</v>
+      </c>
+      <c r="J39" s="11">
+        <v>20</v>
+      </c>
+      <c r="K39" s="29">
+        <v>14</v>
+      </c>
+      <c r="L39" s="29">
+        <v>14</v>
+      </c>
+      <c r="M39" s="29">
+        <v>14</v>
+      </c>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="11">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="Q39" s="17">
+        <f>IF(D39="D", (V39+(T39/10))/2, IF(D39="H", (V39+(T39/10))/2*1.2, IF(D39="E", (V39+(T39/10))/2*1.5, 0)))</f>
+        <v>15</v>
+      </c>
+      <c r="R39" s="17">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14">
+        <v>20</v>
+      </c>
+      <c r="W39" s="14"/>
+      <c r="X39" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="11">
+        <v>20</v>
+      </c>
+      <c r="I40" s="11">
+        <v>25</v>
+      </c>
+      <c r="J40" s="11">
+        <v>20</v>
+      </c>
+      <c r="K40" s="29">
+        <v>14</v>
+      </c>
+      <c r="L40" s="29">
+        <v>14</v>
+      </c>
+      <c r="M40" s="29"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="11">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="Q40" s="17">
+        <f>IF(D40="D", (V40+(T40/10))/2, IF(D40="H", (V40+(T40/10))/2*1.2, IF(D40="E", (V40+(T40/10))/2*1.5, 0)))</f>
+        <v>39.137999999999998</v>
+      </c>
+      <c r="R40" s="17">
+        <f t="shared" si="8"/>
+        <v>19.091999999999999</v>
+      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3">
+        <f t="shared" si="9"/>
+        <v>321.83999999999997</v>
+      </c>
+      <c r="U40" s="14">
+        <v>240</v>
+      </c>
+      <c r="V40" s="14">
+        <v>20</v>
+      </c>
+      <c r="W40" s="14"/>
+      <c r="X40" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="11">
+        <v>20</v>
+      </c>
+      <c r="I41" s="11">
+        <v>25</v>
+      </c>
+      <c r="J41" s="11">
+        <v>20</v>
+      </c>
+      <c r="K41" s="29">
+        <v>14</v>
+      </c>
+      <c r="L41" s="29">
+        <v>14</v>
+      </c>
+      <c r="M41" s="29">
+        <v>14</v>
+      </c>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="11">
+        <f t="shared" ref="P41:P44" si="10">SUM(K41:O41)</f>
+        <v>42</v>
+      </c>
+      <c r="Q41" s="17">
+        <f>IF(D41="D", (V41+(T41/10))/2, IF(D41="H", (V41+(T41/10))/2*1.2, IF(D41="E", (V41+(T41/10))/2*1.5, 0)))</f>
+        <v>24.137999999999998</v>
+      </c>
+      <c r="R41" s="17">
+        <f t="shared" ref="R41:R44" si="11">IF(D41="D", ((V41+(W41/15)+T41)/10)+(P41/14), IF(D41="H", ((V41+(W41/15)+T41)/10*0.8)+(P41/14), IF(D41="E", ((V41+(W41/15)+T41)/10*0.5)+(P41/14), 0)))</f>
+        <v>19.091999999999999</v>
+      </c>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3">
+        <f t="shared" ref="T41:T44" si="12">U41*1.341</f>
+        <v>321.83999999999997</v>
+      </c>
+      <c r="U41" s="14">
+        <v>240</v>
+      </c>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="11">
+        <v>20</v>
+      </c>
+      <c r="I42" s="11">
+        <v>25</v>
+      </c>
+      <c r="J42" s="11">
+        <v>20</v>
+      </c>
+      <c r="K42" s="29">
+        <v>14</v>
+      </c>
+      <c r="L42" s="29">
+        <v>14</v>
+      </c>
+      <c r="M42" s="29"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="11">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="Q42" s="17">
+        <f>IF(D42="D", (V42+(T42/10))/2, IF(D42="H", (V42+(T42/10))/2*1.2, IF(D42="E", (V42+(T42/10))/2*1.5, 0)))</f>
+        <v>24.137999999999998</v>
+      </c>
+      <c r="R42" s="17">
+        <f t="shared" si="11"/>
+        <v>18.091999999999999</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3">
+        <f t="shared" si="12"/>
+        <v>321.83999999999997</v>
+      </c>
+      <c r="U42" s="14">
+        <v>240</v>
+      </c>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="11">
+        <v>20</v>
+      </c>
+      <c r="I43" s="11">
+        <v>25</v>
+      </c>
+      <c r="J43" s="11">
+        <v>20</v>
+      </c>
+      <c r="K43" s="29">
+        <v>14</v>
+      </c>
+      <c r="L43" s="29">
+        <v>14</v>
+      </c>
+      <c r="M43" s="29">
+        <v>14</v>
+      </c>
+      <c r="N43" s="29">
+        <v>14</v>
+      </c>
+      <c r="O43" s="30"/>
+      <c r="P43" s="11">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="Q43" s="17">
+        <f>IF(D43="D", (V43+(T43/10))/2, IF(D43="H", (V43+(T43/10))/2*1.2, IF(D43="E", (V43+(T43/10))/2*1.5, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="17">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="11">
+        <v>20</v>
+      </c>
+      <c r="I44" s="11">
+        <v>25</v>
+      </c>
+      <c r="J44" s="11">
+        <v>20</v>
+      </c>
+      <c r="K44" s="29">
+        <v>14</v>
+      </c>
+      <c r="L44" s="29">
+        <v>14</v>
+      </c>
+      <c r="M44" s="29">
+        <v>14</v>
+      </c>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="11">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="Q44" s="17">
+        <f>IF(D44="D", (V44+(T44/10))/2, IF(D44="H", (V44+(T44/10))/2*1.2, IF(D44="E", (V44+(T44/10))/2*1.5, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="17">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="11">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Buszadatok.xlsx
+++ b/Buszadatok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/319a91e8a51c869d/Dokumentumok/GitHub/HVW-Bus-Set/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{5ACD9533-B454-45D5-8D53-9D5CC880F220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C79FF54-4DAD-4524-A188-63212B8C959A}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{5ACD9533-B454-45D5-8D53-9D5CC880F220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E23B37A9-BEC6-4FA3-89CD-776569305F33}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adatok" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="174">
   <si>
     <t>Gyártó</t>
   </si>
@@ -389,36 +389,12 @@
     <t>MAN_LC3_12_a</t>
   </si>
   <si>
-    <t>18m 4ajtós</t>
-  </si>
-  <si>
-    <t>18m 3ajtós</t>
-  </si>
-  <si>
-    <t>G 12m 3ajtós</t>
-  </si>
-  <si>
-    <t>G 12m 2ajtós</t>
-  </si>
-  <si>
     <t>G 18m 4ajtós</t>
   </si>
   <si>
     <t>G 18m 3ajtós</t>
   </si>
   <si>
-    <t>E 12m 3ajtós</t>
-  </si>
-  <si>
-    <t>E 12m 2ajtós</t>
-  </si>
-  <si>
-    <t>E 18m 4ajtós</t>
-  </si>
-  <si>
-    <t>E 18m 3ajtós</t>
-  </si>
-  <si>
     <t>12C 3ajtós</t>
   </si>
   <si>
@@ -432,6 +408,156 @@
   </si>
   <si>
     <t>10E 2ajtós</t>
+  </si>
+  <si>
+    <t>Lion City 2</t>
+  </si>
+  <si>
+    <t>C 13,7m 2ajtós</t>
+  </si>
+  <si>
+    <t>C 13,7m 3ajtós</t>
+  </si>
+  <si>
+    <t>L 14,7m 2ajtós</t>
+  </si>
+  <si>
+    <t>C NG 13,7m 3ajtós</t>
+  </si>
+  <si>
+    <t>C NG 13,7m 2ajtós</t>
+  </si>
+  <si>
+    <t>L NG 14,7m 2ajtós</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>12m 3ajtós</t>
+  </si>
+  <si>
+    <t>GXL 20,5m</t>
+  </si>
+  <si>
+    <t>18C 4ajtós</t>
+  </si>
+  <si>
+    <t>18C 3ajtós</t>
+  </si>
+  <si>
+    <t>12G 3ajtós</t>
+  </si>
+  <si>
+    <t>12G 2ajtós</t>
+  </si>
+  <si>
+    <t>18G 4ajtós</t>
+  </si>
+  <si>
+    <t>18G 3ajtós</t>
+  </si>
+  <si>
+    <t>12E 3ajtós</t>
+  </si>
+  <si>
+    <t>12E 2ajtós</t>
+  </si>
+  <si>
+    <t>18E 4ajtós</t>
+  </si>
+  <si>
+    <t>18E 3ajtós</t>
+  </si>
+  <si>
+    <t>M 8.6m 2ajtós</t>
+  </si>
+  <si>
+    <t>M 10,5m 2ajtós</t>
+  </si>
+  <si>
+    <t>M 10,5m 3ajtós</t>
+  </si>
+  <si>
+    <t>12m 2ajtós</t>
+  </si>
+  <si>
+    <t>A66</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>ÜLL 14,8m 2ajtós</t>
+  </si>
+  <si>
+    <t>ÜLL 14,8m 3ajtós</t>
+  </si>
+  <si>
+    <t>LE Ü 12m 2ajtós</t>
+  </si>
+  <si>
+    <t>A78</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>Ü 12m 2ajtós</t>
+  </si>
+  <si>
+    <t>DD 13,8m 3ajtós</t>
+  </si>
+  <si>
+    <t>GL LE 18,7m</t>
+  </si>
+  <si>
+    <t>GL 18,7m 3ajtós</t>
+  </si>
+  <si>
+    <t>GL 18,7m 4ajtós</t>
+  </si>
+  <si>
+    <t>L 14,7m 3ajtós</t>
+  </si>
+  <si>
+    <t>L NG 14,7m 3ajtós</t>
+  </si>
+  <si>
+    <t>GL NG 18,7m 3ajtós</t>
+  </si>
+  <si>
+    <t>GL NG 18,7m 4ajtós</t>
+  </si>
+  <si>
+    <t>G NG 18m 3ajtós</t>
+  </si>
+  <si>
+    <t>G NG 18m 4ajtós</t>
+  </si>
+  <si>
+    <t>12m Hybrid 3ajtós</t>
+  </si>
+  <si>
+    <t>12m Hybrid 2ajtós</t>
+  </si>
+  <si>
+    <t>12m NG 2ajtós</t>
+  </si>
+  <si>
+    <t>12m NG 3ajtós</t>
+  </si>
+  <si>
+    <t>A37</t>
   </si>
 </sst>
 </file>
@@ -488,7 +614,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +649,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -741,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -845,6 +989,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,11 +1348,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460A460C-03E7-40D2-9428-8EF5A5403C6D}">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V31" sqref="V31:Y76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1210,7 +1372,8 @@
     <col min="17" max="17" width="8.125" style="12" customWidth="1"/>
     <col min="18" max="18" width="8.625" style="12" customWidth="1"/>
     <col min="19" max="19" width="8.25" customWidth="1"/>
-    <col min="20" max="21" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" customWidth="1"/>
     <col min="23" max="23" width="9.5" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
@@ -1292,7 +1455,7 @@
       <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1337,14 +1500,14 @@
         <v>25.933</v>
       </c>
       <c r="R2" s="17">
-        <f t="shared" ref="R2:R34" si="0">IF(D2="D", ((V2+(W2/15)+T2)/10)+(P2/14), IF(D2="H", ((V2+(W2/15)+T2)/10*0.8)+(P2/14), IF(D2="E", ((V2+(W2/15)+T2)/10*0.5)+(P2/14), 0)))</f>
+        <f>IF(D2="D", ((V2+(W2/15)+T2)/10)+(P2/14), IF(D2="H", ((V2+(W2/15)+T2)/10*0.8)+(P2/14), IF(D2="E", ((V2+(W2/15)+T2)/10*0.5)+(P2/14), 0)))</f>
         <v>39.539333333333332</v>
       </c>
       <c r="S2" s="11">
         <v>80</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" ref="T2:T34" si="1">U2*1.341</f>
+        <f t="shared" ref="T2:T34" si="0">U2*1.341</f>
         <v>348.65999999999997</v>
       </c>
       <c r="U2" s="11">
@@ -1364,7 +1527,7 @@
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -1399,22 +1562,22 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="11">
-        <f t="shared" ref="P3:P42" si="2">SUM(K3:O3)</f>
+        <f t="shared" ref="P3:P40" si="1">SUM(K3:O3)</f>
         <v>28</v>
       </c>
       <c r="Q3" s="17">
-        <f t="shared" ref="Q3:Q30" si="3">IF(D3="D", ((V3+(T3/10))/2)+(P3/14), IF(D3="H", ((V3+(T3/10))/2*1.2)+(P3/14), IF(D3="E", ((V3+(T3/10))/2*1.5)+(P3/14), 0)))</f>
+        <f t="shared" ref="Q3:Q30" si="2">IF(D3="D", ((V3+(T3/10))/2)+(P3/14), IF(D3="H", ((V3+(T3/10))/2*1.2)+(P3/14), IF(D3="E", ((V3+(T3/10))/2*1.5)+(P3/14), 0)))</f>
         <v>24.933</v>
       </c>
       <c r="R3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R2:R34" si="3">IF(D3="D", ((V3+(W3/15)+T3)/10)+(P3/14), IF(D3="H", ((V3+(W3/15)+T3)/10*0.8)+(P3/14), IF(D3="E", ((V3+(W3/15)+T3)/10*0.5)+(P3/14), 0)))</f>
         <v>38.539333333333332</v>
       </c>
       <c r="S3" s="11">
         <v>80</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U3" s="11">
@@ -1434,7 +1597,7 @@
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1471,22 +1634,22 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q4" s="17">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="Q4" s="17">
+        <v>26.433</v>
+      </c>
+      <c r="R4" s="17">
         <f t="shared" si="3"/>
-        <v>26.433</v>
-      </c>
-      <c r="R4" s="17">
-        <f t="shared" si="0"/>
         <v>39.772666666666666</v>
       </c>
       <c r="S4" s="11">
         <v>80</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U4" s="11">
@@ -1506,7 +1669,7 @@
       <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -1541,22 +1704,22 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
       <c r="P5" s="11">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="Q5" s="17">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="Q5" s="17">
+        <v>25.433</v>
+      </c>
+      <c r="R5" s="17">
         <f t="shared" si="3"/>
-        <v>25.433</v>
-      </c>
-      <c r="R5" s="17">
-        <f t="shared" si="0"/>
         <v>38.772666666666666</v>
       </c>
       <c r="S5" s="11">
         <v>80</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U5" s="11">
@@ -1576,7 +1739,7 @@
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1613,22 +1776,22 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
       <c r="P6" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q6" s="17">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="Q6" s="17">
+        <v>28.501199999999997</v>
+      </c>
+      <c r="R6" s="17">
         <f t="shared" si="3"/>
-        <v>28.501199999999997</v>
-      </c>
-      <c r="R6" s="17">
-        <f t="shared" si="0"/>
         <v>28.206933333333332</v>
       </c>
       <c r="S6" s="11">
         <v>80</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>295.02</v>
       </c>
       <c r="U6" s="3">
@@ -1648,7 +1811,7 @@
       <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1683,22 +1846,22 @@
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="11">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="Q7" s="17">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="Q7" s="17">
+        <v>27.501199999999997</v>
+      </c>
+      <c r="R7" s="17">
         <f t="shared" si="3"/>
-        <v>27.501199999999997</v>
-      </c>
-      <c r="R7" s="17">
-        <f t="shared" si="0"/>
         <v>27.206933333333332</v>
       </c>
       <c r="S7" s="11">
         <v>80</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>295.02</v>
       </c>
       <c r="U7" s="3">
@@ -1718,7 +1881,7 @@
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1755,22 +1918,22 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="11">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="Q8" s="17">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="Q8" s="17">
+        <v>25.790142857142857</v>
+      </c>
+      <c r="R8" s="17">
         <f t="shared" si="3"/>
-        <v>25.790142857142857</v>
-      </c>
-      <c r="R8" s="17">
-        <f t="shared" si="0"/>
         <v>39.12980952380952</v>
       </c>
       <c r="S8" s="11">
         <v>80</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U8" s="11">
@@ -1790,7 +1953,7 @@
       <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1825,22 +1988,22 @@
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="11">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="Q9" s="17">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="Q9" s="17">
+        <v>25.433</v>
+      </c>
+      <c r="R9" s="17">
         <f t="shared" si="3"/>
-        <v>25.433</v>
-      </c>
-      <c r="R9" s="17">
-        <f t="shared" si="0"/>
         <v>38.772666666666666</v>
       </c>
       <c r="S9" s="11">
         <v>80</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U9" s="11">
@@ -1860,7 +2023,7 @@
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1899,22 +2062,22 @@
       </c>
       <c r="O10" s="30"/>
       <c r="P10" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="Q10" s="17">
         <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="Q10" s="17">
+        <v>30.433</v>
+      </c>
+      <c r="R10" s="17">
         <f t="shared" si="3"/>
-        <v>30.433</v>
-      </c>
-      <c r="R10" s="17">
-        <f t="shared" si="0"/>
         <v>41.752666666666663</v>
       </c>
       <c r="S10" s="11">
         <v>80</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U10" s="11">
@@ -1934,7 +2097,7 @@
       <c r="A11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1971,22 +2134,22 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q11" s="17">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="Q11" s="17">
+        <v>29.433</v>
+      </c>
+      <c r="R11" s="17">
         <f t="shared" si="3"/>
-        <v>29.433</v>
-      </c>
-      <c r="R11" s="17">
-        <f t="shared" si="0"/>
         <v>40.752666666666663</v>
       </c>
       <c r="S11" s="11">
         <v>80</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U11" s="11">
@@ -2006,7 +2169,7 @@
       <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2045,22 +2208,22 @@
       </c>
       <c r="O12" s="30"/>
       <c r="P12" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="Q12" s="17">
         <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="Q12" s="17">
+        <v>33.101199999999992</v>
+      </c>
+      <c r="R12" s="17">
         <f t="shared" si="3"/>
-        <v>33.101199999999992</v>
-      </c>
-      <c r="R12" s="17">
-        <f t="shared" si="0"/>
         <v>29.990933333333334</v>
       </c>
       <c r="S12" s="11">
         <v>80</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>295.02</v>
       </c>
       <c r="U12" s="3">
@@ -2080,7 +2243,7 @@
       <c r="A13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2117,22 +2280,22 @@
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
       <c r="P13" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q13" s="17">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="Q13" s="17">
+        <v>32.101199999999992</v>
+      </c>
+      <c r="R13" s="17">
         <f t="shared" si="3"/>
-        <v>32.101199999999992</v>
-      </c>
-      <c r="R13" s="17">
-        <f t="shared" si="0"/>
         <v>28.990933333333334</v>
       </c>
       <c r="S13" s="11">
         <v>80</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>295.02</v>
       </c>
       <c r="U13" s="3">
@@ -2152,7 +2315,7 @@
       <c r="A14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2191,22 +2354,22 @@
       </c>
       <c r="O14" s="30"/>
       <c r="P14" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="Q14" s="17">
         <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="Q14" s="17">
+        <v>33.444499999999998</v>
+      </c>
+      <c r="R14" s="17">
         <f t="shared" si="3"/>
-        <v>33.444499999999998</v>
-      </c>
-      <c r="R14" s="17">
-        <f t="shared" si="0"/>
         <v>46.095666666666666</v>
       </c>
       <c r="S14" s="11">
         <v>80</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>388.89</v>
       </c>
       <c r="U14" s="11">
@@ -2226,7 +2389,7 @@
       <c r="A15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2267,22 +2430,22 @@
         <v>14</v>
       </c>
       <c r="P15" s="11">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="Q15" s="17">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="Q15" s="17">
+        <v>34.944499999999998</v>
+      </c>
+      <c r="R15" s="17">
         <f t="shared" si="3"/>
-        <v>34.944499999999998</v>
-      </c>
-      <c r="R15" s="17">
-        <f t="shared" si="0"/>
         <v>47.315666666666665</v>
       </c>
       <c r="S15" s="11">
         <v>80</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>388.89</v>
       </c>
       <c r="U15" s="11">
@@ -2302,7 +2465,7 @@
       <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2337,22 +2500,22 @@
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="11">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="Q16" s="17">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="Q16" s="17">
+        <v>24.790142857142857</v>
+      </c>
+      <c r="R16" s="17">
         <f t="shared" si="3"/>
-        <v>24.790142857142857</v>
-      </c>
-      <c r="R16" s="17">
-        <f t="shared" si="0"/>
         <v>37.969809523809523</v>
       </c>
       <c r="S16" s="3">
         <v>95</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U16" s="11">
@@ -2372,7 +2535,7 @@
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2407,22 +2570,22 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="11">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="Q17" s="17">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="Q17" s="17">
+        <v>24.790142857142857</v>
+      </c>
+      <c r="R17" s="17">
         <f t="shared" si="3"/>
-        <v>24.790142857142857</v>
-      </c>
-      <c r="R17" s="17">
-        <f t="shared" si="0"/>
         <v>37.983142857142852</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U17" s="11">
@@ -2442,7 +2605,7 @@
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2479,22 +2642,22 @@
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
       <c r="P18" s="11">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="Q18" s="17">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="Q18" s="17">
+        <v>25.790142857142857</v>
+      </c>
+      <c r="R18" s="17">
         <f t="shared" si="3"/>
-        <v>25.790142857142857</v>
-      </c>
-      <c r="R18" s="17">
-        <f t="shared" si="0"/>
         <v>38.636476190476181</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>348.65999999999997</v>
       </c>
       <c r="U18" s="11">
@@ -2514,7 +2677,7 @@
       <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2553,7 +2716,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25.433</v>
       </c>
       <c r="R19" s="17">
@@ -2584,7 +2747,7 @@
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2621,11 +2784,11 @@
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
       <c r="P20" s="11">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="Q20" s="17">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="Q20" s="17">
-        <f t="shared" si="3"/>
         <v>30.801642857142856</v>
       </c>
       <c r="R20" s="17">
@@ -2636,7 +2799,7 @@
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>388.89</v>
       </c>
       <c r="U20" s="11">
@@ -2656,7 +2819,7 @@
       <c r="A21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2693,22 +2856,22 @@
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
       <c r="P21" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q21" s="17">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="Q21" s="17">
+        <v>37.143749999999997</v>
+      </c>
+      <c r="R21" s="17">
         <f t="shared" si="3"/>
-        <v>37.143749999999997</v>
-      </c>
-      <c r="R21" s="17">
-        <f t="shared" si="0"/>
         <v>20.642500000000002</v>
       </c>
       <c r="S21" s="11">
         <v>80</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>335.25</v>
       </c>
       <c r="U21" s="11">
@@ -2728,7 +2891,7 @@
       <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -2763,22 +2926,22 @@
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
       <c r="P22" s="11">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="Q22" s="17">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="Q22" s="17">
+        <v>36.143749999999997</v>
+      </c>
+      <c r="R22" s="17">
         <f t="shared" si="3"/>
-        <v>36.143749999999997</v>
-      </c>
-      <c r="R22" s="17">
-        <f t="shared" si="0"/>
         <v>19.642500000000002</v>
       </c>
       <c r="S22" s="11">
         <v>80</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>335.25</v>
       </c>
       <c r="U22" s="11">
@@ -2798,7 +2961,7 @@
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -2835,22 +2998,22 @@
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
       <c r="P23" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q23" s="17">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="Q23" s="17">
+        <v>37.893749999999997</v>
+      </c>
+      <c r="R23" s="17">
         <f t="shared" si="3"/>
-        <v>37.893749999999997</v>
-      </c>
-      <c r="R23" s="17">
-        <f t="shared" si="0"/>
         <v>20.705833333333334</v>
       </c>
       <c r="S23" s="11">
         <v>80</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>335.25</v>
       </c>
       <c r="U23" s="11">
@@ -2870,7 +3033,7 @@
       <c r="A24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2905,22 +3068,22 @@
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
       <c r="P24" s="11">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="Q24" s="17">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="Q24" s="17">
+        <v>36.893749999999997</v>
+      </c>
+      <c r="R24" s="17">
         <f t="shared" si="3"/>
-        <v>36.893749999999997</v>
-      </c>
-      <c r="R24" s="17">
-        <f t="shared" si="0"/>
         <v>19.705833333333334</v>
       </c>
       <c r="S24" s="11">
         <v>80</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>335.25</v>
       </c>
       <c r="U24" s="11">
@@ -2940,7 +3103,7 @@
       <c r="A25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2979,22 +3142,22 @@
       </c>
       <c r="O25" s="30"/>
       <c r="P25" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="Q25" s="17">
         <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="Q25" s="17">
+        <v>44.143749999999997</v>
+      </c>
+      <c r="R25" s="17">
         <f t="shared" si="3"/>
-        <v>44.143749999999997</v>
-      </c>
-      <c r="R25" s="17">
-        <f t="shared" si="0"/>
         <v>22.249166666666667</v>
       </c>
       <c r="S25" s="11">
         <v>80</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>335.25</v>
       </c>
       <c r="U25" s="11">
@@ -3014,7 +3177,7 @@
       <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3051,22 +3214,22 @@
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
       <c r="P26" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q26" s="17">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="Q26" s="17">
+        <v>43.143749999999997</v>
+      </c>
+      <c r="R26" s="17">
         <f t="shared" si="3"/>
-        <v>43.143749999999997</v>
-      </c>
-      <c r="R26" s="17">
-        <f t="shared" si="0"/>
         <v>21.249166666666667</v>
       </c>
       <c r="S26" s="11">
         <v>80</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>335.25</v>
       </c>
       <c r="U26" s="11">
@@ -3086,7 +3249,7 @@
       <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="47" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -3123,22 +3286,22 @@
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
       <c r="P27" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q27" s="17">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="Q27" s="17">
+        <v>22.580500000000001</v>
+      </c>
+      <c r="R27" s="17">
         <f t="shared" si="3"/>
-        <v>22.580500000000001</v>
-      </c>
-      <c r="R27" s="17">
-        <f t="shared" si="0"/>
         <v>32.934333333333335</v>
       </c>
       <c r="S27" s="11">
         <v>75</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>281.61</v>
       </c>
       <c r="U27" s="3">
@@ -3158,7 +3321,7 @@
       <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="47" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3197,22 +3360,22 @@
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="Q28" s="17">
         <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="Q28" s="17">
+        <v>26.580500000000001</v>
+      </c>
+      <c r="R28" s="17">
         <f t="shared" si="3"/>
-        <v>26.580500000000001</v>
-      </c>
-      <c r="R28" s="17">
-        <f t="shared" si="0"/>
         <v>34.861000000000004</v>
       </c>
       <c r="S28" s="11">
         <v>75</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>281.61</v>
       </c>
       <c r="U28" s="3">
@@ -3232,7 +3395,7 @@
       <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -3269,22 +3432,22 @@
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
       <c r="P29" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q29" s="17">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="Q29" s="17">
+        <v>23.250999999999998</v>
+      </c>
+      <c r="R29" s="17">
         <f t="shared" si="3"/>
-        <v>23.250999999999998</v>
-      </c>
-      <c r="R29" s="17">
-        <f t="shared" si="0"/>
         <v>34.275333333333336</v>
       </c>
       <c r="S29" s="11">
         <v>75</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>295.02</v>
       </c>
       <c r="U29" s="3">
@@ -3304,7 +3467,7 @@
       <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3343,22 +3506,22 @@
       </c>
       <c r="O30" s="30"/>
       <c r="P30" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="Q30" s="17">
         <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="Q30" s="17">
+        <v>30.268250000000002</v>
+      </c>
+      <c r="R30" s="17">
         <f t="shared" si="3"/>
-        <v>30.268250000000002</v>
-      </c>
-      <c r="R30" s="17">
-        <f t="shared" si="0"/>
         <v>42.236499999999999</v>
       </c>
       <c r="S30" s="11">
         <v>75</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>355.36500000000001</v>
       </c>
       <c r="U30" s="3">
@@ -3378,11 +3541,11 @@
       <c r="A31" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>90</v>
@@ -3415,29 +3578,33 @@
       <c r="N31" s="30"/>
       <c r="O31" s="30"/>
       <c r="P31" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q31" s="17">
         <f t="shared" ref="Q31" si="6">IF(D31="D", ((V31+(T31/10))/2)+(P31/14), IF(D31="H", ((V31+(T31/10))/2*1.2)+(P31/14), IF(D31="E", ((V31+(T31/10))/2*1.5)+(P31/14), 0)))</f>
-        <v>26.3123</v>
+        <v>22.3123</v>
       </c>
       <c r="R31" s="17">
         <f t="shared" ref="R31" si="7">IF(D31="D", ((V31+(W31/15)+T31)/10)+(P31/14), IF(D31="H", ((V31+(W31/15)+T31)/10*0.8)+(P31/14), IF(D31="E", ((V31+(W31/15)+T31)/10*0.5)+(P31/14), 0)))</f>
-        <v>32.5246</v>
-      </c>
-      <c r="S31" s="3"/>
+        <v>32.424599999999998</v>
+      </c>
+      <c r="S31" s="3">
+        <v>80</v>
+      </c>
       <c r="T31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>276.24599999999998</v>
       </c>
       <c r="U31" s="14">
         <v>206</v>
       </c>
       <c r="V31" s="3">
-        <v>19</v>
-      </c>
-      <c r="W31" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="W31" s="3">
+        <v>105</v>
+      </c>
       <c r="X31" s="11">
         <v>185</v>
       </c>
@@ -3446,11 +3613,11 @@
       <c r="A32" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>90</v>
@@ -3479,42 +3646,46 @@
       <c r="N32" s="30"/>
       <c r="O32" s="30"/>
       <c r="P32" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="Q32" s="17">
-        <f>IF(D32="D", (V32+(T32/10))/2, IF(D32="H", (V32+(T32/10))/2*1.2, IF(D32="E", (V32+(T32/10))/2*1.5, 0)))</f>
-        <v>23.3123</v>
+        <f t="shared" ref="Q32:Q44" si="8">IF(D32="D", (V32+(T32/10))/2, IF(D32="H", (V32+(T32/10))/2*1.2, IF(D32="E", (V32+(T32/10))/2*1.5, 0)))</f>
+        <v>19.3123</v>
       </c>
       <c r="R32" s="17">
+        <f t="shared" si="3"/>
+        <v>31.424599999999998</v>
+      </c>
+      <c r="S32" s="3">
+        <v>80</v>
+      </c>
+      <c r="T32" s="3">
         <f t="shared" si="0"/>
-        <v>31.5246</v>
-      </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3">
-        <f t="shared" si="1"/>
         <v>276.24599999999998</v>
       </c>
       <c r="U32" s="14">
         <v>206</v>
       </c>
       <c r="V32" s="3">
-        <v>19</v>
-      </c>
-      <c r="W32" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="W32" s="3">
+        <v>105</v>
+      </c>
       <c r="X32" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:27">
       <c r="A33" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>90</v>
@@ -3545,40 +3716,44 @@
       </c>
       <c r="O33" s="30"/>
       <c r="P33" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="Q33" s="17">
-        <f>IF(D33="D", (V33+(T33/10))/2, IF(D33="H", (V33+(T33/10))/2*1.2, IF(D33="E", (V33+(T33/10))/2*1.5, 0)))</f>
+        <f t="shared" si="8"/>
         <v>17.768250000000002</v>
       </c>
       <c r="R33" s="17">
+        <f t="shared" si="3"/>
+        <v>40.676499999999997</v>
+      </c>
+      <c r="S33" s="3">
+        <v>80</v>
+      </c>
+      <c r="T33" s="3">
         <f t="shared" si="0"/>
-        <v>39.536500000000004</v>
-      </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3">
-        <f t="shared" si="1"/>
         <v>355.36500000000001</v>
       </c>
       <c r="U33" s="14">
         <v>265</v>
       </c>
       <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
+      <c r="W33" s="3">
+        <v>171</v>
+      </c>
       <c r="X33" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:27">
       <c r="A34" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D34" s="38" t="s">
         <v>90</v>
@@ -3607,40 +3782,44 @@
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
       <c r="P34" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q34" s="17">
-        <f>IF(D34="D", (V34+(T34/10))/2, IF(D34="H", (V34+(T34/10))/2*1.2, IF(D34="E", (V34+(T34/10))/2*1.5, 0)))</f>
+        <f t="shared" si="8"/>
         <v>17.768250000000002</v>
       </c>
       <c r="R34" s="17">
+        <f t="shared" si="3"/>
+        <v>39.676499999999997</v>
+      </c>
+      <c r="S34" s="3">
+        <v>80</v>
+      </c>
+      <c r="T34" s="3">
         <f t="shared" si="0"/>
-        <v>38.536500000000004</v>
-      </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3">
-        <f t="shared" si="1"/>
         <v>355.36500000000001</v>
       </c>
       <c r="U34" s="14">
         <v>265</v>
       </c>
       <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
+      <c r="W34" s="3">
+        <v>171</v>
+      </c>
       <c r="X34" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:27">
       <c r="A35" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>88</v>
@@ -3669,38 +3848,46 @@
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
       <c r="P35" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q35" s="17">
-        <f>IF(D35="D", (V35+(T35/10))/2, IF(D35="H", (V35+(T35/10))/2*1.2, IF(D35="E", (V35+(T35/10))/2*1.5, 0)))</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>26.1081</v>
       </c>
       <c r="R35" s="17">
-        <f t="shared" ref="R35:R40" si="8">IF(D35="D", ((V35+(W35/15)+T35)/10)+(P35/14), IF(D35="H", ((V35+(W35/15)+T35)/10*0.8)+(P35/14), IF(D35="E", ((V35+(W35/15)+T35)/10*0.5)+(P35/14), 0)))</f>
-        <v>3</v>
-      </c>
-      <c r="S35" s="3"/>
+        <f t="shared" ref="R35:R40" si="9">IF(D35="D", ((V35+(W35/15)+T35)/10)+(P35/14), IF(D35="H", ((V35+(W35/15)+T35)/10*0.8)+(P35/14), IF(D35="E", ((V35+(W35/15)+T35)/10*0.5)+(P35/14), 0)))</f>
+        <v>29.730800000000002</v>
+      </c>
+      <c r="S35" s="3">
+        <v>80</v>
+      </c>
       <c r="T35" s="3">
-        <f t="shared" ref="T35:T40" si="9">U35*1.341</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
+        <f t="shared" ref="T35:T40" si="10">U35*1.341</f>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U35" s="3">
+        <v>235</v>
+      </c>
+      <c r="V35" s="14">
+        <v>12</v>
+      </c>
+      <c r="W35" s="3">
+        <v>105</v>
+      </c>
       <c r="X35" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:27">
       <c r="A36" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>88</v>
@@ -3727,38 +3914,46 @@
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
       <c r="P36" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="Q36" s="17">
-        <f>IF(D36="D", (V36+(T36/10))/2, IF(D36="H", (V36+(T36/10))/2*1.2, IF(D36="E", (V36+(T36/10))/2*1.5, 0)))</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>26.1081</v>
       </c>
       <c r="R36" s="17">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="S36" s="3"/>
+        <f t="shared" si="9"/>
+        <v>28.730800000000002</v>
+      </c>
+      <c r="S36" s="3">
+        <v>80</v>
+      </c>
       <c r="T36" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
+        <f t="shared" si="10"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U36" s="3">
+        <v>235</v>
+      </c>
+      <c r="V36" s="14">
+        <v>12</v>
+      </c>
+      <c r="W36" s="3">
+        <v>105</v>
+      </c>
       <c r="X36" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:27">
       <c r="A37" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>88</v>
@@ -3793,40 +3988,44 @@
       </c>
       <c r="O37" s="30"/>
       <c r="P37" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="Q37" s="17">
-        <f>IF(D37="D", (V37+(T37/10))/2, IF(D37="H", (V37+(T37/10))/2*1.2, IF(D37="E", (V37+(T37/10))/2*1.5, 0)))</f>
+        <f t="shared" si="8"/>
         <v>18.908100000000001</v>
       </c>
       <c r="R37" s="17">
-        <f t="shared" si="8"/>
-        <v>29.210800000000003</v>
-      </c>
-      <c r="S37" s="3"/>
+        <f t="shared" si="9"/>
+        <v>30.122799999999998</v>
+      </c>
+      <c r="S37" s="3">
+        <v>80</v>
+      </c>
       <c r="T37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>315.13499999999999</v>
       </c>
       <c r="U37" s="3">
         <v>235</v>
       </c>
       <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
+      <c r="W37" s="3">
+        <v>171</v>
+      </c>
       <c r="X37" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:27">
       <c r="A38" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>88</v>
@@ -3857,40 +4056,44 @@
       <c r="N38" s="30"/>
       <c r="O38" s="30"/>
       <c r="P38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q38" s="17">
-        <f>IF(D38="D", (V38+(T38/10))/2, IF(D38="H", (V38+(T38/10))/2*1.2, IF(D38="E", (V38+(T38/10))/2*1.5, 0)))</f>
+        <f t="shared" si="8"/>
         <v>18.908100000000001</v>
       </c>
       <c r="R38" s="17">
-        <f t="shared" si="8"/>
-        <v>28.210800000000003</v>
-      </c>
-      <c r="S38" s="3"/>
+        <f t="shared" si="9"/>
+        <v>29.122799999999998</v>
+      </c>
+      <c r="S38" s="3">
+        <v>80</v>
+      </c>
       <c r="T38" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>315.13499999999999</v>
       </c>
       <c r="U38" s="3">
         <v>235</v>
       </c>
       <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
+      <c r="W38" s="3">
+        <v>171</v>
+      </c>
       <c r="X38" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:27">
       <c r="A39" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D39" s="38" t="s">
         <v>89</v>
@@ -3919,43 +4122,49 @@
       <c r="N39" s="30"/>
       <c r="O39" s="30"/>
       <c r="P39" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q39" s="17">
-        <f>IF(D39="D", (V39+(T39/10))/2, IF(D39="H", (V39+(T39/10))/2*1.2, IF(D39="E", (V39+(T39/10))/2*1.5, 0)))</f>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>39.137999999999998</v>
       </c>
       <c r="R39" s="17">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S39" s="3"/>
+        <f t="shared" si="9"/>
+        <v>20.391999999999999</v>
+      </c>
+      <c r="S39" s="3">
+        <v>80</v>
+      </c>
       <c r="T39" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="14"/>
+        <f t="shared" si="10"/>
+        <v>321.83999999999997</v>
+      </c>
+      <c r="U39" s="14">
+        <v>240</v>
+      </c>
       <c r="V39" s="14">
         <v>20</v>
       </c>
-      <c r="W39" s="14"/>
+      <c r="W39" s="14">
+        <v>90</v>
+      </c>
       <c r="X39" s="11">
         <v>185</v>
       </c>
       <c r="Y39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>89</v>
@@ -3982,20 +4191,22 @@
       <c r="N40" s="30"/>
       <c r="O40" s="30"/>
       <c r="P40" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="Q40" s="17">
-        <f>IF(D40="D", (V40+(T40/10))/2, IF(D40="H", (V40+(T40/10))/2*1.2, IF(D40="E", (V40+(T40/10))/2*1.5, 0)))</f>
+        <f t="shared" si="8"/>
         <v>39.137999999999998</v>
       </c>
       <c r="R40" s="17">
-        <f t="shared" si="8"/>
-        <v>19.091999999999999</v>
-      </c>
-      <c r="S40" s="3"/>
+        <f t="shared" si="9"/>
+        <v>19.391999999999999</v>
+      </c>
+      <c r="S40" s="3">
+        <v>80</v>
+      </c>
       <c r="T40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>321.83999999999997</v>
       </c>
       <c r="U40" s="14">
@@ -4004,27 +4215,31 @@
       <c r="V40" s="14">
         <v>20</v>
       </c>
-      <c r="W40" s="14"/>
+      <c r="W40" s="14">
+        <v>90</v>
+      </c>
       <c r="X40" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:27">
       <c r="A41" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>89</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="35"/>
-      <c r="G41" s="15"/>
+      <c r="G41" s="15">
+        <v>2020</v>
+      </c>
       <c r="H41" s="11">
         <v>20</v>
       </c>
@@ -4046,47 +4261,53 @@
       <c r="N41" s="30"/>
       <c r="O41" s="30"/>
       <c r="P41" s="11">
-        <f t="shared" ref="P41:P44" si="10">SUM(K41:O41)</f>
+        <f t="shared" ref="P41:P44" si="11">SUM(K41:O41)</f>
         <v>42</v>
       </c>
       <c r="Q41" s="17">
-        <f>IF(D41="D", (V41+(T41/10))/2, IF(D41="H", (V41+(T41/10))/2*1.2, IF(D41="E", (V41+(T41/10))/2*1.5, 0)))</f>
+        <f t="shared" si="8"/>
         <v>24.137999999999998</v>
       </c>
       <c r="R41" s="17">
-        <f t="shared" ref="R41:R44" si="11">IF(D41="D", ((V41+(W41/15)+T41)/10)+(P41/14), IF(D41="H", ((V41+(W41/15)+T41)/10*0.8)+(P41/14), IF(D41="E", ((V41+(W41/15)+T41)/10*0.5)+(P41/14), 0)))</f>
-        <v>19.091999999999999</v>
-      </c>
-      <c r="S41" s="3"/>
+        <f t="shared" ref="R41:R46" si="12">IF(D41="D", ((V41+(W41/15)+T41)/10)+(P41/14), IF(D41="H", ((V41+(W41/15)+T41)/10*0.8)+(P41/14), IF(D41="E", ((V41+(W41/15)+T41)/10*0.5)+(P41/14), 0)))</f>
+        <v>19.442</v>
+      </c>
+      <c r="S41" s="3">
+        <v>80</v>
+      </c>
       <c r="T41" s="3">
-        <f t="shared" ref="T41:T44" si="12">U41*1.341</f>
+        <f t="shared" ref="T41:T46" si="13">U41*1.341</f>
         <v>321.83999999999997</v>
       </c>
       <c r="U41" s="14">
         <v>240</v>
       </c>
       <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
+      <c r="W41" s="3">
+        <v>105</v>
+      </c>
       <c r="X41" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:27">
       <c r="A42" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>89</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="35"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4">
+        <v>2020</v>
+      </c>
       <c r="H42" s="11">
         <v>20</v>
       </c>
@@ -4106,47 +4327,53 @@
       <c r="N42" s="30"/>
       <c r="O42" s="30"/>
       <c r="P42" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="Q42" s="17">
-        <f>IF(D42="D", (V42+(T42/10))/2, IF(D42="H", (V42+(T42/10))/2*1.2, IF(D42="E", (V42+(T42/10))/2*1.5, 0)))</f>
+        <f t="shared" si="8"/>
         <v>24.137999999999998</v>
       </c>
       <c r="R42" s="17">
-        <f t="shared" si="11"/>
-        <v>18.091999999999999</v>
-      </c>
-      <c r="S42" s="3"/>
+        <f t="shared" si="12"/>
+        <v>18.442</v>
+      </c>
+      <c r="S42" s="3">
+        <v>80</v>
+      </c>
       <c r="T42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>321.83999999999997</v>
       </c>
       <c r="U42" s="14">
         <v>240</v>
       </c>
       <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
+      <c r="W42" s="3">
+        <v>105</v>
+      </c>
       <c r="X42" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:27">
       <c r="A43" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>89</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="35"/>
-      <c r="G43" s="15"/>
+      <c r="G43" s="15">
+        <v>2021</v>
+      </c>
       <c r="H43" s="11">
         <v>20</v>
       </c>
@@ -4170,45 +4397,53 @@
       </c>
       <c r="O43" s="30"/>
       <c r="P43" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="Q43" s="17">
-        <f>IF(D43="D", (V43+(T43/10))/2, IF(D43="H", (V43+(T43/10))/2*1.2, IF(D43="E", (V43+(T43/10))/2*1.5, 0)))</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>26.853524999999998</v>
       </c>
       <c r="R43" s="17">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="S43" s="3"/>
+        <f t="shared" si="12"/>
+        <v>22.472349999999999</v>
+      </c>
+      <c r="S43" s="3">
+        <v>80</v>
+      </c>
       <c r="T43" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="14"/>
+        <f t="shared" si="13"/>
+        <v>358.04699999999997</v>
+      </c>
+      <c r="U43" s="14">
+        <v>267</v>
+      </c>
       <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
+      <c r="W43" s="3">
+        <v>171</v>
+      </c>
       <c r="X43" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:27">
       <c r="A44" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>89</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="35"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4">
+        <v>2021</v>
+      </c>
       <c r="H44" s="11">
         <v>20</v>
       </c>
@@ -4230,27 +4465,2143 @@
       <c r="N44" s="30"/>
       <c r="O44" s="30"/>
       <c r="P44" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="Q44" s="17">
-        <f>IF(D44="D", (V44+(T44/10))/2, IF(D44="H", (V44+(T44/10))/2*1.2, IF(D44="E", (V44+(T44/10))/2*1.5, 0)))</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>26.853524999999998</v>
       </c>
       <c r="R44" s="17">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="S44" s="3"/>
+        <f t="shared" si="12"/>
+        <v>21.472349999999999</v>
+      </c>
+      <c r="S44" s="3">
+        <v>80</v>
+      </c>
       <c r="T44" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="14"/>
+        <f t="shared" si="13"/>
+        <v>358.04699999999997</v>
+      </c>
+      <c r="U44" s="14">
+        <v>267</v>
+      </c>
       <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
+      <c r="W44" s="3">
+        <v>171</v>
+      </c>
       <c r="X44" s="11">
         <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="11">
+        <v>20</v>
+      </c>
+      <c r="I45" s="11">
+        <v>25</v>
+      </c>
+      <c r="J45" s="11">
+        <v>20</v>
+      </c>
+      <c r="K45" s="29">
+        <v>14</v>
+      </c>
+      <c r="L45" s="29">
+        <v>14</v>
+      </c>
+      <c r="M45" s="29"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="11">
+        <f t="shared" ref="P45" si="14">SUM(K45:O45)</f>
+        <v>28</v>
+      </c>
+      <c r="Q45" s="17">
+        <f t="shared" ref="Q45" si="15">IF(D45="D", (V45+(T45/10))/2, IF(D45="H", (V45+(T45/10))/2*1.2, IF(D45="E", (V45+(T45/10))/2*1.5, 0)))</f>
+        <v>23.768250000000002</v>
+      </c>
+      <c r="R45" s="17">
+        <f t="shared" ref="R45" si="16">IF(D45="D", ((V45+(W45/15)+T45)/10)+(P45/14), IF(D45="H", ((V45+(W45/15)+T45)/10*0.8)+(P45/14), IF(D45="E", ((V45+(W45/15)+T45)/10*0.5)+(P45/14), 0)))</f>
+        <v>39.296500000000002</v>
+      </c>
+      <c r="S45" s="3">
+        <v>80</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" ref="T45" si="17">U45*1.341</f>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U45" s="14">
+        <v>265</v>
+      </c>
+      <c r="V45" s="14">
+        <v>12</v>
+      </c>
+      <c r="W45" s="14">
+        <v>84</v>
+      </c>
+      <c r="X45" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="11">
+        <v>20</v>
+      </c>
+      <c r="I46" s="11">
+        <v>25</v>
+      </c>
+      <c r="J46" s="11">
+        <v>20</v>
+      </c>
+      <c r="K46" s="29">
+        <v>14</v>
+      </c>
+      <c r="L46" s="29">
+        <v>14</v>
+      </c>
+      <c r="M46" s="29"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="11">
+        <f t="shared" ref="P46" si="18">SUM(K46:O46)</f>
+        <v>28</v>
+      </c>
+      <c r="Q46" s="17">
+        <f t="shared" ref="Q46" si="19">IF(D46="D", ((V46+(T46/10))/2)+(P46/14), IF(D46="H", ((V46+(T46/10))/2*1.2)+(P46/14), IF(D46="E", ((V46+(T46/10))/2*1.5)+(P46/14), 0)))</f>
+        <v>29.268250000000002</v>
+      </c>
+      <c r="R46" s="17">
+        <f t="shared" si="12"/>
+        <v>39.436500000000002</v>
+      </c>
+      <c r="S46" s="3">
+        <v>80</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="13"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U46" s="14">
+        <v>265</v>
+      </c>
+      <c r="V46" s="3">
+        <v>19</v>
+      </c>
+      <c r="W46" s="3"/>
+      <c r="X46" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="11">
+        <v>20</v>
+      </c>
+      <c r="I47" s="11">
+        <v>25</v>
+      </c>
+      <c r="J47" s="11">
+        <v>20</v>
+      </c>
+      <c r="K47" s="29">
+        <v>14</v>
+      </c>
+      <c r="L47" s="29">
+        <v>14</v>
+      </c>
+      <c r="M47" s="29">
+        <v>14</v>
+      </c>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="11">
+        <f t="shared" ref="P47" si="20">SUM(K47:O47)</f>
+        <v>42</v>
+      </c>
+      <c r="Q47" s="17">
+        <f t="shared" ref="Q47" si="21">IF(D47="D", ((V47+(T47/10))/2)+(P47/14), IF(D47="H", ((V47+(T47/10))/2*1.2)+(P47/14), IF(D47="E", ((V47+(T47/10))/2*1.5)+(P47/14), 0)))</f>
+        <v>28.25675</v>
+      </c>
+      <c r="R47" s="17">
+        <f t="shared" ref="R47:R48" si="22">IF(D47="D", ((V47+(W47/15)+T47)/10)+(P47/14), IF(D47="H", ((V47+(W47/15)+T47)/10*0.8)+(P47/14), IF(D47="E", ((V47+(W47/15)+T47)/10*0.5)+(P47/14), 0)))</f>
+        <v>36.413499999999999</v>
+      </c>
+      <c r="S47" s="3">
+        <v>80</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" ref="T47:T48" si="23">U47*1.341</f>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U47" s="14">
+        <v>235</v>
+      </c>
+      <c r="V47" s="3">
+        <v>19</v>
+      </c>
+      <c r="W47" s="3"/>
+      <c r="X47" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="11">
+        <v>20</v>
+      </c>
+      <c r="I48" s="11">
+        <v>25</v>
+      </c>
+      <c r="J48" s="11">
+        <v>20</v>
+      </c>
+      <c r="K48" s="29">
+        <v>14</v>
+      </c>
+      <c r="L48" s="29">
+        <v>14</v>
+      </c>
+      <c r="M48" s="29">
+        <v>14</v>
+      </c>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="11">
+        <f t="shared" ref="P48" si="24">SUM(K48:O48)</f>
+        <v>42</v>
+      </c>
+      <c r="Q48" s="17">
+        <f t="shared" ref="Q48" si="25">IF(D48="D", (V48+(T48/10))/2, IF(D48="H", (V48+(T48/10))/2*1.2, IF(D48="E", (V48+(T48/10))/2*1.5, 0)))</f>
+        <v>23.768250000000002</v>
+      </c>
+      <c r="R48" s="17">
+        <f t="shared" si="22"/>
+        <v>40.296500000000002</v>
+      </c>
+      <c r="S48" s="3">
+        <v>80</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" si="23"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U48" s="14">
+        <v>265</v>
+      </c>
+      <c r="V48" s="14">
+        <v>12</v>
+      </c>
+      <c r="W48" s="14">
+        <v>84</v>
+      </c>
+      <c r="X48" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="11">
+        <v>20</v>
+      </c>
+      <c r="I49" s="11">
+        <v>25</v>
+      </c>
+      <c r="J49" s="11">
+        <v>20</v>
+      </c>
+      <c r="K49" s="29">
+        <v>14</v>
+      </c>
+      <c r="L49" s="29">
+        <v>14</v>
+      </c>
+      <c r="M49" s="29">
+        <v>14</v>
+      </c>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="11">
+        <f t="shared" ref="P49:P50" si="26">SUM(K49:O49)</f>
+        <v>42</v>
+      </c>
+      <c r="Q49" s="17">
+        <f t="shared" ref="Q49:Q50" si="27">IF(D49="D", (V49+(T49/10))/2, IF(D49="H", (V49+(T49/10))/2*1.2, IF(D49="E", (V49+(T49/10))/2*1.5, 0)))</f>
+        <v>28.521900000000002</v>
+      </c>
+      <c r="R49" s="17">
+        <f t="shared" ref="R49:R50" si="28">IF(D49="D", ((V49+(W49/15)+T49)/10)+(P49/14), IF(D49="H", ((V49+(W49/15)+T49)/10*0.8)+(P49/14), IF(D49="E", ((V49+(W49/15)+T49)/10*0.5)+(P49/14), 0)))</f>
+        <v>32.837200000000003</v>
+      </c>
+      <c r="S49" s="3">
+        <v>80</v>
+      </c>
+      <c r="T49" s="3">
+        <f t="shared" ref="T49:T50" si="29">U49*1.341</f>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U49" s="14">
+        <v>265</v>
+      </c>
+      <c r="V49" s="14">
+        <v>12</v>
+      </c>
+      <c r="W49" s="14">
+        <v>84</v>
+      </c>
+      <c r="X49" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA49" s="6"/>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="11">
+        <v>20</v>
+      </c>
+      <c r="I50" s="11">
+        <v>25</v>
+      </c>
+      <c r="J50" s="11">
+        <v>20</v>
+      </c>
+      <c r="K50" s="29">
+        <v>14</v>
+      </c>
+      <c r="L50" s="29">
+        <v>14</v>
+      </c>
+      <c r="M50" s="29">
+        <v>14</v>
+      </c>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="11">
+        <f t="shared" si="26"/>
+        <v>42</v>
+      </c>
+      <c r="Q50" s="17">
+        <f t="shared" si="27"/>
+        <v>28.521900000000002</v>
+      </c>
+      <c r="R50" s="17">
+        <f t="shared" si="28"/>
+        <v>32.837200000000003</v>
+      </c>
+      <c r="S50" s="3">
+        <v>80</v>
+      </c>
+      <c r="T50" s="3">
+        <f t="shared" si="29"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U50" s="14">
+        <v>265</v>
+      </c>
+      <c r="V50" s="14">
+        <v>12</v>
+      </c>
+      <c r="W50" s="14">
+        <v>84</v>
+      </c>
+      <c r="X50" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA50" s="6"/>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="11">
+        <v>20</v>
+      </c>
+      <c r="I51" s="11">
+        <v>25</v>
+      </c>
+      <c r="J51" s="11">
+        <v>20</v>
+      </c>
+      <c r="K51" s="29">
+        <v>14</v>
+      </c>
+      <c r="L51" s="29">
+        <v>14</v>
+      </c>
+      <c r="M51" s="29"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="11">
+        <f t="shared" ref="P51:P52" si="30">SUM(K51:O51)</f>
+        <v>28</v>
+      </c>
+      <c r="Q51" s="17">
+        <f t="shared" ref="Q51:Q52" si="31">IF(D51="D", (V51+(T51/10))/2, IF(D51="H", (V51+(T51/10))/2*1.2, IF(D51="E", (V51+(T51/10))/2*1.5, 0)))</f>
+        <v>23.768250000000002</v>
+      </c>
+      <c r="R51" s="17">
+        <f t="shared" ref="R51:R52" si="32">IF(D51="D", ((V51+(W51/15)+T51)/10)+(P51/14), IF(D51="H", ((V51+(W51/15)+T51)/10*0.8)+(P51/14), IF(D51="E", ((V51+(W51/15)+T51)/10*0.5)+(P51/14), 0)))</f>
+        <v>39.296500000000002</v>
+      </c>
+      <c r="S51" s="3">
+        <v>80</v>
+      </c>
+      <c r="T51" s="3">
+        <f t="shared" ref="T51:T52" si="33">U51*1.341</f>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U51" s="14">
+        <v>265</v>
+      </c>
+      <c r="V51" s="14">
+        <v>12</v>
+      </c>
+      <c r="W51" s="14">
+        <v>84</v>
+      </c>
+      <c r="X51" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA51" s="6"/>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="11">
+        <v>20</v>
+      </c>
+      <c r="I52" s="11">
+        <v>25</v>
+      </c>
+      <c r="J52" s="11">
+        <v>20</v>
+      </c>
+      <c r="K52" s="29">
+        <v>14</v>
+      </c>
+      <c r="L52" s="29">
+        <v>14</v>
+      </c>
+      <c r="M52" s="29"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="11">
+        <f t="shared" si="30"/>
+        <v>28</v>
+      </c>
+      <c r="Q52" s="17">
+        <f t="shared" si="31"/>
+        <v>28.521900000000002</v>
+      </c>
+      <c r="R52" s="17">
+        <f t="shared" si="32"/>
+        <v>31.837200000000003</v>
+      </c>
+      <c r="S52" s="3">
+        <v>80</v>
+      </c>
+      <c r="T52" s="3">
+        <f t="shared" si="33"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U52" s="14">
+        <v>265</v>
+      </c>
+      <c r="V52" s="14">
+        <v>12</v>
+      </c>
+      <c r="W52" s="14">
+        <v>84</v>
+      </c>
+      <c r="X52" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA52" s="6"/>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="11">
+        <v>20</v>
+      </c>
+      <c r="I53" s="11">
+        <v>25</v>
+      </c>
+      <c r="J53" s="11">
+        <v>20</v>
+      </c>
+      <c r="K53" s="29">
+        <v>14</v>
+      </c>
+      <c r="L53" s="29">
+        <v>14</v>
+      </c>
+      <c r="M53" s="29"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="11">
+        <f t="shared" ref="P52:P62" si="34">SUM(K53:O53)</f>
+        <v>28</v>
+      </c>
+      <c r="Q53" s="17">
+        <f t="shared" ref="Q53" si="35">IF(D53="D", (V53+(T53/10))/2, IF(D53="H", (V53+(T53/10))/2*1.2, IF(D53="E", (V53+(T53/10))/2*1.5, 0)))</f>
+        <v>28.521900000000002</v>
+      </c>
+      <c r="R53" s="17">
+        <f t="shared" ref="R53" si="36">IF(D53="D", ((V53+(W53/15)+T53)/10)+(P53/14), IF(D53="H", ((V53+(W53/15)+T53)/10*0.8)+(P53/14), IF(D53="E", ((V53+(W53/15)+T53)/10*0.5)+(P53/14), 0)))</f>
+        <v>31.837200000000003</v>
+      </c>
+      <c r="S53" s="3">
+        <v>80</v>
+      </c>
+      <c r="T53" s="3">
+        <f t="shared" ref="T53" si="37">U53*1.341</f>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U53" s="14">
+        <v>265</v>
+      </c>
+      <c r="V53" s="14">
+        <v>12</v>
+      </c>
+      <c r="W53" s="14">
+        <v>84</v>
+      </c>
+      <c r="X53" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA53" s="6"/>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="11">
+        <v>20</v>
+      </c>
+      <c r="I54" s="11">
+        <v>25</v>
+      </c>
+      <c r="J54" s="11">
+        <v>20</v>
+      </c>
+      <c r="K54" s="29">
+        <v>14</v>
+      </c>
+      <c r="L54" s="29">
+        <v>14</v>
+      </c>
+      <c r="M54" s="29">
+        <v>14</v>
+      </c>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="11">
+        <f t="shared" si="34"/>
+        <v>42</v>
+      </c>
+      <c r="Q54" s="17">
+        <f t="shared" ref="Q54:Q57" si="38">IF(D54="D", ((V54+(T54/10))/2)+(P54/14), IF(D54="H", ((V54+(T54/10))/2*1.2)+(P54/14), IF(D54="E", ((V54+(T54/10))/2*1.5)+(P54/14), 0)))</f>
+        <v>30.268250000000002</v>
+      </c>
+      <c r="R54" s="17">
+        <f t="shared" ref="R54:R57" si="39">IF(D54="D", ((V54+(W54/15)+T54)/10)+(P54/14), IF(D54="H", ((V54+(W54/15)+T54)/10*0.8)+(P54/14), IF(D54="E", ((V54+(W54/15)+T54)/10*0.5)+(P54/14), 0)))</f>
+        <v>40.436500000000002</v>
+      </c>
+      <c r="S54" s="3">
+        <v>80</v>
+      </c>
+      <c r="T54" s="3">
+        <f t="shared" ref="T54:T57" si="40">U54*1.341</f>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U54" s="14">
+        <v>265</v>
+      </c>
+      <c r="V54" s="3">
+        <v>19</v>
+      </c>
+      <c r="W54" s="3"/>
+      <c r="X54" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA54" s="6"/>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="11">
+        <v>20</v>
+      </c>
+      <c r="I55" s="11">
+        <v>25</v>
+      </c>
+      <c r="J55" s="11">
+        <v>20</v>
+      </c>
+      <c r="K55" s="29">
+        <v>14</v>
+      </c>
+      <c r="L55" s="29">
+        <v>14</v>
+      </c>
+      <c r="M55" s="29">
+        <v>14</v>
+      </c>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="11">
+        <f t="shared" ref="P55" si="41">SUM(K55:O55)</f>
+        <v>42</v>
+      </c>
+      <c r="Q55" s="17">
+        <f t="shared" si="38"/>
+        <v>33.308099999999996</v>
+      </c>
+      <c r="R55" s="17">
+        <f t="shared" si="39"/>
+        <v>29.730800000000002</v>
+      </c>
+      <c r="S55" s="3">
+        <v>80</v>
+      </c>
+      <c r="T55" s="3">
+        <f t="shared" si="40"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U55" s="14">
+        <v>235</v>
+      </c>
+      <c r="V55" s="3">
+        <v>19</v>
+      </c>
+      <c r="W55" s="3"/>
+      <c r="X55" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="11">
+        <v>20</v>
+      </c>
+      <c r="I56" s="11">
+        <v>25</v>
+      </c>
+      <c r="J56" s="11">
+        <v>20</v>
+      </c>
+      <c r="K56" s="29">
+        <v>14</v>
+      </c>
+      <c r="L56" s="29">
+        <v>14</v>
+      </c>
+      <c r="M56" s="29"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="11">
+        <f t="shared" ref="P56:P57" si="42">SUM(K56:O56)</f>
+        <v>28</v>
+      </c>
+      <c r="Q56" s="17">
+        <f t="shared" si="38"/>
+        <v>29.268250000000002</v>
+      </c>
+      <c r="R56" s="17">
+        <f t="shared" si="39"/>
+        <v>39.436500000000002</v>
+      </c>
+      <c r="S56" s="3">
+        <v>80</v>
+      </c>
+      <c r="T56" s="3">
+        <f t="shared" si="40"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U56" s="14">
+        <v>265</v>
+      </c>
+      <c r="V56" s="3">
+        <v>19</v>
+      </c>
+      <c r="W56" s="3"/>
+      <c r="X56" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="11">
+        <v>20</v>
+      </c>
+      <c r="I57" s="11">
+        <v>25</v>
+      </c>
+      <c r="J57" s="11">
+        <v>20</v>
+      </c>
+      <c r="K57" s="29">
+        <v>14</v>
+      </c>
+      <c r="L57" s="29">
+        <v>14</v>
+      </c>
+      <c r="M57" s="29"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="11">
+        <f t="shared" si="42"/>
+        <v>28</v>
+      </c>
+      <c r="Q57" s="17">
+        <f t="shared" si="38"/>
+        <v>32.308099999999996</v>
+      </c>
+      <c r="R57" s="17">
+        <f t="shared" si="39"/>
+        <v>28.730800000000002</v>
+      </c>
+      <c r="S57" s="3">
+        <v>80</v>
+      </c>
+      <c r="T57" s="3">
+        <f t="shared" si="40"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U57" s="14">
+        <v>235</v>
+      </c>
+      <c r="V57" s="3">
+        <v>19</v>
+      </c>
+      <c r="W57" s="3"/>
+      <c r="X57" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="11">
+        <v>20</v>
+      </c>
+      <c r="I58" s="11">
+        <v>25</v>
+      </c>
+      <c r="J58" s="11">
+        <v>20</v>
+      </c>
+      <c r="K58" s="29">
+        <v>14</v>
+      </c>
+      <c r="L58" s="29">
+        <v>14</v>
+      </c>
+      <c r="M58" s="29">
+        <v>5</v>
+      </c>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="11">
+        <f t="shared" ref="P58" si="43">SUM(K58:O58)</f>
+        <v>33</v>
+      </c>
+      <c r="Q58" s="17">
+        <f t="shared" ref="Q58" si="44">IF(D58="D", ((V58+(T58/10))/2)+(P58/14), IF(D58="H", ((V58+(T58/10))/2*1.2)+(P58/14), IF(D58="E", ((V58+(T58/10))/2*1.5)+(P58/14), 0)))</f>
+        <v>29.62539285714286</v>
+      </c>
+      <c r="R58" s="17">
+        <f t="shared" ref="R50:R58" si="45">IF(D58="D", ((V58+(W58/15)+T58)/10)+(P58/14), IF(D58="H", ((V58+(W58/15)+T58)/10*0.8)+(P58/14), IF(D58="E", ((V58+(W58/15)+T58)/10*0.5)+(P58/14), 0)))</f>
+        <v>39.793642857142856</v>
+      </c>
+      <c r="S58" s="3">
+        <v>80</v>
+      </c>
+      <c r="T58" s="3">
+        <f t="shared" ref="T50:T58" si="46">U58*1.341</f>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U58" s="14">
+        <v>265</v>
+      </c>
+      <c r="V58" s="3">
+        <v>19</v>
+      </c>
+      <c r="W58" s="3"/>
+      <c r="X58" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="11">
+        <v>20</v>
+      </c>
+      <c r="I59" s="11">
+        <v>25</v>
+      </c>
+      <c r="J59" s="11">
+        <v>20</v>
+      </c>
+      <c r="K59" s="29">
+        <v>14</v>
+      </c>
+      <c r="L59" s="29">
+        <v>14</v>
+      </c>
+      <c r="M59" s="29">
+        <v>5</v>
+      </c>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="11">
+        <f t="shared" ref="P59:P60" si="47">SUM(K59:O59)</f>
+        <v>33</v>
+      </c>
+      <c r="Q59" s="17">
+        <f t="shared" ref="Q59:Q60" si="48">IF(D59="D", ((V59+(T59/10))/2)+(P59/14), IF(D59="H", ((V59+(T59/10))/2*1.2)+(P59/14), IF(D59="E", ((V59+(T59/10))/2*1.5)+(P59/14), 0)))</f>
+        <v>30.331902857142857</v>
+      </c>
+      <c r="R59" s="17">
+        <f t="shared" ref="R58:R76" si="49">IF(D59="D", ((V59+(W59/15)+T59)/10)+(P59/14), IF(D59="H", ((V59+(W59/15)+T59)/10*0.8)+(P59/14), IF(D59="E", ((V59+(W59/15)+T59)/10*0.5)+(P59/14), 0)))</f>
+        <v>25.97682285714286</v>
+      </c>
+      <c r="S59" s="3">
+        <v>80</v>
+      </c>
+      <c r="T59" s="3">
+        <f t="shared" ref="T58:T76" si="50">U59*1.341</f>
+        <v>276.24599999999998</v>
+      </c>
+      <c r="U59" s="14">
+        <v>206</v>
+      </c>
+      <c r="V59" s="3">
+        <v>19</v>
+      </c>
+      <c r="W59" s="3"/>
+      <c r="X59" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="11">
+        <v>20</v>
+      </c>
+      <c r="I60" s="11">
+        <v>25</v>
+      </c>
+      <c r="J60" s="11">
+        <v>20</v>
+      </c>
+      <c r="K60" s="29">
+        <v>14</v>
+      </c>
+      <c r="L60" s="29">
+        <v>14</v>
+      </c>
+      <c r="M60" s="29"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="11">
+        <f t="shared" si="47"/>
+        <v>28</v>
+      </c>
+      <c r="Q60" s="17">
+        <f t="shared" si="48"/>
+        <v>29.268250000000002</v>
+      </c>
+      <c r="R60" s="17">
+        <f t="shared" si="49"/>
+        <v>39.436500000000002</v>
+      </c>
+      <c r="S60" s="3">
+        <v>80</v>
+      </c>
+      <c r="T60" s="3">
+        <f t="shared" si="50"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U60" s="14">
+        <v>265</v>
+      </c>
+      <c r="V60" s="3">
+        <v>19</v>
+      </c>
+      <c r="W60" s="3"/>
+      <c r="X60" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="A61" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="11">
+        <v>20</v>
+      </c>
+      <c r="I61" s="11">
+        <v>25</v>
+      </c>
+      <c r="J61" s="11">
+        <v>20</v>
+      </c>
+      <c r="K61" s="29">
+        <v>14</v>
+      </c>
+      <c r="L61" s="29">
+        <v>14</v>
+      </c>
+      <c r="M61" s="29"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="11">
+        <f t="shared" ref="P61" si="51">SUM(K61:O61)</f>
+        <v>28</v>
+      </c>
+      <c r="Q61" s="17">
+        <f t="shared" ref="Q61" si="52">IF(D61="D", ((V61+(T61/10))/2)+(P61/14), IF(D61="H", ((V61+(T61/10))/2*1.2)+(P61/14), IF(D61="E", ((V61+(T61/10))/2*1.5)+(P61/14), 0)))</f>
+        <v>29.97476</v>
+      </c>
+      <c r="R61" s="17">
+        <f t="shared" si="49"/>
+        <v>25.619680000000002</v>
+      </c>
+      <c r="S61" s="3">
+        <v>80</v>
+      </c>
+      <c r="T61" s="3">
+        <f t="shared" si="50"/>
+        <v>276.24599999999998</v>
+      </c>
+      <c r="U61" s="14">
+        <v>206</v>
+      </c>
+      <c r="V61" s="3">
+        <v>19</v>
+      </c>
+      <c r="W61" s="3"/>
+      <c r="X61" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="A62" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="4">
+        <v>2004</v>
+      </c>
+      <c r="H62" s="11">
+        <v>20</v>
+      </c>
+      <c r="I62" s="11">
+        <v>25</v>
+      </c>
+      <c r="J62" s="11">
+        <v>20</v>
+      </c>
+      <c r="K62" s="29">
+        <v>14</v>
+      </c>
+      <c r="L62" s="29">
+        <v>14</v>
+      </c>
+      <c r="M62" s="29">
+        <v>14</v>
+      </c>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="11">
+        <f t="shared" ref="P62" si="53">SUM(K62:O62)</f>
+        <v>42</v>
+      </c>
+      <c r="Q62" s="17">
+        <f t="shared" ref="Q62" si="54">IF(D62="D", ((V62+(T62/10))/2)+(P62/14), IF(D62="H", ((V62+(T62/10))/2*1.2)+(P62/14), IF(D62="E", ((V62+(T62/10))/2*1.5)+(P62/14), 0)))</f>
+        <v>18.287399999999998</v>
+      </c>
+      <c r="R62" s="17">
+        <f t="shared" si="49"/>
+        <v>34.434800000000003</v>
+      </c>
+      <c r="S62" s="3">
+        <v>80</v>
+      </c>
+      <c r="T62" s="3">
+        <f t="shared" si="50"/>
+        <v>305.74799999999999</v>
+      </c>
+      <c r="U62" s="14">
+        <v>228</v>
+      </c>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3">
+        <v>129</v>
+      </c>
+      <c r="X62" s="11">
+        <v>185</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="A63" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="11">
+        <v>20</v>
+      </c>
+      <c r="I63" s="11">
+        <v>25</v>
+      </c>
+      <c r="J63" s="11">
+        <v>20</v>
+      </c>
+      <c r="K63" s="29">
+        <v>14</v>
+      </c>
+      <c r="L63" s="29">
+        <v>14</v>
+      </c>
+      <c r="M63" s="29">
+        <v>14</v>
+      </c>
+      <c r="N63" s="29">
+        <v>14</v>
+      </c>
+      <c r="O63" s="30"/>
+      <c r="P63" s="11">
+        <f t="shared" ref="P63" si="55">SUM(K63:O63)</f>
+        <v>56</v>
+      </c>
+      <c r="Q63" s="17">
+        <f t="shared" ref="Q62:Q72" si="56">IF(D63="D", ((V63+(T63/10))/2)+(P63/14), IF(D63="H", ((V63+(T63/10))/2*1.2)+(P63/14), IF(D63="E", ((V63+(T63/10))/2*1.5)+(P63/14), 0)))</f>
+        <v>4</v>
+      </c>
+      <c r="R63" s="17">
+        <f t="shared" si="49"/>
+        <v>5</v>
+      </c>
+      <c r="S63" s="3">
+        <v>80</v>
+      </c>
+      <c r="T63" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="14"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3">
+        <v>150</v>
+      </c>
+      <c r="X63" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="A64" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="11">
+        <v>20</v>
+      </c>
+      <c r="I64" s="11">
+        <v>25</v>
+      </c>
+      <c r="J64" s="11">
+        <v>20</v>
+      </c>
+      <c r="K64" s="29">
+        <v>14</v>
+      </c>
+      <c r="L64" s="29">
+        <v>14</v>
+      </c>
+      <c r="M64" s="29">
+        <v>14</v>
+      </c>
+      <c r="N64" s="29">
+        <v>14</v>
+      </c>
+      <c r="O64" s="30"/>
+      <c r="P64" s="11">
+        <f t="shared" ref="P64:P74" si="57">SUM(K64:O64)</f>
+        <v>56</v>
+      </c>
+      <c r="Q64" s="17">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="R64" s="17">
+        <f t="shared" si="49"/>
+        <v>4.8</v>
+      </c>
+      <c r="S64" s="3">
+        <v>80</v>
+      </c>
+      <c r="T64" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="14"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3">
+        <v>150</v>
+      </c>
+      <c r="X64" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="11">
+        <v>20</v>
+      </c>
+      <c r="I65" s="11">
+        <v>25</v>
+      </c>
+      <c r="J65" s="11">
+        <v>20</v>
+      </c>
+      <c r="K65" s="29">
+        <v>14</v>
+      </c>
+      <c r="L65" s="29">
+        <v>14</v>
+      </c>
+      <c r="M65" s="29">
+        <v>14</v>
+      </c>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="11">
+        <f t="shared" si="57"/>
+        <v>42</v>
+      </c>
+      <c r="Q65" s="17">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+      <c r="R65" s="17">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+      <c r="S65" s="3">
+        <v>80</v>
+      </c>
+      <c r="T65" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="14"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3">
+        <v>150</v>
+      </c>
+      <c r="X65" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="11">
+        <v>20</v>
+      </c>
+      <c r="I66" s="11">
+        <v>25</v>
+      </c>
+      <c r="J66" s="11">
+        <v>20</v>
+      </c>
+      <c r="K66" s="29">
+        <v>14</v>
+      </c>
+      <c r="L66" s="29">
+        <v>14</v>
+      </c>
+      <c r="M66" s="29">
+        <v>14</v>
+      </c>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="11">
+        <f t="shared" si="57"/>
+        <v>42</v>
+      </c>
+      <c r="Q66" s="17">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+      <c r="R66" s="17">
+        <f t="shared" si="49"/>
+        <v>3.8</v>
+      </c>
+      <c r="S66" s="3">
+        <v>80</v>
+      </c>
+      <c r="T66" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="14"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3">
+        <v>150</v>
+      </c>
+      <c r="X66" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="11">
+        <v>20</v>
+      </c>
+      <c r="I67" s="11">
+        <v>25</v>
+      </c>
+      <c r="J67" s="11">
+        <v>20</v>
+      </c>
+      <c r="K67" s="29">
+        <v>14</v>
+      </c>
+      <c r="L67" s="29">
+        <v>14</v>
+      </c>
+      <c r="M67" s="29">
+        <v>14</v>
+      </c>
+      <c r="N67" s="29">
+        <v>14</v>
+      </c>
+      <c r="O67" s="30"/>
+      <c r="P67" s="11">
+        <f t="shared" ref="P67:P68" si="58">SUM(K67:O67)</f>
+        <v>56</v>
+      </c>
+      <c r="Q67" s="17">
+        <f t="shared" ref="Q67:Q68" si="59">IF(D67="D", ((V67+(T67/10))/2)+(P67/14), IF(D67="H", ((V67+(T67/10))/2*1.2)+(P67/14), IF(D67="E", ((V67+(T67/10))/2*1.5)+(P67/14), 0)))</f>
+        <v>4</v>
+      </c>
+      <c r="R67" s="17">
+        <f t="shared" ref="R67:R68" si="60">IF(D67="D", ((V67+(W67/15)+T67)/10)+(P67/14), IF(D67="H", ((V67+(W67/15)+T67)/10*0.8)+(P67/14), IF(D67="E", ((V67+(W67/15)+T67)/10*0.5)+(P67/14), 0)))</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S67" s="3">
+        <v>80</v>
+      </c>
+      <c r="T67" s="3">
+        <f t="shared" ref="T67:T68" si="61">U67*1.341</f>
+        <v>0</v>
+      </c>
+      <c r="U67" s="14"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3">
+        <v>165</v>
+      </c>
+      <c r="X67" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="11">
+        <v>20</v>
+      </c>
+      <c r="I68" s="11">
+        <v>25</v>
+      </c>
+      <c r="J68" s="11">
+        <v>20</v>
+      </c>
+      <c r="K68" s="29">
+        <v>14</v>
+      </c>
+      <c r="L68" s="29">
+        <v>14</v>
+      </c>
+      <c r="M68" s="29">
+        <v>14</v>
+      </c>
+      <c r="N68" s="29">
+        <v>14</v>
+      </c>
+      <c r="O68" s="30"/>
+      <c r="P68" s="11">
+        <f t="shared" si="58"/>
+        <v>56</v>
+      </c>
+      <c r="Q68" s="17">
+        <f t="shared" si="59"/>
+        <v>4</v>
+      </c>
+      <c r="R68" s="17">
+        <f t="shared" si="60"/>
+        <v>4.88</v>
+      </c>
+      <c r="S68" s="3">
+        <v>80</v>
+      </c>
+      <c r="T68" s="3">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="14"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3">
+        <v>165</v>
+      </c>
+      <c r="X68" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="11">
+        <v>20</v>
+      </c>
+      <c r="I69" s="11">
+        <v>25</v>
+      </c>
+      <c r="J69" s="11">
+        <v>20</v>
+      </c>
+      <c r="K69" s="29">
+        <v>14</v>
+      </c>
+      <c r="L69" s="29">
+        <v>14</v>
+      </c>
+      <c r="M69" s="29">
+        <v>14</v>
+      </c>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="11">
+        <f t="shared" si="57"/>
+        <v>42</v>
+      </c>
+      <c r="Q69" s="17">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+      <c r="R69" s="17">
+        <f t="shared" si="49"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S69" s="3">
+        <v>80</v>
+      </c>
+      <c r="T69" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="14"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3">
+        <v>165</v>
+      </c>
+      <c r="X69" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="11">
+        <v>20</v>
+      </c>
+      <c r="I70" s="11">
+        <v>25</v>
+      </c>
+      <c r="J70" s="11">
+        <v>20</v>
+      </c>
+      <c r="K70" s="29">
+        <v>14</v>
+      </c>
+      <c r="L70" s="29">
+        <v>14</v>
+      </c>
+      <c r="M70" s="29">
+        <v>14</v>
+      </c>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="11">
+        <f t="shared" si="57"/>
+        <v>42</v>
+      </c>
+      <c r="Q70" s="17">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+      <c r="R70" s="17">
+        <f t="shared" ref="R70:R76" si="62">IF(D70="D", ((V70+(W70/15)+T70)/10)+(P70/14), IF(D70="H", ((V70+(W70/15)+T70)/10*0.8)+(P70/14), IF(D70="E", ((V70+(W70/15)+T70)/10*0.5)+(P70/14), 0)))</f>
+        <v>3.88</v>
+      </c>
+      <c r="S70" s="3">
+        <v>80</v>
+      </c>
+      <c r="T70" s="3">
+        <f t="shared" ref="T70:T76" si="63">U70*1.341</f>
+        <v>0</v>
+      </c>
+      <c r="U70" s="14"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3">
+        <v>165</v>
+      </c>
+      <c r="X70" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="11">
+        <v>20</v>
+      </c>
+      <c r="I71" s="11">
+        <v>25</v>
+      </c>
+      <c r="J71" s="11">
+        <v>20</v>
+      </c>
+      <c r="K71" s="29">
+        <v>14</v>
+      </c>
+      <c r="L71" s="29">
+        <v>14</v>
+      </c>
+      <c r="M71" s="29">
+        <v>14</v>
+      </c>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="11">
+        <f t="shared" si="57"/>
+        <v>42</v>
+      </c>
+      <c r="Q71" s="17">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+      <c r="R71" s="17">
+        <f t="shared" si="62"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S71" s="3">
+        <v>80</v>
+      </c>
+      <c r="T71" s="3">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="14"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3">
+        <v>165</v>
+      </c>
+      <c r="X71" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="11">
+        <v>20</v>
+      </c>
+      <c r="I72" s="11">
+        <v>25</v>
+      </c>
+      <c r="J72" s="11">
+        <v>20</v>
+      </c>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="17">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="17">
+        <f t="shared" si="62"/>
+        <v>1.2</v>
+      </c>
+      <c r="S72" s="3">
+        <v>80</v>
+      </c>
+      <c r="T72" s="3">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="14"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3">
+        <v>180</v>
+      </c>
+      <c r="X72" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="11">
+        <v>20</v>
+      </c>
+      <c r="I73" s="11">
+        <v>25</v>
+      </c>
+      <c r="J73" s="11">
+        <v>20</v>
+      </c>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="17">
+        <f t="shared" ref="Q73" si="64">IF(D73="D", (V73+(T73/10))/2, IF(D73="H", (V73+(T73/10))/2*1.2, IF(D73="E", (V73+(T73/10))/2*1.5, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="R73" s="17">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>80</v>
+      </c>
+      <c r="T73" s="3">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="14"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="11">
+        <v>170</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="11">
+        <v>20</v>
+      </c>
+      <c r="I74" s="11">
+        <v>25</v>
+      </c>
+      <c r="J74" s="11">
+        <v>20</v>
+      </c>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="17">
+        <f t="shared" ref="Q74:Q76" si="65">IF(D74="D", ((V74+(T74/10))/2)+(P74/14), IF(D74="H", ((V74+(T74/10))/2*1.2)+(P74/14), IF(D74="E", ((V74+(T74/10))/2*1.5)+(P74/14), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="17">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>80</v>
+      </c>
+      <c r="T74" s="3">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="14"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="11">
+        <v>170</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="11">
+        <v>20</v>
+      </c>
+      <c r="I75" s="11">
+        <v>25</v>
+      </c>
+      <c r="J75" s="11">
+        <v>20</v>
+      </c>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="11">
+        <f t="shared" ref="P75" si="66">SUM(K75:O75)</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="17">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="17">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>80</v>
+      </c>
+      <c r="T75" s="3">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="14"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="11">
+        <v>170</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="11">
+        <v>20</v>
+      </c>
+      <c r="I76" s="11">
+        <v>25</v>
+      </c>
+      <c r="J76" s="11">
+        <v>20</v>
+      </c>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="11">
+        <f t="shared" ref="P76" si="67">SUM(K76:O76)</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="17">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="17">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>80</v>
+      </c>
+      <c r="T76" s="3">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="14"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="11">
+        <v>170</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4265,7 +6616,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Buszadatok.xlsx
+++ b/Buszadatok.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/319a91e8a51c869d/Dokumentumok/GitHub/HVW-Bus-Set/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{5ACD9533-B454-45D5-8D53-9D5CC880F220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E23B37A9-BEC6-4FA3-89CD-776569305F33}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{5ACD9533-B454-45D5-8D53-9D5CC880F220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E08CD557-09A2-4AD0-B577-3B6ECA5144C5}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9940" yWindow="3160" windowWidth="28140" windowHeight="15190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Adatok" sheetId="9" r:id="rId1"/>
+    <sheet name="V4.0" sheetId="11" r:id="rId1"/>
     <sheet name="V3.0" sheetId="7" r:id="rId2"/>
-    <sheet name="Eggyenletek" sheetId="8" r:id="rId3"/>
+    <sheet name="Adatok" sheetId="9" r:id="rId3"/>
+    <sheet name="Eggyenletek" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="291">
   <si>
     <t>Gyártó</t>
   </si>
@@ -110,24 +111,9 @@
     <t>Erő kW</t>
   </si>
   <si>
-    <t>Rakodási sebesség</t>
-  </si>
-  <si>
-    <t>Ember széles</t>
-  </si>
-  <si>
-    <t>Lépcsőfok</t>
-  </si>
-  <si>
-    <t>utas/tick</t>
-  </si>
-  <si>
     <t>Üzemeltetési költség</t>
   </si>
   <si>
-    <t>5/csukló</t>
-  </si>
-  <si>
     <t>Típus ha van</t>
   </si>
   <si>
@@ -558,6 +544,372 @@
   </si>
   <si>
     <t>A37</t>
+  </si>
+  <si>
+    <t>Doors</t>
+  </si>
+  <si>
+    <t>Stairs</t>
+  </si>
+  <si>
+    <t>ppl/tick</t>
+  </si>
+  <si>
+    <t>Loading speed</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Manufacturing Date</t>
+  </si>
+  <si>
+    <t>Manufacturing Period</t>
+  </si>
+  <si>
+    <t>Vehicle Lifespan</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Loading speed Door 2</t>
+  </si>
+  <si>
+    <t>Loading speed Door 3</t>
+  </si>
+  <si>
+    <t>Loading speed Door 4</t>
+  </si>
+  <si>
+    <t>Loading speed Door 5</t>
+  </si>
+  <si>
+    <t>Total loading speed</t>
+  </si>
+  <si>
+    <t>Maintenance fee</t>
+  </si>
+  <si>
+    <t>Max speed (kmh)</t>
+  </si>
+  <si>
+    <t>Power HP</t>
+  </si>
+  <si>
+    <t>Power kW</t>
+  </si>
+  <si>
+    <t>Weight (tons)</t>
+  </si>
+  <si>
+    <t>Total capacity</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>K midi</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>solo</t>
+  </si>
+  <si>
+    <t>NGT</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>G articulated</t>
+  </si>
+  <si>
+    <t>G NGT articulated</t>
+  </si>
+  <si>
+    <t>10E</t>
+  </si>
+  <si>
+    <t>MAN_LC3e_10_a</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/13516/</t>
+  </si>
+  <si>
+    <t>12C</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/8361/</t>
+  </si>
+  <si>
+    <t>12G</t>
+  </si>
+  <si>
+    <t>MAN_LC3ngt_12_a</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/8532/</t>
+  </si>
+  <si>
+    <t>12E</t>
+  </si>
+  <si>
+    <t>MAN_LC3e_12_a</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/9312/</t>
+  </si>
+  <si>
+    <t>MAN_LC3_12_b</t>
+  </si>
+  <si>
+    <t>MAN_LC3ngt_12_b</t>
+  </si>
+  <si>
+    <t>MAN_LC3e_12_b</t>
+  </si>
+  <si>
+    <t>18C</t>
+  </si>
+  <si>
+    <t>MAN_LC3_18_a</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/8363/</t>
+  </si>
+  <si>
+    <t>18G</t>
+  </si>
+  <si>
+    <t>MAN_LC3ngt_18_a</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/8535/</t>
+  </si>
+  <si>
+    <t>18E</t>
+  </si>
+  <si>
+    <t>MAN_LC3e_18_a</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/10772/</t>
+  </si>
+  <si>
+    <t>MAN_LC3_18_b</t>
+  </si>
+  <si>
+    <t>MAN_LC3ngt_18_b</t>
+  </si>
+  <si>
+    <t>MAN_LC3e_18_b</t>
+  </si>
+  <si>
+    <t>Lion Intercity 3</t>
+  </si>
+  <si>
+    <t>12 LEÜ</t>
+  </si>
+  <si>
+    <t>42C</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/11571/</t>
+  </si>
+  <si>
+    <t>12 LE</t>
+  </si>
+  <si>
+    <t>32C</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/12941/</t>
+  </si>
+  <si>
+    <t>13 LEÜ</t>
+  </si>
+  <si>
+    <t>43C</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/11575/</t>
+  </si>
+  <si>
+    <t>14 LEÜ</t>
+  </si>
+  <si>
+    <t>44C</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/14051/</t>
+  </si>
+  <si>
+    <t>M 8.6m</t>
+  </si>
+  <si>
+    <t>Only google :D</t>
+  </si>
+  <si>
+    <t>M 10,5m</t>
+  </si>
+  <si>
+    <t>A47</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/6817/</t>
+  </si>
+  <si>
+    <t>12m</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/3322/</t>
+  </si>
+  <si>
+    <t>12m Hybrid</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/12000/</t>
+  </si>
+  <si>
+    <t>12m CNG</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/13885/</t>
+  </si>
+  <si>
+    <t>C 13,7m</t>
+  </si>
+  <si>
+    <t>A26/A36</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/10832/</t>
+  </si>
+  <si>
+    <t>C NG 13,7m</t>
+  </si>
+  <si>
+    <t>https://busphoto.eu/model/12183/</t>
+  </si>
+  <si>
+    <t>L 14,7m</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/3332/</t>
+  </si>
+  <si>
+    <t>L NG 14,7m</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/7684/</t>
+  </si>
+  <si>
+    <t>DD 13,8m</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/5986/</t>
+  </si>
+  <si>
+    <t>G 18m</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/3324/</t>
+  </si>
+  <si>
+    <t>G NG 18m</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/2737/</t>
+  </si>
+  <si>
+    <t>GL 18,7m</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>http://phototrans.eu/15,640964,1.html</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/3344/</t>
+  </si>
+  <si>
+    <t>GL NG 18,7m</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/6814/</t>
+  </si>
+  <si>
+    <t>A49</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/10835/</t>
+  </si>
+  <si>
+    <t>GL LE CNG 18,7m</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/6145/</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/6518/</t>
+  </si>
+  <si>
+    <t>Ü 12m</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/3331/</t>
+  </si>
+  <si>
+    <t>Ü CNG 12m</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/13882/</t>
+  </si>
+  <si>
+    <t>LE Ü 12m</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/3340/</t>
+  </si>
+  <si>
+    <t>ÜLL 14,8m</t>
+  </si>
+  <si>
+    <t>https://fotobus.me/model/3342/</t>
+  </si>
+  <si>
+    <t>Comfort (185) (0 more comfortable)</t>
+  </si>
+  <si>
+    <t>Loading speed Door 1</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Manufacture</t>
   </si>
 </sst>
 </file>
@@ -885,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1007,6 +1359,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,123 +1581,6198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AD578E-A640-4526-B0F5-98DBC29012FE}">
-  <dimension ref="A1:A22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAC58AD-0F07-438E-B9F2-438E1C7106AF}">
+  <dimension ref="A1:AB85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.08203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.58203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" s="52" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A1" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="P1" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="S1" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="T1" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="W1" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y1" s="52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>2012</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="12">
+        <f>SUM(K2:O2)</f>
+        <v>42</v>
+      </c>
+      <c r="Q2" s="12">
+        <f>IF(E2="Diesel", ((V2+(T2/10))/2)+(P2/14), IF(OR(E2="NaturalGas", E2="Hybrid"), ((V2+(T2/10))/2*1.2)+(P2/14), IF(E2="Electric", ((V2+(T2/10))/2*1.5)+(P2/14), 0)))</f>
+        <v>25.933</v>
+      </c>
+      <c r="R2" s="12">
+        <f>IF(E2="Diesel", ((V2+(W2/15)+T2)/10)+(P2/14), IF(OR(E2="NaturalGas", E2="Hybrid"), ((V2+(W2/15)+T2)/10*0.8)+(P2/14), IF(E2="Electric", ((V2+(W2/15)+T2)/10*0.5)+(P2/14), 0)))</f>
+        <v>39.539333333333332</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+      <c r="T2">
+        <f>U2*1.341</f>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U2">
+        <v>260</v>
+      </c>
+      <c r="V2">
+        <v>11</v>
+      </c>
+      <c r="W2">
+        <v>86</v>
+      </c>
+      <c r="X2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>2012</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="P3" s="12">
+        <f t="shared" ref="P3:P66" si="0">SUM(K3:O3)</f>
+        <v>28</v>
+      </c>
+      <c r="Q3" s="12">
+        <f t="shared" ref="Q3:Q66" si="1">IF(E3="Diesel", ((V3+(T3/10))/2)+(P3/14), IF(OR(E3="NaturalGas", E3="Hybrid"), ((V3+(T3/10))/2*1.2)+(P3/14), IF(E3="Electric", ((V3+(T3/10))/2*1.5)+(P3/14), 0)))</f>
+        <v>24.933</v>
+      </c>
+      <c r="R3" s="12">
+        <f t="shared" ref="R3:R66" si="2">IF(E3="Diesel", ((V3+(W3/15)+T3)/10)+(P3/14), IF(OR(E3="NaturalGas", E3="Hybrid"), ((V3+(W3/15)+T3)/10*0.8)+(P3/14), IF(E3="Electric", ((V3+(W3/15)+T3)/10*0.5)+(P3/14), 0)))</f>
+        <v>38.539333333333332</v>
+      </c>
+      <c r="S3">
+        <v>80</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="3">U3*1.341</f>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U3">
+        <v>260</v>
+      </c>
+      <c r="V3">
+        <v>11</v>
+      </c>
+      <c r="W3">
+        <v>86</v>
+      </c>
+      <c r="X3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4">
+        <v>2012</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="P4" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" si="1"/>
+        <v>26.433</v>
+      </c>
+      <c r="R4" s="12">
+        <f t="shared" si="2"/>
+        <v>39.772666666666666</v>
+      </c>
+      <c r="S4">
+        <v>80</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U4">
+        <v>260</v>
+      </c>
+      <c r="V4">
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <v>106</v>
+      </c>
+      <c r="X4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>2012</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="P5" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" si="1"/>
+        <v>25.433</v>
+      </c>
+      <c r="R5" s="12">
+        <f t="shared" si="2"/>
+        <v>38.772666666666666</v>
+      </c>
+      <c r="S5">
+        <v>80</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U5">
+        <v>260</v>
+      </c>
+      <c r="V5">
+        <v>12</v>
+      </c>
+      <c r="W5">
+        <v>106</v>
+      </c>
+      <c r="X5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>2014</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>14</v>
+      </c>
+      <c r="P6" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="1"/>
+        <v>28.501199999999997</v>
+      </c>
+      <c r="R6" s="12">
+        <f t="shared" si="2"/>
+        <v>28.206933333333332</v>
+      </c>
+      <c r="S6">
+        <v>80</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>295.02</v>
+      </c>
+      <c r="U6">
+        <v>220</v>
+      </c>
+      <c r="V6">
+        <v>13</v>
+      </c>
+      <c r="W6">
+        <v>106</v>
+      </c>
+      <c r="X6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>2014</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="P7" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" si="1"/>
+        <v>27.501199999999997</v>
+      </c>
+      <c r="R7" s="12">
+        <f t="shared" si="2"/>
+        <v>27.206933333333332</v>
+      </c>
+      <c r="S7">
+        <v>80</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>295.02</v>
+      </c>
+      <c r="U7">
+        <v>220</v>
+      </c>
+      <c r="V7">
+        <v>13</v>
+      </c>
+      <c r="W7">
+        <v>106</v>
+      </c>
+      <c r="X7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8">
+        <v>2013</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" si="1"/>
+        <v>25.790142857142857</v>
+      </c>
+      <c r="R8" s="12">
+        <f t="shared" si="2"/>
+        <v>39.12980952380952</v>
+      </c>
+      <c r="S8">
+        <v>80</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U8">
+        <v>260</v>
+      </c>
+      <c r="V8">
+        <v>12</v>
+      </c>
+      <c r="W8">
+        <v>106</v>
+      </c>
+      <c r="X8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9">
+        <v>2013</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>14</v>
+      </c>
+      <c r="P9" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="1"/>
+        <v>25.433</v>
+      </c>
+      <c r="R9" s="12">
+        <f t="shared" si="2"/>
+        <v>38.772666666666666</v>
+      </c>
+      <c r="S9">
+        <v>80</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U9">
+        <v>260</v>
+      </c>
+      <c r="V9">
+        <v>12</v>
+      </c>
+      <c r="W9">
+        <v>106</v>
+      </c>
+      <c r="X9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10">
+        <v>2012</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>14</v>
+      </c>
+      <c r="P10" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="1"/>
+        <v>30.433</v>
+      </c>
+      <c r="R10" s="12">
+        <f t="shared" si="2"/>
+        <v>41.752666666666663</v>
+      </c>
+      <c r="S10">
+        <v>80</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U10">
+        <v>260</v>
+      </c>
+      <c r="V10">
+        <v>18</v>
+      </c>
+      <c r="W10">
+        <v>163</v>
+      </c>
+      <c r="X10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11">
+        <v>2012</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q11" s="12">
+        <f t="shared" si="1"/>
+        <v>29.433</v>
+      </c>
+      <c r="R11" s="12">
+        <f t="shared" si="2"/>
+        <v>40.752666666666663</v>
+      </c>
+      <c r="S11">
+        <v>80</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U11">
+        <v>260</v>
+      </c>
+      <c r="V11">
+        <v>18</v>
+      </c>
+      <c r="W11">
+        <v>163</v>
+      </c>
+      <c r="X11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12">
+        <v>2014</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>14</v>
+      </c>
+      <c r="N12">
+        <v>14</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="1"/>
+        <v>33.101199999999992</v>
+      </c>
+      <c r="R12" s="12">
+        <f t="shared" si="2"/>
+        <v>29.990933333333334</v>
+      </c>
+      <c r="S12">
+        <v>80</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>295.02</v>
+      </c>
+      <c r="U12">
+        <v>220</v>
+      </c>
+      <c r="V12">
+        <v>19</v>
+      </c>
+      <c r="W12">
+        <v>163</v>
+      </c>
+      <c r="X12">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>2014</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <v>14</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="1"/>
+        <v>32.101199999999992</v>
+      </c>
+      <c r="R13" s="12">
+        <f t="shared" si="2"/>
+        <v>28.990933333333334</v>
+      </c>
+      <c r="S13">
+        <v>80</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>295.02</v>
+      </c>
+      <c r="U13">
+        <v>220</v>
+      </c>
+      <c r="V13">
+        <v>19</v>
+      </c>
+      <c r="W13">
+        <v>163</v>
+      </c>
+      <c r="X13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14">
+        <v>2012</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>14</v>
+      </c>
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>14</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="1"/>
+        <v>33.444499999999998</v>
+      </c>
+      <c r="R14" s="12">
+        <f t="shared" si="2"/>
+        <v>46.095666666666666</v>
+      </c>
+      <c r="S14">
+        <v>80</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>388.89</v>
+      </c>
+      <c r="U14">
+        <v>290</v>
+      </c>
+      <c r="V14">
+        <v>20</v>
+      </c>
+      <c r="W14">
+        <v>181</v>
+      </c>
+      <c r="X14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15">
+        <v>2012</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="1"/>
+        <v>34.944499999999998</v>
+      </c>
+      <c r="R15" s="12">
+        <f t="shared" si="2"/>
+        <v>47.315666666666665</v>
+      </c>
+      <c r="S15">
+        <v>80</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>388.89</v>
+      </c>
+      <c r="U15">
+        <v>290</v>
+      </c>
+      <c r="V15">
+        <v>21</v>
+      </c>
+      <c r="W15">
+        <v>199</v>
+      </c>
+      <c r="X15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16">
+        <v>2012</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="1"/>
+        <v>24.790142857142857</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="2"/>
+        <v>37.969809523809523</v>
+      </c>
+      <c r="S16">
+        <v>95</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U16">
+        <v>260</v>
+      </c>
+      <c r="V16">
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <v>82</v>
+      </c>
+      <c r="X16">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>2013</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="P17" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q17" s="12">
+        <f t="shared" si="1"/>
+        <v>24.790142857142857</v>
+      </c>
+      <c r="R17" s="12">
+        <f t="shared" si="2"/>
+        <v>37.983142857142852</v>
+      </c>
+      <c r="S17">
+        <v>100</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U17">
+        <v>260</v>
+      </c>
+      <c r="V17">
+        <v>12</v>
+      </c>
+      <c r="W17">
+        <v>84</v>
+      </c>
+      <c r="X17">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18">
+        <v>2013</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="P18" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="1"/>
+        <v>25.790142857142857</v>
+      </c>
+      <c r="R18" s="12">
+        <f t="shared" si="2"/>
+        <v>38.636476190476181</v>
+      </c>
+      <c r="S18">
+        <v>100</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U18">
+        <v>260</v>
+      </c>
+      <c r="V18">
+        <v>13</v>
+      </c>
+      <c r="W18">
+        <v>92</v>
+      </c>
+      <c r="X18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19">
+        <v>2013</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="1"/>
+        <v>25.433</v>
+      </c>
+      <c r="R19" s="12">
+        <f t="shared" si="2"/>
+        <v>38.292666666666662</v>
+      </c>
+      <c r="S19">
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>348.65999999999997</v>
+      </c>
+      <c r="U19">
+        <v>260</v>
+      </c>
+      <c r="V19">
+        <v>13</v>
+      </c>
+      <c r="W19">
+        <v>94</v>
+      </c>
+      <c r="X19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20">
+        <v>2012</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <v>14</v>
+      </c>
+      <c r="P20" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="1"/>
+        <v>30.801642857142856</v>
+      </c>
+      <c r="R20" s="12">
+        <f t="shared" si="2"/>
+        <v>43.892809523809525</v>
+      </c>
+      <c r="S20">
+        <v>100</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>388.89</v>
+      </c>
+      <c r="U20">
+        <v>290</v>
+      </c>
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <v>127</v>
+      </c>
+      <c r="X20">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21">
+        <v>2024</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <v>14</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="1"/>
+        <v>37.143749999999997</v>
+      </c>
+      <c r="R21" s="12">
+        <f t="shared" si="2"/>
+        <v>20.642500000000002</v>
+      </c>
+      <c r="S21">
+        <v>80</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>335.25</v>
+      </c>
+      <c r="U21">
+        <v>250</v>
+      </c>
+      <c r="V21">
+        <v>12</v>
+      </c>
+      <c r="W21">
+        <v>84</v>
+      </c>
+      <c r="X21">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>2024</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <v>14</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="1"/>
+        <v>36.143749999999997</v>
+      </c>
+      <c r="R22" s="12">
+        <f t="shared" si="2"/>
+        <v>19.642500000000002</v>
+      </c>
+      <c r="S22">
+        <v>80</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>335.25</v>
+      </c>
+      <c r="U22">
+        <v>250</v>
+      </c>
+      <c r="V22">
+        <v>12</v>
+      </c>
+      <c r="W22">
+        <v>84</v>
+      </c>
+      <c r="X22">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23">
+        <v>2018</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>25</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <v>14</v>
+      </c>
+      <c r="M23">
+        <v>14</v>
+      </c>
+      <c r="P23" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="1"/>
+        <v>37.893749999999997</v>
+      </c>
+      <c r="R23" s="12">
+        <f t="shared" si="2"/>
+        <v>20.705833333333334</v>
+      </c>
+      <c r="S23">
+        <v>80</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>335.25</v>
+      </c>
+      <c r="U23">
+        <v>250</v>
+      </c>
+      <c r="V23">
+        <v>13</v>
+      </c>
+      <c r="W23">
+        <v>88</v>
+      </c>
+      <c r="X23">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24">
+        <v>2018</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>14</v>
+      </c>
+      <c r="P24" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="1"/>
+        <v>36.893749999999997</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" si="2"/>
+        <v>19.705833333333334</v>
+      </c>
+      <c r="S24">
+        <v>80</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>335.25</v>
+      </c>
+      <c r="U24">
+        <v>250</v>
+      </c>
+      <c r="V24">
+        <v>13</v>
+      </c>
+      <c r="W24">
+        <v>88</v>
+      </c>
+      <c r="X24">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <v>2020</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>14</v>
+      </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>14</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="1"/>
+        <v>44.143749999999997</v>
+      </c>
+      <c r="R25" s="12">
+        <f t="shared" si="2"/>
+        <v>22.249166666666667</v>
+      </c>
+      <c r="S25">
+        <v>80</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>335.25</v>
+      </c>
+      <c r="U25">
+        <v>250</v>
+      </c>
+      <c r="V25">
+        <v>20</v>
+      </c>
+      <c r="W25">
+        <v>146</v>
+      </c>
+      <c r="X25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26">
+        <v>2020</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>14</v>
+      </c>
+      <c r="L26">
+        <v>14</v>
+      </c>
+      <c r="M26">
+        <v>14</v>
+      </c>
+      <c r="P26" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q26" s="12">
+        <f t="shared" si="1"/>
+        <v>43.143749999999997</v>
+      </c>
+      <c r="R26" s="12">
+        <f t="shared" si="2"/>
+        <v>21.249166666666667</v>
+      </c>
+      <c r="S26">
+        <v>80</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>335.25</v>
+      </c>
+      <c r="U26">
+        <v>250</v>
+      </c>
+      <c r="V26">
+        <v>20</v>
+      </c>
+      <c r="W26">
+        <v>146</v>
+      </c>
+      <c r="X26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27">
+        <v>2007</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <v>14</v>
+      </c>
+      <c r="L27">
+        <v>14</v>
+      </c>
+      <c r="M27">
+        <v>14</v>
+      </c>
+      <c r="P27" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="1"/>
+        <v>22.580500000000001</v>
+      </c>
+      <c r="R27" s="12">
+        <f t="shared" si="2"/>
+        <v>32.934333333333335</v>
+      </c>
+      <c r="S27">
+        <v>75</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>281.61</v>
+      </c>
+      <c r="U27">
+        <v>210</v>
+      </c>
+      <c r="V27">
+        <v>11</v>
+      </c>
+      <c r="W27">
+        <v>101</v>
+      </c>
+      <c r="X27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28">
+        <v>2007</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="K28">
+        <v>14</v>
+      </c>
+      <c r="L28">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <v>14</v>
+      </c>
+      <c r="N28">
+        <v>14</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="1"/>
+        <v>26.580500000000001</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="2"/>
+        <v>34.861000000000004</v>
+      </c>
+      <c r="S28">
+        <v>75</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>281.61</v>
+      </c>
+      <c r="U28">
+        <v>210</v>
+      </c>
+      <c r="V28">
+        <v>17</v>
+      </c>
+      <c r="W28">
+        <v>150</v>
+      </c>
+      <c r="X28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29">
+        <v>2016</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>25</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>14</v>
+      </c>
+      <c r="M29">
+        <v>14</v>
+      </c>
+      <c r="P29" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q29" s="12">
+        <f t="shared" si="1"/>
+        <v>23.250999999999998</v>
+      </c>
+      <c r="R29" s="12">
+        <f t="shared" si="2"/>
+        <v>34.275333333333336</v>
+      </c>
+      <c r="S29">
+        <v>75</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>295.02</v>
+      </c>
+      <c r="U29">
+        <v>220</v>
+      </c>
+      <c r="V29">
+        <v>11</v>
+      </c>
+      <c r="W29">
+        <v>101</v>
+      </c>
+      <c r="X29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30">
+        <v>2016</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>14</v>
+      </c>
+      <c r="L30">
+        <v>14</v>
+      </c>
+      <c r="M30">
+        <v>14</v>
+      </c>
+      <c r="N30">
+        <v>14</v>
+      </c>
+      <c r="P30" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" si="1"/>
+        <v>30.268250000000002</v>
+      </c>
+      <c r="R30" s="12">
+        <f t="shared" si="2"/>
+        <v>42.236499999999999</v>
+      </c>
+      <c r="S30">
+        <v>75</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U30">
+        <v>265</v>
+      </c>
+      <c r="V30">
+        <v>17</v>
+      </c>
+      <c r="W30">
+        <v>150</v>
+      </c>
+      <c r="X30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31">
+        <v>2023</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>14</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" si="1"/>
+        <v>35.387999999999998</v>
+      </c>
+      <c r="R31" s="12">
+        <f t="shared" si="2"/>
+        <v>19.942</v>
+      </c>
+      <c r="S31">
+        <v>80</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>321.83999999999997</v>
+      </c>
+      <c r="U31">
+        <v>240</v>
+      </c>
+      <c r="V31">
+        <v>11</v>
+      </c>
+      <c r="W31">
+        <v>90</v>
+      </c>
+      <c r="X31">
+        <v>185</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32">
+        <v>2023</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>14</v>
+      </c>
+      <c r="L32">
+        <v>14</v>
+      </c>
+      <c r="P32" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" si="1"/>
+        <v>34.387999999999998</v>
+      </c>
+      <c r="R32" s="12">
+        <f t="shared" si="2"/>
+        <v>18.942</v>
+      </c>
+      <c r="S32">
+        <v>80</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>321.83999999999997</v>
+      </c>
+      <c r="U32">
+        <v>240</v>
+      </c>
+      <c r="V32">
+        <v>11</v>
+      </c>
+      <c r="W32">
+        <v>90</v>
+      </c>
+      <c r="X32">
+        <v>185</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33">
+        <v>2017</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>25</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>14</v>
+      </c>
+      <c r="L33">
+        <v>14</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="P33" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="1"/>
+        <v>22.3123</v>
+      </c>
+      <c r="R33" s="12">
+        <f t="shared" si="2"/>
+        <v>32.424599999999998</v>
+      </c>
+      <c r="S33">
+        <v>80</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>276.24599999999998</v>
+      </c>
+      <c r="U33">
+        <v>206</v>
+      </c>
+      <c r="V33">
+        <v>11</v>
+      </c>
+      <c r="W33">
+        <v>105</v>
+      </c>
+      <c r="X33">
+        <v>185</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34">
+        <v>2018</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <v>14</v>
+      </c>
+      <c r="P34" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="1"/>
+        <v>29.1081</v>
+      </c>
+      <c r="R34" s="12">
+        <f t="shared" si="2"/>
+        <v>29.730800000000002</v>
+      </c>
+      <c r="S34">
+        <v>80</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U34">
+        <v>235</v>
+      </c>
+      <c r="V34">
+        <v>12</v>
+      </c>
+      <c r="W34">
+        <v>105</v>
+      </c>
+      <c r="X34">
+        <v>185</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35">
+        <v>2020</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>25</v>
+      </c>
+      <c r="J35">
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>14</v>
+      </c>
+      <c r="M35">
+        <v>14</v>
+      </c>
+      <c r="P35" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="1"/>
+        <v>37.637999999999998</v>
+      </c>
+      <c r="R35" s="12">
+        <f t="shared" si="2"/>
+        <v>20.141999999999999</v>
+      </c>
+      <c r="S35">
+        <v>80</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="3"/>
+        <v>321.83999999999997</v>
+      </c>
+      <c r="U35">
+        <v>240</v>
+      </c>
+      <c r="V35">
+        <v>14</v>
+      </c>
+      <c r="W35">
+        <v>105</v>
+      </c>
+      <c r="X35">
+        <v>185</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36">
+        <v>2017</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>25</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <v>14</v>
+      </c>
+      <c r="L36">
+        <v>14</v>
+      </c>
+      <c r="P36" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" si="1"/>
+        <v>21.3123</v>
+      </c>
+      <c r="R36" s="12">
+        <f t="shared" si="2"/>
+        <v>31.424599999999998</v>
+      </c>
+      <c r="S36">
+        <v>80</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>276.24599999999998</v>
+      </c>
+      <c r="U36">
+        <v>206</v>
+      </c>
+      <c r="V36">
+        <v>11</v>
+      </c>
+      <c r="W36">
+        <v>105</v>
+      </c>
+      <c r="X36">
+        <v>185</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>25</v>
+      </c>
+      <c r="J37">
+        <v>20</v>
+      </c>
+      <c r="K37">
+        <v>14</v>
+      </c>
+      <c r="L37">
+        <v>14</v>
+      </c>
+      <c r="P37" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="1"/>
+        <v>28.1081</v>
+      </c>
+      <c r="R37" s="12">
+        <f t="shared" si="2"/>
+        <v>28.730800000000002</v>
+      </c>
+      <c r="S37">
+        <v>80</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U37">
+        <v>235</v>
+      </c>
+      <c r="V37">
+        <v>12</v>
+      </c>
+      <c r="W37">
+        <v>105</v>
+      </c>
+      <c r="X37">
+        <v>185</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38">
+        <v>2020</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>25</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>14</v>
+      </c>
+      <c r="P38" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" si="1"/>
+        <v>36.637999999999998</v>
+      </c>
+      <c r="R38" s="12">
+        <f t="shared" si="2"/>
+        <v>19.141999999999999</v>
+      </c>
+      <c r="S38">
+        <v>80</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>321.83999999999997</v>
+      </c>
+      <c r="U38">
+        <v>240</v>
+      </c>
+      <c r="V38">
+        <v>14</v>
+      </c>
+      <c r="W38">
+        <v>105</v>
+      </c>
+      <c r="X38">
+        <v>185</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39">
+        <v>2017</v>
+      </c>
+      <c r="H39">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>25</v>
+      </c>
+      <c r="J39">
+        <v>20</v>
+      </c>
+      <c r="K39">
+        <v>14</v>
+      </c>
+      <c r="L39">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <v>14</v>
+      </c>
+      <c r="N39">
+        <v>14</v>
+      </c>
+      <c r="P39" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" si="1"/>
+        <v>30.268250000000002</v>
+      </c>
+      <c r="R39" s="12">
+        <f t="shared" si="2"/>
+        <v>42.3765</v>
+      </c>
+      <c r="S39">
+        <v>80</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U39">
+        <v>265</v>
+      </c>
+      <c r="V39">
+        <v>17</v>
+      </c>
+      <c r="W39">
+        <v>171</v>
+      </c>
+      <c r="X39">
+        <v>185</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40">
+        <v>2018</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>25</v>
+      </c>
+      <c r="J40">
+        <v>20</v>
+      </c>
+      <c r="K40">
+        <v>14</v>
+      </c>
+      <c r="L40">
+        <v>14</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>14</v>
+      </c>
+      <c r="P40" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q40" s="12">
+        <f t="shared" si="1"/>
+        <v>33.708100000000002</v>
+      </c>
+      <c r="R40" s="12">
+        <f t="shared" si="2"/>
+        <v>31.562799999999999</v>
+      </c>
+      <c r="S40">
+        <v>80</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U40">
+        <v>235</v>
+      </c>
+      <c r="V40">
+        <v>18</v>
+      </c>
+      <c r="W40">
+        <v>171</v>
+      </c>
+      <c r="X40">
+        <v>185</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41">
+        <v>2021</v>
+      </c>
+      <c r="H41">
+        <v>20</v>
+      </c>
+      <c r="I41">
+        <v>25</v>
+      </c>
+      <c r="J41">
+        <v>20</v>
+      </c>
+      <c r="K41">
+        <v>14</v>
+      </c>
+      <c r="L41">
+        <v>14</v>
+      </c>
+      <c r="M41">
+        <v>14</v>
+      </c>
+      <c r="N41">
+        <v>14</v>
+      </c>
+      <c r="P41" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q41" s="12">
+        <f t="shared" si="1"/>
+        <v>47.353524999999998</v>
+      </c>
+      <c r="R41" s="12">
+        <f t="shared" si="2"/>
+        <v>23.572349999999997</v>
+      </c>
+      <c r="S41">
+        <v>80</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>358.04699999999997</v>
+      </c>
+      <c r="U41">
+        <v>267</v>
+      </c>
+      <c r="V41">
+        <v>22</v>
+      </c>
+      <c r="W41">
+        <v>171</v>
+      </c>
+      <c r="X41">
+        <v>185</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42">
+        <v>2017</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>25</v>
+      </c>
+      <c r="J42">
+        <v>20</v>
+      </c>
+      <c r="K42">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>14</v>
+      </c>
+      <c r="M42">
+        <v>14</v>
+      </c>
+      <c r="P42" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q42" s="12">
+        <f t="shared" si="1"/>
+        <v>29.268250000000002</v>
+      </c>
+      <c r="R42" s="12">
+        <f t="shared" si="2"/>
+        <v>41.3765</v>
+      </c>
+      <c r="S42">
+        <v>80</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U42">
+        <v>265</v>
+      </c>
+      <c r="V42">
+        <v>17</v>
+      </c>
+      <c r="W42">
+        <v>171</v>
+      </c>
+      <c r="X42">
+        <v>185</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43">
+        <v>2018</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>25</v>
+      </c>
+      <c r="J43">
+        <v>20</v>
+      </c>
+      <c r="K43">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>14</v>
+      </c>
+      <c r="M43">
+        <v>14</v>
+      </c>
+      <c r="P43" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q43" s="12">
+        <f t="shared" si="1"/>
+        <v>32.708100000000002</v>
+      </c>
+      <c r="R43" s="12">
+        <f t="shared" si="2"/>
+        <v>30.562799999999999</v>
+      </c>
+      <c r="S43">
+        <v>80</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="3"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U43">
+        <v>235</v>
+      </c>
+      <c r="V43">
+        <v>18</v>
+      </c>
+      <c r="W43">
+        <v>171</v>
+      </c>
+      <c r="X43">
+        <v>185</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
+        <v>225</v>
+      </c>
+      <c r="G44">
+        <v>2021</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>25</v>
+      </c>
+      <c r="J44">
+        <v>20</v>
+      </c>
+      <c r="K44">
+        <v>14</v>
+      </c>
+      <c r="L44">
+        <v>14</v>
+      </c>
+      <c r="M44">
+        <v>14</v>
+      </c>
+      <c r="P44" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q44" s="12">
+        <f t="shared" si="1"/>
+        <v>46.353524999999998</v>
+      </c>
+      <c r="R44" s="12">
+        <f t="shared" si="2"/>
+        <v>22.572349999999997</v>
+      </c>
+      <c r="S44">
+        <v>80</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="3"/>
+        <v>358.04699999999997</v>
+      </c>
+      <c r="U44">
+        <v>267</v>
+      </c>
+      <c r="V44">
+        <v>22</v>
+      </c>
+      <c r="W44">
+        <v>171</v>
+      </c>
+      <c r="X44">
+        <v>185</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45">
+        <v>2022</v>
+      </c>
+      <c r="H45">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>25</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>7</v>
+      </c>
+      <c r="L45">
+        <v>14</v>
+      </c>
+      <c r="P45" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q45" s="12">
+        <f t="shared" si="1"/>
+        <v>19.268250000000002</v>
+      </c>
+      <c r="R45" s="12">
+        <f t="shared" si="2"/>
+        <v>37.036500000000004</v>
+      </c>
+      <c r="S45">
+        <v>120</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U45">
+        <v>265</v>
+      </c>
+      <c r="X45">
+        <v>160</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46">
+        <v>2023</v>
+      </c>
+      <c r="H46">
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <v>25</v>
+      </c>
+      <c r="J46">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>14</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
+      </c>
+      <c r="P46" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q46" s="12">
+        <f t="shared" si="1"/>
+        <v>19.768250000000002</v>
+      </c>
+      <c r="R46" s="12">
+        <f t="shared" si="2"/>
+        <v>37.536500000000004</v>
+      </c>
+      <c r="S46">
+        <v>120</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U46">
+        <v>265</v>
+      </c>
+      <c r="X46">
+        <v>160</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47">
+        <v>2022</v>
+      </c>
+      <c r="H47">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="P47" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q47" s="12">
+        <f t="shared" si="1"/>
+        <v>19.268250000000002</v>
+      </c>
+      <c r="R47" s="12">
+        <f t="shared" si="2"/>
+        <v>37.036500000000004</v>
+      </c>
+      <c r="S47">
+        <v>120</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U47">
+        <v>265</v>
+      </c>
+      <c r="X47">
+        <v>160</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48">
+        <v>2023</v>
+      </c>
+      <c r="H48">
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <v>25</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <v>14</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="P48" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q48" s="12">
+        <f t="shared" si="1"/>
+        <v>20.268250000000002</v>
+      </c>
+      <c r="R48" s="12">
+        <f t="shared" si="2"/>
+        <v>38.036500000000004</v>
+      </c>
+      <c r="S48">
+        <v>120</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U48">
+        <v>265</v>
+      </c>
+      <c r="X48">
+        <v>160</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49">
+        <v>2005</v>
+      </c>
+      <c r="H49">
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>25</v>
+      </c>
+      <c r="J49">
+        <v>20</v>
+      </c>
+      <c r="K49">
+        <v>14</v>
+      </c>
+      <c r="L49">
+        <v>14</v>
+      </c>
+      <c r="P49" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q49" s="12">
+        <f t="shared" si="1"/>
+        <v>25.768250000000002</v>
+      </c>
+      <c r="R49" s="12">
+        <f t="shared" si="2"/>
+        <v>38.736499999999999</v>
+      </c>
+      <c r="S49">
+        <v>80</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U49">
+        <v>265</v>
+      </c>
+      <c r="V49">
+        <v>12</v>
+      </c>
+      <c r="X49">
+        <v>185</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50">
+        <v>2005</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>25</v>
+      </c>
+      <c r="J50">
+        <v>20</v>
+      </c>
+      <c r="K50">
+        <v>14</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="P50" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q50" s="12">
+        <f t="shared" si="1"/>
+        <v>29.268250000000002</v>
+      </c>
+      <c r="R50" s="12">
+        <f t="shared" si="2"/>
+        <v>39.436500000000002</v>
+      </c>
+      <c r="S50">
+        <v>80</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U50">
+        <v>265</v>
+      </c>
+      <c r="V50">
+        <v>19</v>
+      </c>
+      <c r="X50">
+        <v>185</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51">
+        <v>2005</v>
+      </c>
+      <c r="H51">
+        <v>20</v>
+      </c>
+      <c r="I51">
+        <v>25</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <v>14</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>14</v>
+      </c>
+      <c r="P51" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q51" s="12">
+        <f t="shared" si="1"/>
+        <v>28.25675</v>
+      </c>
+      <c r="R51" s="12">
+        <f t="shared" si="2"/>
+        <v>36.413499999999999</v>
+      </c>
+      <c r="S51">
+        <v>80</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="3"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U51">
+        <v>235</v>
+      </c>
+      <c r="V51">
+        <v>19</v>
+      </c>
+      <c r="X51">
+        <v>185</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52">
+        <v>2005</v>
+      </c>
+      <c r="H52">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>25</v>
+      </c>
+      <c r="J52">
+        <v>20</v>
+      </c>
+      <c r="K52">
+        <v>14</v>
+      </c>
+      <c r="L52">
+        <v>14</v>
+      </c>
+      <c r="M52">
+        <v>14</v>
+      </c>
+      <c r="P52" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q52" s="12">
+        <f t="shared" si="1"/>
+        <v>26.768250000000002</v>
+      </c>
+      <c r="R52" s="12">
+        <f t="shared" si="2"/>
+        <v>40.296500000000002</v>
+      </c>
+      <c r="S52">
+        <v>80</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U52">
+        <v>265</v>
+      </c>
+      <c r="V52">
+        <v>12</v>
+      </c>
+      <c r="W52">
+        <v>84</v>
+      </c>
+      <c r="X52">
+        <v>185</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53">
+        <v>2010</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <v>25</v>
+      </c>
+      <c r="J53">
+        <v>20</v>
+      </c>
+      <c r="K53">
+        <v>14</v>
+      </c>
+      <c r="L53">
+        <v>14</v>
+      </c>
+      <c r="M53">
+        <v>14</v>
+      </c>
+      <c r="P53" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q53" s="12">
+        <f t="shared" si="1"/>
+        <v>32.121899999999997</v>
+      </c>
+      <c r="R53" s="12">
+        <f t="shared" si="2"/>
+        <v>32.917200000000008</v>
+      </c>
+      <c r="S53">
+        <v>80</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U53">
+        <v>265</v>
+      </c>
+      <c r="V53">
+        <v>13</v>
+      </c>
+      <c r="W53">
+        <v>84</v>
+      </c>
+      <c r="X53">
+        <v>185</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54">
+        <v>2005</v>
+      </c>
+      <c r="H54">
+        <v>20</v>
+      </c>
+      <c r="I54">
+        <v>25</v>
+      </c>
+      <c r="J54">
+        <v>20</v>
+      </c>
+      <c r="K54">
+        <v>14</v>
+      </c>
+      <c r="L54">
+        <v>14</v>
+      </c>
+      <c r="M54">
+        <v>14</v>
+      </c>
+      <c r="P54" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q54" s="12">
+        <f t="shared" si="1"/>
+        <v>32.121899999999997</v>
+      </c>
+      <c r="R54" s="12">
+        <f t="shared" si="2"/>
+        <v>32.917200000000008</v>
+      </c>
+      <c r="S54">
+        <v>80</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U54">
+        <v>265</v>
+      </c>
+      <c r="V54">
+        <v>13</v>
+      </c>
+      <c r="W54">
+        <v>84</v>
+      </c>
+      <c r="X54">
+        <v>185</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55">
+        <v>2005</v>
+      </c>
+      <c r="H55">
+        <v>20</v>
+      </c>
+      <c r="I55">
+        <v>25</v>
+      </c>
+      <c r="J55">
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <v>14</v>
+      </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
+      <c r="P55" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q55" s="12">
+        <f t="shared" si="1"/>
+        <v>25.768250000000002</v>
+      </c>
+      <c r="R55" s="12">
+        <f t="shared" si="2"/>
+        <v>39.296500000000002</v>
+      </c>
+      <c r="S55">
+        <v>80</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U55">
+        <v>265</v>
+      </c>
+      <c r="V55">
+        <v>12</v>
+      </c>
+      <c r="W55">
+        <v>84</v>
+      </c>
+      <c r="X55">
+        <v>185</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56">
+        <v>2010</v>
+      </c>
+      <c r="H56">
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>25</v>
+      </c>
+      <c r="J56">
+        <v>20</v>
+      </c>
+      <c r="K56">
+        <v>14</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="P56" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q56" s="12">
+        <f t="shared" si="1"/>
+        <v>31.1219</v>
+      </c>
+      <c r="R56" s="12">
+        <f t="shared" si="2"/>
+        <v>31.917200000000005</v>
+      </c>
+      <c r="S56">
+        <v>80</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U56">
+        <v>265</v>
+      </c>
+      <c r="V56">
+        <v>13</v>
+      </c>
+      <c r="W56">
+        <v>84</v>
+      </c>
+      <c r="X56">
+        <v>185</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>196</v>
+      </c>
+      <c r="G57">
+        <v>2005</v>
+      </c>
+      <c r="H57">
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>25</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57">
+        <v>14</v>
+      </c>
+      <c r="L57">
+        <v>14</v>
+      </c>
+      <c r="P57" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q57" s="12">
+        <f t="shared" si="1"/>
+        <v>31.1219</v>
+      </c>
+      <c r="R57" s="12">
+        <f t="shared" si="2"/>
+        <v>31.917200000000005</v>
+      </c>
+      <c r="S57">
+        <v>80</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U57">
+        <v>265</v>
+      </c>
+      <c r="V57">
+        <v>13</v>
+      </c>
+      <c r="W57">
+        <v>84</v>
+      </c>
+      <c r="X57">
+        <v>185</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58">
+        <v>2008</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>25</v>
+      </c>
+      <c r="J58">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>14</v>
+      </c>
+      <c r="L58">
+        <v>14</v>
+      </c>
+      <c r="M58">
+        <v>14</v>
+      </c>
+      <c r="P58" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q58" s="12">
+        <f t="shared" si="1"/>
+        <v>27.768250000000002</v>
+      </c>
+      <c r="R58" s="12">
+        <f t="shared" si="2"/>
+        <v>39.936500000000002</v>
+      </c>
+      <c r="S58">
+        <v>80</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U58">
+        <v>265</v>
+      </c>
+      <c r="V58">
+        <v>14</v>
+      </c>
+      <c r="X58">
+        <v>185</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>253</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59">
+        <v>2009</v>
+      </c>
+      <c r="H59">
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>25</v>
+      </c>
+      <c r="J59">
+        <v>20</v>
+      </c>
+      <c r="K59">
+        <v>14</v>
+      </c>
+      <c r="L59">
+        <v>14</v>
+      </c>
+      <c r="M59">
+        <v>14</v>
+      </c>
+      <c r="P59" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q59" s="12">
+        <f t="shared" si="1"/>
+        <v>30.908100000000001</v>
+      </c>
+      <c r="R59" s="12">
+        <f t="shared" si="2"/>
+        <v>29.410800000000002</v>
+      </c>
+      <c r="S59">
+        <v>80</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="3"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U59">
+        <v>235</v>
+      </c>
+      <c r="V59">
+        <v>15</v>
+      </c>
+      <c r="X59">
+        <v>185</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60">
+        <v>2008</v>
+      </c>
+      <c r="H60">
+        <v>20</v>
+      </c>
+      <c r="I60">
+        <v>25</v>
+      </c>
+      <c r="J60">
+        <v>20</v>
+      </c>
+      <c r="K60">
+        <v>14</v>
+      </c>
+      <c r="L60">
+        <v>14</v>
+      </c>
+      <c r="P60" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q60" s="12">
+        <f t="shared" si="1"/>
+        <v>26.768250000000002</v>
+      </c>
+      <c r="R60" s="12">
+        <f t="shared" si="2"/>
+        <v>38.936500000000002</v>
+      </c>
+      <c r="S60">
+        <v>80</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U60">
+        <v>265</v>
+      </c>
+      <c r="V60">
+        <v>14</v>
+      </c>
+      <c r="X60">
+        <v>185</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="s">
+        <v>253</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61">
+        <v>2009</v>
+      </c>
+      <c r="H61">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>25</v>
+      </c>
+      <c r="J61">
+        <v>20</v>
+      </c>
+      <c r="K61">
+        <v>14</v>
+      </c>
+      <c r="L61">
+        <v>14</v>
+      </c>
+      <c r="P61" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q61" s="12">
+        <f t="shared" si="1"/>
+        <v>29.908100000000001</v>
+      </c>
+      <c r="R61" s="12">
+        <f t="shared" si="2"/>
+        <v>28.410800000000002</v>
+      </c>
+      <c r="S61">
+        <v>80</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="3"/>
+        <v>315.13499999999999</v>
+      </c>
+      <c r="U61">
+        <v>235</v>
+      </c>
+      <c r="V61">
+        <v>15</v>
+      </c>
+      <c r="X61">
+        <v>185</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="G62">
+        <v>2005</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>25</v>
+      </c>
+      <c r="J62">
+        <v>20</v>
+      </c>
+      <c r="K62">
+        <v>14</v>
+      </c>
+      <c r="L62">
+        <v>14</v>
+      </c>
+      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="P62" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q62" s="12">
+        <f t="shared" si="1"/>
+        <v>27.62539285714286</v>
+      </c>
+      <c r="R62" s="12">
+        <f t="shared" si="2"/>
+        <v>40.313642857142852</v>
+      </c>
+      <c r="S62">
+        <v>80</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U62">
+        <v>265</v>
+      </c>
+      <c r="V62">
+        <v>15</v>
+      </c>
+      <c r="W62">
+        <v>138</v>
+      </c>
+      <c r="X62">
+        <v>185</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63">
+        <v>2009</v>
+      </c>
+      <c r="H63">
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>25</v>
+      </c>
+      <c r="J63">
+        <v>20</v>
+      </c>
+      <c r="K63">
+        <v>14</v>
+      </c>
+      <c r="L63">
+        <v>14</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="P63" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q63" s="12">
+        <f t="shared" si="1"/>
+        <v>28.531902857142857</v>
+      </c>
+      <c r="R63" s="12">
+        <f t="shared" si="2"/>
+        <v>26.472822857142855</v>
+      </c>
+      <c r="S63">
+        <v>80</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="3"/>
+        <v>276.24599999999998</v>
+      </c>
+      <c r="U63">
+        <v>206</v>
+      </c>
+      <c r="V63">
+        <v>16</v>
+      </c>
+      <c r="W63">
+        <v>138</v>
+      </c>
+      <c r="X63">
+        <v>185</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>193</v>
+      </c>
+      <c r="G64">
+        <v>2005</v>
+      </c>
+      <c r="H64">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>25</v>
+      </c>
+      <c r="J64">
+        <v>20</v>
+      </c>
+      <c r="K64">
+        <v>14</v>
+      </c>
+      <c r="L64">
+        <v>14</v>
+      </c>
+      <c r="P64" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q64" s="12">
+        <f t="shared" si="1"/>
+        <v>27.268250000000002</v>
+      </c>
+      <c r="R64" s="12">
+        <f t="shared" si="2"/>
+        <v>39.956499999999998</v>
+      </c>
+      <c r="S64">
+        <v>80</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="3"/>
+        <v>355.36500000000001</v>
+      </c>
+      <c r="U64">
+        <v>265</v>
+      </c>
+      <c r="V64">
+        <v>15</v>
+      </c>
+      <c r="W64">
+        <v>138</v>
+      </c>
+      <c r="X64">
+        <v>185</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>196</v>
+      </c>
+      <c r="G65">
+        <v>2009</v>
+      </c>
+      <c r="H65">
+        <v>20</v>
+      </c>
+      <c r="I65">
+        <v>25</v>
+      </c>
+      <c r="J65">
+        <v>20</v>
+      </c>
+      <c r="K65">
+        <v>14</v>
+      </c>
+      <c r="L65">
+        <v>14</v>
+      </c>
+      <c r="P65" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q65" s="12">
+        <f t="shared" si="1"/>
+        <v>28.174759999999999</v>
+      </c>
+      <c r="R65" s="12">
+        <f t="shared" si="2"/>
+        <v>26.115679999999998</v>
+      </c>
+      <c r="S65">
+        <v>80</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="3"/>
+        <v>276.24599999999998</v>
+      </c>
+      <c r="U65">
+        <v>206</v>
+      </c>
+      <c r="V65">
+        <v>16</v>
+      </c>
+      <c r="W65">
+        <v>138</v>
+      </c>
+      <c r="X65">
+        <v>185</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>193</v>
+      </c>
+      <c r="G66">
+        <v>2004</v>
+      </c>
+      <c r="H66">
+        <v>20</v>
+      </c>
+      <c r="I66">
+        <v>25</v>
+      </c>
+      <c r="J66">
+        <v>20</v>
+      </c>
+      <c r="K66">
+        <v>14</v>
+      </c>
+      <c r="L66">
+        <v>14</v>
+      </c>
+      <c r="M66">
+        <v>14</v>
+      </c>
+      <c r="P66" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q66" s="12">
+        <f t="shared" si="1"/>
+        <v>18.287399999999998</v>
+      </c>
+      <c r="R66" s="12">
+        <f t="shared" si="2"/>
+        <v>34.434800000000003</v>
+      </c>
+      <c r="S66">
+        <v>80</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="3"/>
+        <v>305.74799999999999</v>
+      </c>
+      <c r="U66">
+        <v>228</v>
+      </c>
+      <c r="W66">
+        <v>129</v>
+      </c>
+      <c r="X66">
+        <v>185</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>193</v>
+      </c>
+      <c r="G67">
+        <v>2005</v>
+      </c>
+      <c r="H67">
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>25</v>
+      </c>
+      <c r="J67">
+        <v>20</v>
+      </c>
+      <c r="K67">
+        <v>14</v>
+      </c>
+      <c r="L67">
+        <v>14</v>
+      </c>
+      <c r="M67">
+        <v>14</v>
+      </c>
+      <c r="N67">
+        <v>14</v>
+      </c>
+      <c r="P67" s="12">
+        <f t="shared" ref="P67:P85" si="4">SUM(K67:O67)</f>
+        <v>56</v>
+      </c>
+      <c r="Q67" s="12">
+        <f t="shared" ref="Q67:Q85" si="5">IF(E67="Diesel", ((V67+(T67/10))/2)+(P67/14), IF(OR(E67="NaturalGas", E67="Hybrid"), ((V67+(T67/10))/2*1.2)+(P67/14), IF(E67="Electric", ((V67+(T67/10))/2*1.5)+(P67/14), 0)))</f>
+        <v>13</v>
+      </c>
+      <c r="R67" s="12">
+        <f t="shared" ref="R67:R85" si="6">IF(E67="Diesel", ((V67+(W67/15)+T67)/10)+(P67/14), IF(OR(E67="NaturalGas", E67="Hybrid"), ((V67+(W67/15)+T67)/10*0.8)+(P67/14), IF(E67="Electric", ((V67+(W67/15)+T67)/10*0.5)+(P67/14), 0)))</f>
+        <v>6.8</v>
+      </c>
+      <c r="S67">
+        <v>80</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67:T85" si="7">U67*1.341</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="V67">
+        <v>18</v>
+      </c>
+      <c r="W67">
+        <v>150</v>
+      </c>
+      <c r="X67">
+        <v>185</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>196</v>
+      </c>
+      <c r="G68">
+        <v>2005</v>
+      </c>
+      <c r="H68">
+        <v>20</v>
+      </c>
+      <c r="I68">
+        <v>25</v>
+      </c>
+      <c r="J68">
+        <v>20</v>
+      </c>
+      <c r="K68">
+        <v>14</v>
+      </c>
+      <c r="L68">
+        <v>14</v>
+      </c>
+      <c r="M68">
+        <v>14</v>
+      </c>
+      <c r="N68">
+        <v>14</v>
+      </c>
+      <c r="P68" s="12">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="Q68" s="12">
+        <f t="shared" si="5"/>
+        <v>15.4</v>
+      </c>
+      <c r="R68" s="12">
+        <f t="shared" si="6"/>
+        <v>6.32</v>
+      </c>
+      <c r="S68">
+        <v>80</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>19</v>
+      </c>
+      <c r="W68">
+        <v>150</v>
+      </c>
+      <c r="X68">
+        <v>185</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>193</v>
+      </c>
+      <c r="G69">
+        <v>2005</v>
+      </c>
+      <c r="H69">
+        <v>20</v>
+      </c>
+      <c r="I69">
+        <v>25</v>
+      </c>
+      <c r="J69">
+        <v>20</v>
+      </c>
+      <c r="K69">
+        <v>14</v>
+      </c>
+      <c r="L69">
+        <v>14</v>
+      </c>
+      <c r="M69">
+        <v>14</v>
+      </c>
+      <c r="P69" s="12">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="Q69" s="12">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="R69" s="12">
+        <f t="shared" si="6"/>
+        <v>5.8</v>
+      </c>
+      <c r="S69">
+        <v>80</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>18</v>
+      </c>
+      <c r="W69">
+        <v>150</v>
+      </c>
+      <c r="X69">
+        <v>185</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>196</v>
+      </c>
+      <c r="G70">
+        <v>2005</v>
+      </c>
+      <c r="H70">
+        <v>20</v>
+      </c>
+      <c r="I70">
+        <v>25</v>
+      </c>
+      <c r="J70">
+        <v>20</v>
+      </c>
+      <c r="K70">
+        <v>14</v>
+      </c>
+      <c r="L70">
+        <v>14</v>
+      </c>
+      <c r="M70">
+        <v>14</v>
+      </c>
+      <c r="P70" s="12">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="Q70" s="12">
+        <f t="shared" si="5"/>
+        <v>14.4</v>
+      </c>
+      <c r="R70" s="12">
+        <f t="shared" si="6"/>
+        <v>5.32</v>
+      </c>
+      <c r="S70">
+        <v>80</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>19</v>
+      </c>
+      <c r="W70">
+        <v>150</v>
+      </c>
+      <c r="X70">
+        <v>185</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="E71" t="s">
+        <v>193</v>
+      </c>
+      <c r="G71">
+        <v>2011</v>
+      </c>
+      <c r="H71">
+        <v>20</v>
+      </c>
+      <c r="I71">
+        <v>25</v>
+      </c>
+      <c r="J71">
+        <v>20</v>
+      </c>
+      <c r="K71">
+        <v>14</v>
+      </c>
+      <c r="L71">
+        <v>14</v>
+      </c>
+      <c r="M71">
+        <v>14</v>
+      </c>
+      <c r="N71">
+        <v>14</v>
+      </c>
+      <c r="O71">
+        <v>14</v>
+      </c>
+      <c r="P71" s="12">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="Q71" s="12">
+        <f t="shared" si="5"/>
+        <v>14.5</v>
+      </c>
+      <c r="R71" s="12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="S71">
+        <v>80</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>19</v>
+      </c>
+      <c r="W71">
+        <v>165</v>
+      </c>
+      <c r="X71">
+        <v>185</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72">
+        <v>2005</v>
+      </c>
+      <c r="H72">
+        <v>20</v>
+      </c>
+      <c r="I72">
+        <v>25</v>
+      </c>
+      <c r="J72">
+        <v>20</v>
+      </c>
+      <c r="K72">
+        <v>14</v>
+      </c>
+      <c r="L72">
+        <v>14</v>
+      </c>
+      <c r="M72">
+        <v>14</v>
+      </c>
+      <c r="N72">
+        <v>14</v>
+      </c>
+      <c r="P72" s="12">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="Q72" s="12">
+        <f t="shared" si="5"/>
+        <v>13.5</v>
+      </c>
+      <c r="R72" s="12">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="S72">
+        <v>80</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>19</v>
+      </c>
+      <c r="W72">
+        <v>165</v>
+      </c>
+      <c r="X72">
+        <v>185</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>196</v>
+      </c>
+      <c r="G73">
+        <v>2008</v>
+      </c>
+      <c r="H73">
+        <v>20</v>
+      </c>
+      <c r="I73">
+        <v>25</v>
+      </c>
+      <c r="J73">
+        <v>20</v>
+      </c>
+      <c r="K73">
+        <v>14</v>
+      </c>
+      <c r="L73">
+        <v>14</v>
+      </c>
+      <c r="M73">
+        <v>14</v>
+      </c>
+      <c r="N73">
+        <v>14</v>
+      </c>
+      <c r="P73" s="12">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="Q73" s="12">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="R73" s="12">
+        <f t="shared" si="6"/>
+        <v>6.48</v>
+      </c>
+      <c r="S73">
+        <v>80</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>20</v>
+      </c>
+      <c r="W73">
+        <v>165</v>
+      </c>
+      <c r="X73">
+        <v>185</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" t="s">
+        <v>266</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>193</v>
+      </c>
+      <c r="G74">
+        <v>2005</v>
+      </c>
+      <c r="H74">
+        <v>20</v>
+      </c>
+      <c r="I74">
+        <v>25</v>
+      </c>
+      <c r="J74">
+        <v>20</v>
+      </c>
+      <c r="K74">
+        <v>14</v>
+      </c>
+      <c r="L74">
+        <v>14</v>
+      </c>
+      <c r="M74">
+        <v>14</v>
+      </c>
+      <c r="P74" s="12">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="Q74" s="12">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="R74" s="12">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="S74">
+        <v>80</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>19</v>
+      </c>
+      <c r="W74">
+        <v>165</v>
+      </c>
+      <c r="X74">
+        <v>185</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>196</v>
+      </c>
+      <c r="G75">
+        <v>2008</v>
+      </c>
+      <c r="H75">
+        <v>20</v>
+      </c>
+      <c r="I75">
+        <v>25</v>
+      </c>
+      <c r="J75">
+        <v>20</v>
+      </c>
+      <c r="K75">
+        <v>14</v>
+      </c>
+      <c r="L75">
+        <v>14</v>
+      </c>
+      <c r="M75">
+        <v>14</v>
+      </c>
+      <c r="P75" s="12">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="Q75" s="12">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="R75" s="12">
+        <f t="shared" si="6"/>
+        <v>5.48</v>
+      </c>
+      <c r="S75">
+        <v>80</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>20</v>
+      </c>
+      <c r="W75">
+        <v>165</v>
+      </c>
+      <c r="X75">
+        <v>185</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>193</v>
+      </c>
+      <c r="G76">
+        <v>2012</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
+      </c>
+      <c r="I76">
+        <v>25</v>
+      </c>
+      <c r="J76">
+        <v>20</v>
+      </c>
+      <c r="K76">
+        <v>14</v>
+      </c>
+      <c r="L76">
+        <v>14</v>
+      </c>
+      <c r="M76">
+        <v>14</v>
+      </c>
+      <c r="P76" s="12">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="Q76" s="12">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="R76" s="12">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="S76">
+        <v>80</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>19</v>
+      </c>
+      <c r="W76">
+        <v>165</v>
+      </c>
+      <c r="X76">
+        <v>185</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>196</v>
+      </c>
+      <c r="G77">
+        <v>2013</v>
+      </c>
+      <c r="H77">
+        <v>20</v>
+      </c>
+      <c r="I77">
+        <v>25</v>
+      </c>
+      <c r="J77">
+        <v>20</v>
+      </c>
+      <c r="K77">
+        <v>14</v>
+      </c>
+      <c r="L77">
+        <v>14</v>
+      </c>
+      <c r="M77">
+        <v>14</v>
+      </c>
+      <c r="P77" s="12">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="Q77" s="12">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="R77" s="12">
+        <f t="shared" si="6"/>
+        <v>5.48</v>
+      </c>
+      <c r="S77">
+        <v>80</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>20</v>
+      </c>
+      <c r="W77">
+        <v>165</v>
+      </c>
+      <c r="X77">
+        <v>185</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>193</v>
+      </c>
+      <c r="G78">
+        <v>2006</v>
+      </c>
+      <c r="H78">
+        <v>20</v>
+      </c>
+      <c r="I78">
+        <v>25</v>
+      </c>
+      <c r="J78">
+        <v>20</v>
+      </c>
+      <c r="K78">
+        <v>14</v>
+      </c>
+      <c r="L78">
+        <v>14</v>
+      </c>
+      <c r="M78">
+        <v>14</v>
+      </c>
+      <c r="N78">
+        <v>14</v>
+      </c>
+      <c r="P78" s="12">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="Q78" s="12">
+        <f t="shared" si="5"/>
+        <v>14.5</v>
+      </c>
+      <c r="R78" s="12">
+        <f t="shared" si="6"/>
+        <v>7.3</v>
+      </c>
+      <c r="S78">
+        <v>80</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>21</v>
+      </c>
+      <c r="W78">
+        <v>180</v>
+      </c>
+      <c r="X78">
+        <v>185</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="s">
+        <v>278</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79">
+        <v>2005</v>
+      </c>
+      <c r="H79">
+        <v>20</v>
+      </c>
+      <c r="I79">
+        <v>25</v>
+      </c>
+      <c r="J79">
+        <v>20</v>
+      </c>
+      <c r="K79">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="L79">
+        <v>14</v>
+      </c>
+      <c r="P79" s="12">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="Q79" s="12">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="R79" s="12">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S79">
+        <v>100</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>12</v>
+      </c>
+      <c r="X79">
+        <v>170</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80">
+        <v>2005</v>
+      </c>
+      <c r="H80">
+        <v>20</v>
+      </c>
+      <c r="I80">
+        <v>25</v>
+      </c>
+      <c r="J80">
+        <v>20</v>
+      </c>
+      <c r="P80" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="12">
+        <f t="shared" si="5"/>
+        <v>7.8</v>
+      </c>
+      <c r="R80" s="12">
+        <f t="shared" si="6"/>
+        <v>1.04</v>
+      </c>
+      <c r="S80">
+        <v>100</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>13</v>
+      </c>
+      <c r="X80">
+        <v>170</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>193</v>
+      </c>
+      <c r="G81">
+        <v>2008</v>
+      </c>
+      <c r="H81">
+        <v>20</v>
+      </c>
+      <c r="I81">
+        <v>25</v>
+      </c>
+      <c r="J81">
+        <v>20</v>
+      </c>
+      <c r="P81" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="R81" s="12">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="S81">
+        <v>100</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>12</v>
+      </c>
+      <c r="X81">
+        <v>170</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>284</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>193</v>
+      </c>
+      <c r="G82">
+        <v>2006</v>
+      </c>
+      <c r="H82">
+        <v>20</v>
+      </c>
+      <c r="I82">
+        <v>25</v>
+      </c>
+      <c r="J82">
+        <v>20</v>
+      </c>
+      <c r="K82">
+        <v>7</v>
+      </c>
+      <c r="L82">
+        <v>14</v>
+      </c>
+      <c r="M82">
+        <v>14</v>
+      </c>
+      <c r="P82" s="12">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="Q82" s="12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="R82" s="12">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="S82">
+        <v>100</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>15</v>
+      </c>
+      <c r="X82">
+        <v>170</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>284</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>193</v>
+      </c>
+      <c r="G83">
+        <v>2006</v>
+      </c>
+      <c r="H83">
+        <v>20</v>
+      </c>
+      <c r="I83">
+        <v>25</v>
+      </c>
+      <c r="J83">
+        <v>20</v>
+      </c>
+      <c r="K83">
+        <v>14</v>
+      </c>
+      <c r="L83">
+        <v>14</v>
+      </c>
+      <c r="M83">
+        <v>14</v>
+      </c>
+      <c r="P83" s="12">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="Q83" s="12">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+      <c r="R83" s="12">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+      <c r="S83">
+        <v>100</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>15</v>
+      </c>
+      <c r="X83">
+        <v>170</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" t="s">
+        <v>284</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>193</v>
+      </c>
+      <c r="G84">
+        <v>2006</v>
+      </c>
+      <c r="H84">
+        <v>20</v>
+      </c>
+      <c r="I84">
+        <v>25</v>
+      </c>
+      <c r="J84">
+        <v>20</v>
+      </c>
+      <c r="K84">
+        <v>7</v>
+      </c>
+      <c r="L84">
+        <v>14</v>
+      </c>
+      <c r="P84" s="12">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="Q84" s="12">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="R84" s="12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="S84">
+        <v>100</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V84">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>17</v>
+      <c r="X84">
+        <v>170</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" t="s">
+        <v>284</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>193</v>
+      </c>
+      <c r="G85">
+        <v>2006</v>
+      </c>
+      <c r="H85">
+        <v>20</v>
+      </c>
+      <c r="I85">
+        <v>25</v>
+      </c>
+      <c r="J85">
+        <v>20</v>
+      </c>
+      <c r="K85">
+        <v>14</v>
+      </c>
+      <c r="L85">
+        <v>14</v>
+      </c>
+      <c r="P85" s="12">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="Q85" s="12">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+      <c r="R85" s="12">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="S85">
+        <v>100</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>15</v>
+      </c>
+      <c r="X85">
+        <v>170</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1350,30 +7780,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460A460C-03E7-40D2-9428-8EF5A5403C6D}">
   <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V31" sqref="V31:Y76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.25" style="39" customWidth="1"/>
     <col min="5" max="5" width="1.5" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="9" width="9.25" customWidth="1"/>
     <col min="10" max="10" width="7.25" customWidth="1"/>
-    <col min="11" max="15" width="4.875" style="31" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
-    <col min="17" max="17" width="8.125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="12" customWidth="1"/>
+    <col min="11" max="15" width="4.83203125" style="31" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" customWidth="1"/>
+    <col min="17" max="17" width="8.08203125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="8.58203125" style="12" customWidth="1"/>
     <col min="19" max="19" width="8.25" customWidth="1"/>
-    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" customWidth="1"/>
     <col min="23" max="23" width="9.5" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
@@ -1390,7 +7820,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="33" t="s">
@@ -1409,19 +7839,19 @@
         <v>7</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>8</v>
@@ -1453,20 +7883,20 @@
     </row>
     <row r="2" spans="1:24" s="7" customFormat="1">
       <c r="A2" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G2" s="13">
         <v>2012</v>
@@ -1525,20 +7955,20 @@
     </row>
     <row r="3" spans="1:24" s="7" customFormat="1">
       <c r="A3" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="34" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G3" s="13">
         <v>2012</v>
@@ -1570,7 +8000,7 @@
         <v>24.933</v>
       </c>
       <c r="R3" s="17">
-        <f t="shared" ref="R2:R34" si="3">IF(D3="D", ((V3+(W3/15)+T3)/10)+(P3/14), IF(D3="H", ((V3+(W3/15)+T3)/10*0.8)+(P3/14), IF(D3="E", ((V3+(W3/15)+T3)/10*0.5)+(P3/14), 0)))</f>
+        <f t="shared" ref="R3:R34" si="3">IF(D3="D", ((V3+(W3/15)+T3)/10)+(P3/14), IF(D3="H", ((V3+(W3/15)+T3)/10*0.8)+(P3/14), IF(D3="E", ((V3+(W3/15)+T3)/10*0.5)+(P3/14), 0)))</f>
         <v>38.539333333333332</v>
       </c>
       <c r="S3" s="11">
@@ -1595,20 +8025,20 @@
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="34" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G4" s="13">
         <v>2012</v>
@@ -1667,20 +8097,20 @@
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1">
       <c r="A5" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G5" s="13">
         <v>2012</v>
@@ -1737,20 +8167,20 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G6" s="13">
         <v>2014</v>
@@ -1809,20 +8239,20 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G7" s="13">
         <v>2014</v>
@@ -1879,20 +8309,20 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G8" s="4">
         <v>2013</v>
@@ -1951,20 +8381,20 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="34" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G9" s="4">
         <v>2013</v>
@@ -2021,20 +8451,20 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G10" s="13">
         <v>2012</v>
@@ -2095,20 +8525,20 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E11" s="45"/>
       <c r="F11" s="34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G11" s="13">
         <v>2012</v>
@@ -2167,20 +8597,20 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G12" s="13">
         <v>2014</v>
@@ -2241,20 +8671,20 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G13" s="13">
         <v>2014</v>
@@ -2313,20 +8743,20 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G14" s="13">
         <v>2012</v>
@@ -2387,20 +8817,20 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G15" s="13">
         <v>2012</v>
@@ -2463,20 +8893,20 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G16" s="13">
         <v>2012</v>
@@ -2533,20 +8963,20 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G17" s="4">
         <v>2013</v>
@@ -2603,20 +9033,20 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="34" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G18" s="4">
         <v>2013</v>
@@ -2675,20 +9105,20 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G19" s="4">
         <v>2013</v>
@@ -2745,20 +9175,20 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G20" s="13">
         <v>2012</v>
@@ -2817,20 +9247,20 @@
     </row>
     <row r="21" spans="1:24" s="7" customFormat="1">
       <c r="A21" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G21" s="13">
         <v>2024</v>
@@ -2889,20 +9319,20 @@
     </row>
     <row r="22" spans="1:24" s="7" customFormat="1">
       <c r="A22" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G22" s="13">
         <v>2024</v>
@@ -2959,20 +9389,20 @@
     </row>
     <row r="23" spans="1:24" s="7" customFormat="1">
       <c r="A23" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G23" s="13">
         <v>2018</v>
@@ -3031,20 +9461,20 @@
     </row>
     <row r="24" spans="1:24" s="7" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G24" s="13">
         <v>2018</v>
@@ -3101,20 +9531,20 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="34" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G25" s="4">
         <v>2020</v>
@@ -3175,20 +9605,20 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G26" s="4">
         <v>2020</v>
@@ -3247,20 +9677,20 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G27" s="4">
         <v>2007</v>
@@ -3319,20 +9749,20 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G28" s="4">
         <v>2007</v>
@@ -3393,20 +9823,20 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G29" s="4">
         <v>2016</v>
@@ -3465,20 +9895,20 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G30" s="4">
         <v>2016</v>
@@ -3539,20 +9969,20 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D31" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="35" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G31" s="4">
         <v>2017</v>
@@ -3611,16 +10041,16 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B32" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D32" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="35"/>
@@ -3679,16 +10109,16 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="35"/>
@@ -3747,16 +10177,16 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="35"/>
@@ -3813,16 +10243,16 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="35"/>
@@ -3881,16 +10311,16 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="35"/>
@@ -3947,20 +10377,20 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="35" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G37" s="4">
         <v>2018</v>
@@ -4019,16 +10449,16 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="35"/>
@@ -4087,16 +10517,16 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="35"/>
@@ -4153,21 +10583,21 @@
         <v>185</v>
       </c>
       <c r="Y39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="35"/>
@@ -4224,16 +10654,16 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="35"/>
@@ -4292,16 +10722,16 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="35"/>
@@ -4358,16 +10788,16 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="35"/>
@@ -4428,16 +10858,16 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="35"/>
@@ -4496,16 +10926,16 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="35"/>
@@ -4560,21 +10990,21 @@
         <v>185</v>
       </c>
       <c r="Y45" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="35"/>
@@ -4627,21 +11057,21 @@
         <v>185</v>
       </c>
       <c r="Y46" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="35"/>
@@ -4696,21 +11126,21 @@
         <v>185</v>
       </c>
       <c r="Y47" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="35"/>
@@ -4767,22 +11197,22 @@
         <v>185</v>
       </c>
       <c r="Y48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AA48" s="6"/>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="35"/>
@@ -4839,22 +11269,22 @@
         <v>185</v>
       </c>
       <c r="Y49" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AA49" s="6"/>
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="35"/>
@@ -4911,22 +11341,22 @@
         <v>185</v>
       </c>
       <c r="Y50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AA50" s="6"/>
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="35"/>
@@ -4981,22 +11411,22 @@
         <v>185</v>
       </c>
       <c r="Y51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AA51" s="6"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="35"/>
@@ -5051,22 +11481,22 @@
         <v>185</v>
       </c>
       <c r="Y52" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AA52" s="6"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="35"/>
@@ -5090,7 +11520,7 @@
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
       <c r="P53" s="11">
-        <f t="shared" ref="P52:P62" si="34">SUM(K53:O53)</f>
+        <f t="shared" ref="P53:P54" si="34">SUM(K53:O53)</f>
         <v>28</v>
       </c>
       <c r="Q53" s="17">
@@ -5121,22 +11551,22 @@
         <v>185</v>
       </c>
       <c r="Y53" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AA53" s="6"/>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="35"/>
@@ -5191,22 +11621,22 @@
         <v>185</v>
       </c>
       <c r="Y54" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AA54" s="6"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="35"/>
@@ -5263,16 +11693,16 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="35"/>
@@ -5327,16 +11757,16 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B57" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D57" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="35"/>
@@ -5391,16 +11821,16 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="35"/>
@@ -5434,14 +11864,14 @@
         <v>29.62539285714286</v>
       </c>
       <c r="R58" s="17">
-        <f t="shared" ref="R50:R58" si="45">IF(D58="D", ((V58+(W58/15)+T58)/10)+(P58/14), IF(D58="H", ((V58+(W58/15)+T58)/10*0.8)+(P58/14), IF(D58="E", ((V58+(W58/15)+T58)/10*0.5)+(P58/14), 0)))</f>
+        <f t="shared" ref="R58" si="45">IF(D58="D", ((V58+(W58/15)+T58)/10)+(P58/14), IF(D58="H", ((V58+(W58/15)+T58)/10*0.8)+(P58/14), IF(D58="E", ((V58+(W58/15)+T58)/10*0.5)+(P58/14), 0)))</f>
         <v>39.793642857142856</v>
       </c>
       <c r="S58" s="3">
         <v>80</v>
       </c>
       <c r="T58" s="3">
-        <f t="shared" ref="T50:T58" si="46">U58*1.341</f>
+        <f t="shared" ref="T58" si="46">U58*1.341</f>
         <v>355.36500000000001</v>
       </c>
       <c r="U58" s="14">
@@ -5455,21 +11885,21 @@
         <v>185</v>
       </c>
       <c r="Y58" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="35"/>
@@ -5503,14 +11933,14 @@
         <v>30.331902857142857</v>
       </c>
       <c r="R59" s="17">
-        <f t="shared" ref="R58:R76" si="49">IF(D59="D", ((V59+(W59/15)+T59)/10)+(P59/14), IF(D59="H", ((V59+(W59/15)+T59)/10*0.8)+(P59/14), IF(D59="E", ((V59+(W59/15)+T59)/10*0.5)+(P59/14), 0)))</f>
+        <f t="shared" ref="R59:R69" si="49">IF(D59="D", ((V59+(W59/15)+T59)/10)+(P59/14), IF(D59="H", ((V59+(W59/15)+T59)/10*0.8)+(P59/14), IF(D59="E", ((V59+(W59/15)+T59)/10*0.5)+(P59/14), 0)))</f>
         <v>25.97682285714286</v>
       </c>
       <c r="S59" s="3">
         <v>80</v>
       </c>
       <c r="T59" s="3">
-        <f t="shared" ref="T58:T76" si="50">U59*1.341</f>
+        <f t="shared" ref="T59:T69" si="50">U59*1.341</f>
         <v>276.24599999999998</v>
       </c>
       <c r="U59" s="14">
@@ -5526,16 +11956,16 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="35"/>
@@ -5588,21 +12018,21 @@
         <v>185</v>
       </c>
       <c r="Y60" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="35"/>
@@ -5657,16 +12087,16 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="35"/>
@@ -5723,21 +12153,21 @@
         <v>185</v>
       </c>
       <c r="Y62" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="35"/>
@@ -5769,7 +12199,7 @@
         <v>56</v>
       </c>
       <c r="Q63" s="17">
-        <f t="shared" ref="Q62:Q72" si="56">IF(D63="D", ((V63+(T63/10))/2)+(P63/14), IF(D63="H", ((V63+(T63/10))/2*1.2)+(P63/14), IF(D63="E", ((V63+(T63/10))/2*1.5)+(P63/14), 0)))</f>
+        <f t="shared" ref="Q63:Q72" si="56">IF(D63="D", ((V63+(T63/10))/2)+(P63/14), IF(D63="H", ((V63+(T63/10))/2*1.2)+(P63/14), IF(D63="E", ((V63+(T63/10))/2*1.5)+(P63/14), 0)))</f>
         <v>4</v>
       </c>
       <c r="R63" s="17">
@@ -5794,16 +12224,16 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="35"/>
@@ -5860,16 +12290,16 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="35"/>
@@ -5924,16 +12354,16 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="35"/>
@@ -5988,16 +12418,16 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B67" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="35"/>
@@ -6054,16 +12484,16 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="35"/>
@@ -6120,16 +12550,16 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B69" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="35"/>
@@ -6184,16 +12614,16 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="35"/>
@@ -6248,16 +12678,16 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="35"/>
@@ -6312,16 +12742,16 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="35"/>
@@ -6370,16 +12800,16 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="35"/>
@@ -6424,21 +12854,21 @@
         <v>170</v>
       </c>
       <c r="Y73" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="35"/>
@@ -6483,21 +12913,21 @@
         <v>170</v>
       </c>
       <c r="Y74" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="35"/>
@@ -6542,21 +12972,21 @@
         <v>170</v>
       </c>
       <c r="Y75" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="35"/>
@@ -6601,7 +13031,7 @@
         <v>170</v>
       </c>
       <c r="Y76" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6612,55 +13042,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA3D93C-01B3-49C6-81E6-BCED4F1281E8}">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AD578E-A640-4526-B0F5-98DBC29012FE}">
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA3D93C-01B3-49C6-81E6-BCED4F1281E8}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="14.5" thickBot="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
-      <c r="B2" s="26">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>29</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="18">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="19">
-        <v>2</v>
-      </c>
-      <c r="D3" s="20">
-        <v>5</v>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6668,21 +13219,21 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="22">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6690,165 +13241,154 @@
         <v>2</v>
       </c>
       <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.5" thickBot="1">
+      <c r="B7" s="23">
         <v>2</v>
       </c>
-      <c r="D6" s="22">
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="21">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1">
-      <c r="B8" s="23">
-        <v>2</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0</v>
-      </c>
-      <c r="D8" s="25">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
